--- a/Code/Results/Cases/Case_0_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.158533714387121</v>
+        <v>6.158533714387149</v>
       </c>
       <c r="D2">
-        <v>3.481819190198215</v>
+        <v>3.481819190198235</v>
       </c>
       <c r="E2">
-        <v>5.268039814063254</v>
+        <v>5.268039814063256</v>
       </c>
       <c r="F2">
-        <v>36.84961023643874</v>
+        <v>36.84961023643903</v>
       </c>
       <c r="G2">
-        <v>28.68753693003075</v>
+        <v>28.687536930031</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.032794501468065</v>
+        <v>4.032794501467998</v>
       </c>
       <c r="J2">
-        <v>60.71221836969956</v>
+        <v>60.7122183696997</v>
       </c>
       <c r="K2">
-        <v>6.352004883880021</v>
+        <v>6.35200488387998</v>
       </c>
       <c r="L2">
-        <v>39.06493074348985</v>
+        <v>39.06493074348995</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.748400855654859</v>
+        <v>5.748400855654892</v>
       </c>
       <c r="D3">
-        <v>3.073950100628448</v>
+        <v>3.073950100628511</v>
       </c>
       <c r="E3">
-        <v>5.281665424645716</v>
+        <v>5.281665424645666</v>
       </c>
       <c r="F3">
-        <v>33.89385780502644</v>
+        <v>33.89385780502636</v>
       </c>
       <c r="G3">
-        <v>26.22894325634405</v>
+        <v>26.228943256344</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.326218970855438</v>
+        <v>4.326218970855375</v>
       </c>
       <c r="J3">
-        <v>56.25811804461025</v>
+        <v>56.25811804461024</v>
       </c>
       <c r="K3">
-        <v>6.167795682000926</v>
+        <v>6.167795682000889</v>
       </c>
       <c r="L3">
-        <v>36.18605816401932</v>
+        <v>36.18605816401931</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.497706744912771</v>
+        <v>5.497706744912774</v>
       </c>
       <c r="D4">
-        <v>2.82629860663585</v>
+        <v>2.826298606635893</v>
       </c>
       <c r="E4">
-        <v>5.294098082740931</v>
+        <v>5.29409808274099</v>
       </c>
       <c r="F4">
-        <v>32.33659823613645</v>
+        <v>32.33659823613633</v>
       </c>
       <c r="G4">
-        <v>25.08991354169768</v>
+        <v>25.0899135416976</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.507572398851901</v>
+        <v>4.507572398851937</v>
       </c>
       <c r="J4">
-        <v>53.41057674298541</v>
+        <v>53.41057674298543</v>
       </c>
       <c r="K4">
-        <v>6.055066533902765</v>
+        <v>6.055066533902853</v>
       </c>
       <c r="L4">
-        <v>34.34727469740288</v>
+        <v>34.34727469740287</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.395717783569964</v>
+        <v>5.395717783569928</v>
       </c>
       <c r="D5">
-        <v>2.725711018167215</v>
+        <v>2.725711018167277</v>
       </c>
       <c r="E5">
-        <v>5.300131865040866</v>
+        <v>5.300131865040749</v>
       </c>
       <c r="F5">
-        <v>31.72092047577031</v>
+        <v>31.72092047577044</v>
       </c>
       <c r="G5">
-        <v>24.64405469865611</v>
+        <v>24.6440546986562</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.581872635556813</v>
+        <v>4.58187263555668</v>
       </c>
       <c r="J5">
-        <v>52.2202239709603</v>
+        <v>52.22022397096033</v>
       </c>
       <c r="K5">
-        <v>6.009193992338476</v>
+        <v>6.009193992338425</v>
       </c>
       <c r="L5">
-        <v>33.57898309239884</v>
+        <v>33.57898309239889</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.378790822385322</v>
+        <v>5.378790822385331</v>
       </c>
       <c r="D6">
-        <v>2.709019227716544</v>
+        <v>2.709019227716626</v>
       </c>
       <c r="E6">
-        <v>5.301190713998463</v>
+        <v>5.301190713998455</v>
       </c>
       <c r="F6">
-        <v>31.61980553471492</v>
+        <v>31.61980553471489</v>
       </c>
       <c r="G6">
-        <v>24.57110175361723</v>
+        <v>24.57110175361717</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.59423710324814</v>
+        <v>4.594237103248142</v>
       </c>
       <c r="J6">
-        <v>52.02071479679069</v>
+        <v>52.02071479679062</v>
       </c>
       <c r="K6">
-        <v>6.001580275066898</v>
+        <v>6.00158027506689</v>
       </c>
       <c r="L6">
-        <v>33.45023437489274</v>
+        <v>33.4502343748927</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.496330697037073</v>
+        <v>5.496330697037036</v>
       </c>
       <c r="D7">
-        <v>2.824941134076187</v>
+        <v>2.824941134076167</v>
       </c>
       <c r="E7">
         <v>5.294175607460202</v>
       </c>
       <c r="F7">
-        <v>32.3282195651561</v>
+        <v>32.32821956515603</v>
       </c>
       <c r="G7">
-        <v>25.0838275364468</v>
+        <v>25.08382753644673</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4.508572695092755</v>
+        <v>4.508572695092729</v>
       </c>
       <c r="J7">
-        <v>53.39464648295247</v>
+        <v>53.39464648295242</v>
       </c>
       <c r="K7">
-        <v>6.054447643272011</v>
+        <v>6.054447643272022</v>
       </c>
       <c r="L7">
-        <v>34.3369913797957</v>
+        <v>34.33699137979566</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.016796249069292</v>
+        <v>6.016796249069245</v>
       </c>
       <c r="D8">
-        <v>3.34036303450268</v>
+        <v>3.340363034502621</v>
       </c>
       <c r="E8">
-        <v>5.271858413228194</v>
+        <v>5.271858413228146</v>
       </c>
       <c r="F8">
-        <v>35.79245675999127</v>
+        <v>35.79245675999103</v>
       </c>
       <c r="G8">
-        <v>27.82369360299661</v>
+        <v>27.8236936029964</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.133776292345355</v>
+        <v>4.133776292345391</v>
       </c>
       <c r="J8">
-        <v>59.19878049983901</v>
+        <v>59.19878049983885</v>
       </c>
       <c r="K8">
-        <v>6.2883889421562</v>
+        <v>6.288388942156198</v>
       </c>
       <c r="L8">
-        <v>38.08635344144498</v>
+        <v>38.08635344144486</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.160984142611559</v>
+        <v>7.160984142611558</v>
       </c>
       <c r="D9">
-        <v>4.394775044786503</v>
+        <v>4.394775044786557</v>
       </c>
       <c r="E9">
-        <v>5.263294978433619</v>
+        <v>5.263294978433581</v>
       </c>
       <c r="F9">
-        <v>43.72700887602888</v>
+        <v>43.72700887602898</v>
       </c>
       <c r="G9">
-        <v>34.28518724877145</v>
+        <v>34.28518724877154</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.40499267857715</v>
+        <v>3.404992678577094</v>
       </c>
       <c r="J9">
-        <v>69.77657473737816</v>
+        <v>69.7765747373784</v>
       </c>
       <c r="K9">
-        <v>6.752495932496585</v>
+        <v>6.75249593249661</v>
       </c>
       <c r="L9">
-        <v>44.93484415783522</v>
+        <v>44.93484415783537</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.053444869605206</v>
+        <v>8.053444869605137</v>
       </c>
       <c r="D10">
-        <v>5.237862419945392</v>
+        <v>5.237862419945626</v>
       </c>
       <c r="E10">
-        <v>5.283473276286664</v>
+        <v>5.283473276286786</v>
       </c>
       <c r="F10">
-        <v>50.0689845534288</v>
+        <v>50.06898455342892</v>
       </c>
       <c r="G10">
-        <v>39.42733716101838</v>
+        <v>39.4273371610185</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.891522760919764</v>
+        <v>3.891522760919733</v>
       </c>
       <c r="J10">
-        <v>77.22444102646052</v>
+        <v>77.2244410264605</v>
       </c>
       <c r="K10">
-        <v>7.102376392370839</v>
+        <v>7.102376392370874</v>
       </c>
       <c r="L10">
-        <v>49.77111735044346</v>
+        <v>49.77111735044345</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.469448962884506</v>
+        <v>8.469448962884469</v>
       </c>
       <c r="D11">
-        <v>5.650996803929496</v>
+        <v>5.650996803929623</v>
       </c>
       <c r="E11">
-        <v>5.299894171088008</v>
+        <v>5.299894171087868</v>
       </c>
       <c r="F11">
-        <v>53.1520657163842</v>
+        <v>53.15206571638429</v>
       </c>
       <c r="G11">
-        <v>41.9238820641837</v>
+        <v>41.92388206418379</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.147450242164826</v>
+        <v>4.147450242164949</v>
       </c>
       <c r="J11">
-        <v>80.5985721347534</v>
+        <v>80.59857213475337</v>
       </c>
       <c r="K11">
-        <v>7.265770940670289</v>
+        <v>7.26577094067016</v>
       </c>
       <c r="L11">
-        <v>51.9666873184141</v>
+        <v>51.96668731841411</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.629670536631656</v>
+        <v>8.629670536631737</v>
       </c>
       <c r="D12">
-        <v>5.813624016846298</v>
+        <v>5.813624016846139</v>
       </c>
       <c r="E12">
-        <v>5.307321936296928</v>
+        <v>5.307321936296782</v>
       </c>
       <c r="F12">
-        <v>54.35983721165288</v>
+        <v>54.35983721165278</v>
       </c>
       <c r="G12">
-        <v>42.90157034483859</v>
+        <v>42.90157034483851</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.24729889064064</v>
+        <v>4.247298890640701</v>
       </c>
       <c r="J12">
-        <v>81.88140479524823</v>
+        <v>81.88140479524803</v>
       </c>
       <c r="K12">
-        <v>7.328569997086337</v>
+        <v>7.328569997086255</v>
       </c>
       <c r="L12">
-        <v>52.80226606729396</v>
+        <v>52.80226606729387</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.595018390935447</v>
+        <v>8.59501839093527</v>
       </c>
       <c r="D13">
-        <v>5.778284246506249</v>
+        <v>5.778284246506377</v>
       </c>
       <c r="E13">
-        <v>5.30566521946743</v>
+        <v>5.305665219467526</v>
       </c>
       <c r="F13">
-        <v>54.09768198602249</v>
+        <v>54.09768198602255</v>
       </c>
       <c r="G13">
-        <v>42.68936738094788</v>
+        <v>42.68936738094796</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.225644287344933</v>
+        <v>4.225644287344876</v>
       </c>
       <c r="J13">
-        <v>81.60474909398266</v>
+        <v>81.60474909398275</v>
       </c>
       <c r="K13">
-        <v>7.314997227169223</v>
+        <v>7.314997227169248</v>
       </c>
       <c r="L13">
-        <v>52.62202486868488</v>
+        <v>52.62202486868492</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.482567457638385</v>
+        <v>8.4825674576384</v>
       </c>
       <c r="D14">
-        <v>5.664238229561598</v>
+        <v>5.664238229561653</v>
       </c>
       <c r="E14">
-        <v>5.300479876088644</v>
+        <v>5.300479876088615</v>
       </c>
       <c r="F14">
-        <v>53.25053521132759</v>
+        <v>53.25053521132772</v>
       </c>
       <c r="G14">
-        <v>42.00359812006707</v>
+        <v>42.0035981200672</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.155599033623903</v>
+        <v>4.155599033623928</v>
       </c>
       <c r="J14">
-        <v>80.70395718173717</v>
+        <v>80.70395718173725</v>
       </c>
       <c r="K14">
-        <v>7.270916554500991</v>
+        <v>7.270916554500973</v>
       </c>
       <c r="L14">
-        <v>52.03531253068368</v>
+        <v>52.03531253068376</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.41408458341451</v>
+        <v>8.41408458341453</v>
       </c>
       <c r="D15">
-        <v>5.595258413263764</v>
+        <v>5.595258413263879</v>
       </c>
       <c r="E15">
-        <v>5.297467046578673</v>
+        <v>5.297467046578644</v>
       </c>
       <c r="F15">
-        <v>52.73732133311572</v>
+        <v>52.73732133311578</v>
       </c>
       <c r="G15">
-        <v>41.58811396701829</v>
+        <v>41.58811396701837</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.113112013326512</v>
+        <v>4.113112013326564</v>
       </c>
       <c r="J15">
-        <v>80.15312563392408</v>
+        <v>80.15312563392413</v>
       </c>
       <c r="K15">
-        <v>7.244048306883485</v>
+        <v>7.244048306883427</v>
       </c>
       <c r="L15">
-        <v>51.67665367833365</v>
+        <v>51.67665367833367</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.02655499293571</v>
+        <v>8.026554992935745</v>
       </c>
       <c r="D16">
-        <v>5.211605522972588</v>
+        <v>5.211605522972576</v>
       </c>
       <c r="E16">
-        <v>5.282559177776154</v>
+        <v>5.282559177776182</v>
       </c>
       <c r="F16">
-        <v>49.87237631783647</v>
+        <v>49.87237631783653</v>
       </c>
       <c r="G16">
-        <v>39.26808131532201</v>
+        <v>39.26808131532205</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.875146722728616</v>
+        <v>3.875146722728621</v>
       </c>
       <c r="J16">
-        <v>77.00419918497686</v>
+        <v>77.00419918497687</v>
       </c>
       <c r="K16">
-        <v>7.091807197431555</v>
+        <v>7.091807197431575</v>
       </c>
       <c r="L16">
-        <v>49.62790987572953</v>
+        <v>49.62790987572954</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.792123727388511</v>
+        <v>7.792123727388494</v>
       </c>
       <c r="D17">
-        <v>4.984965788112046</v>
+        <v>4.984965788112095</v>
       </c>
       <c r="E17">
-        <v>5.275374188235299</v>
+        <v>5.275374188235281</v>
       </c>
       <c r="F17">
-        <v>48.17243647740398</v>
+        <v>48.17243647740393</v>
       </c>
       <c r="G17">
-        <v>37.89077035404956</v>
+        <v>37.89077035404953</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.733242628888202</v>
+        <v>3.733242628888228</v>
       </c>
       <c r="J17">
-        <v>75.0731095749186</v>
+        <v>75.07310957491865</v>
       </c>
       <c r="K17">
-        <v>6.999679537840459</v>
+        <v>6.999679537840442</v>
       </c>
       <c r="L17">
-        <v>48.37278781859408</v>
+        <v>48.37278781859411</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.658131139161495</v>
+        <v>7.658131139161273</v>
       </c>
       <c r="D18">
-        <v>4.857245763818874</v>
+        <v>4.857245763818799</v>
       </c>
       <c r="E18">
-        <v>5.271910923762084</v>
+        <v>5.271910923762131</v>
       </c>
       <c r="F18">
-        <v>47.21238825422148</v>
+        <v>47.2123882542211</v>
       </c>
       <c r="G18">
-        <v>37.11262517027587</v>
+        <v>37.11262517027556</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.652835557194526</v>
+        <v>3.652835557194477</v>
       </c>
       <c r="J18">
-        <v>73.96053649884676</v>
+        <v>73.96053649884664</v>
       </c>
       <c r="K18">
-        <v>6.947063282682418</v>
+        <v>6.947063282682409</v>
       </c>
       <c r="L18">
-        <v>47.65008288930155</v>
+        <v>47.65008288930149</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.612878598254396</v>
+        <v>7.612878598254397</v>
       </c>
       <c r="D19">
-        <v>4.814408473379157</v>
+        <v>4.814408473378792</v>
       </c>
       <c r="E19">
-        <v>5.270848885572454</v>
+        <v>5.270848885572342</v>
       </c>
       <c r="F19">
-        <v>46.89009414759585</v>
+        <v>46.89009414759546</v>
       </c>
       <c r="G19">
-        <v>36.85134076375967</v>
+        <v>36.85134076375923</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.625795624541429</v>
+        <v>3.625795624541359</v>
       </c>
       <c r="J19">
-        <v>73.58334460664979</v>
+        <v>73.58334460664962</v>
       </c>
       <c r="K19">
-        <v>6.92930494805728</v>
+        <v>6.929304948057226</v>
       </c>
       <c r="L19">
-        <v>47.40513407269935</v>
+        <v>47.40513407269923</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.816984313450035</v>
+        <v>7.816984313450146</v>
       </c>
       <c r="D20">
-        <v>5.008807595833185</v>
+        <v>5.008807595833122</v>
       </c>
       <c r="E20">
-        <v>5.27606869601434</v>
+        <v>5.276068696014343</v>
       </c>
       <c r="F20">
-        <v>48.35149551516396</v>
+        <v>48.35149551516441</v>
       </c>
       <c r="G20">
-        <v>38.03587661207844</v>
+        <v>38.03587661207877</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.74821725007089</v>
+        <v>3.748217250070895</v>
       </c>
       <c r="J20">
-        <v>75.27882718435183</v>
+        <v>75.27882718435204</v>
       </c>
       <c r="K20">
-        <v>7.009446218639931</v>
+        <v>7.009446218640007</v>
       </c>
       <c r="L20">
-        <v>48.50645079477327</v>
+        <v>48.50645079477343</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.515511323395893</v>
+        <v>8.515511323395861</v>
       </c>
       <c r="D21">
-        <v>5.697548881844231</v>
+        <v>5.697548881844047</v>
       </c>
       <c r="E21">
-        <v>5.301968522872618</v>
+        <v>5.301968522872648</v>
       </c>
       <c r="F21">
-        <v>53.4981480118573</v>
+        <v>53.49814801185692</v>
       </c>
       <c r="G21">
-        <v>42.20404888652185</v>
+        <v>42.2040488865215</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.176083630212879</v>
+        <v>4.176083630212796</v>
       </c>
       <c r="J21">
-        <v>80.96833060705751</v>
+        <v>80.9683306070574</v>
       </c>
       <c r="K21">
-        <v>7.283835721750025</v>
+        <v>7.28383572175005</v>
       </c>
       <c r="L21">
-        <v>52.20748257547187</v>
+        <v>52.20748257547177</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.988766132361212</v>
+        <v>8.988766132361279</v>
       </c>
       <c r="D22">
-        <v>6.185346938001043</v>
+        <v>6.185346938001157</v>
       </c>
       <c r="E22">
-        <v>5.326064467303452</v>
+        <v>5.326064467303514</v>
       </c>
       <c r="F22">
-        <v>57.10673604842707</v>
+        <v>57.10673604842724</v>
       </c>
       <c r="G22">
-        <v>45.1248023843327</v>
+        <v>45.12480238433283</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.473619666771855</v>
+        <v>4.473619666771796</v>
       </c>
       <c r="J22">
-        <v>84.72250991928283</v>
+        <v>84.72250991928294</v>
       </c>
       <c r="K22">
-        <v>7.468834650794501</v>
+        <v>7.46883465079457</v>
       </c>
       <c r="L22">
-        <v>54.65457895584824</v>
+        <v>54.6545789558483</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.734075914078339</v>
+        <v>8.734075914078328</v>
       </c>
       <c r="D23">
-        <v>5.92066278500348</v>
+        <v>5.920662785003486</v>
       </c>
       <c r="E23">
-        <v>5.312478247328108</v>
+        <v>5.312478247328017</v>
       </c>
       <c r="F23">
-        <v>55.15282202349376</v>
+        <v>55.15282202349335</v>
       </c>
       <c r="G23">
-        <v>43.54342456895975</v>
+        <v>43.54342456895942</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.312741292314918</v>
+        <v>4.312741292315023</v>
       </c>
       <c r="J23">
-        <v>82.71231046381185</v>
+        <v>82.71231046381165</v>
       </c>
       <c r="K23">
-        <v>7.369428764695687</v>
+        <v>7.369428764695604</v>
       </c>
       <c r="L23">
-        <v>53.34373695844257</v>
+        <v>53.34373695844246</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.805742483085567</v>
+        <v>7.805742483085599</v>
       </c>
       <c r="D24">
-        <v>4.998020816169411</v>
+        <v>4.998020816169468</v>
       </c>
       <c r="E24">
-        <v>5.275752641967965</v>
+        <v>5.275752641967936</v>
       </c>
       <c r="F24">
-        <v>48.27048993807311</v>
+        <v>48.27048993807334</v>
       </c>
       <c r="G24">
-        <v>37.97023209529681</v>
+        <v>37.97023209529701</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.741443629368926</v>
+        <v>3.741443629368976</v>
       </c>
       <c r="J24">
-        <v>75.18583010789999</v>
+        <v>75.18583010790013</v>
       </c>
       <c r="K24">
-        <v>7.005029636236279</v>
+        <v>7.005029636236269</v>
       </c>
       <c r="L24">
-        <v>48.44602557877762</v>
+        <v>48.44602557877774</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.835166438572856</v>
+        <v>6.835166438572939</v>
       </c>
       <c r="D25">
         <v>4.101295044968797</v>
       </c>
       <c r="E25">
-        <v>5.261385126802908</v>
+        <v>5.261385126802884</v>
       </c>
       <c r="F25">
-        <v>41.51175000631781</v>
+        <v>41.51175000631795</v>
       </c>
       <c r="G25">
-        <v>32.48545722910586</v>
+        <v>32.48545722910597</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.601772732513569</v>
+        <v>3.601772732513568</v>
       </c>
       <c r="J25">
-        <v>66.98656580632415</v>
+        <v>66.98656580632428</v>
       </c>
       <c r="K25">
-        <v>6.625932393350125</v>
+        <v>6.625932393350127</v>
       </c>
       <c r="L25">
-        <v>43.12635403469537</v>
+        <v>43.12635403469542</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.158533714387149</v>
+        <v>6.158533714387121</v>
       </c>
       <c r="D2">
-        <v>3.481819190198235</v>
+        <v>3.481819190198215</v>
       </c>
       <c r="E2">
-        <v>5.268039814063256</v>
+        <v>5.268039814063254</v>
       </c>
       <c r="F2">
-        <v>36.84961023643903</v>
+        <v>36.84961023643874</v>
       </c>
       <c r="G2">
-        <v>28.687536930031</v>
+        <v>28.68753693003075</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.032794501467998</v>
+        <v>4.032794501468065</v>
       </c>
       <c r="J2">
-        <v>60.7122183696997</v>
+        <v>60.71221836969956</v>
       </c>
       <c r="K2">
-        <v>6.35200488387998</v>
+        <v>6.352004883880021</v>
       </c>
       <c r="L2">
-        <v>39.06493074348995</v>
+        <v>39.06493074348985</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.748400855654892</v>
+        <v>5.748400855654859</v>
       </c>
       <c r="D3">
-        <v>3.073950100628511</v>
+        <v>3.073950100628448</v>
       </c>
       <c r="E3">
-        <v>5.281665424645666</v>
+        <v>5.281665424645716</v>
       </c>
       <c r="F3">
-        <v>33.89385780502636</v>
+        <v>33.89385780502644</v>
       </c>
       <c r="G3">
-        <v>26.228943256344</v>
+        <v>26.22894325634405</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.326218970855375</v>
+        <v>4.326218970855438</v>
       </c>
       <c r="J3">
-        <v>56.25811804461024</v>
+        <v>56.25811804461025</v>
       </c>
       <c r="K3">
-        <v>6.167795682000889</v>
+        <v>6.167795682000926</v>
       </c>
       <c r="L3">
-        <v>36.18605816401931</v>
+        <v>36.18605816401932</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.497706744912774</v>
+        <v>5.497706744912771</v>
       </c>
       <c r="D4">
-        <v>2.826298606635893</v>
+        <v>2.82629860663585</v>
       </c>
       <c r="E4">
-        <v>5.29409808274099</v>
+        <v>5.294098082740931</v>
       </c>
       <c r="F4">
-        <v>32.33659823613633</v>
+        <v>32.33659823613645</v>
       </c>
       <c r="G4">
-        <v>25.0899135416976</v>
+        <v>25.08991354169768</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.507572398851937</v>
+        <v>4.507572398851901</v>
       </c>
       <c r="J4">
-        <v>53.41057674298543</v>
+        <v>53.41057674298541</v>
       </c>
       <c r="K4">
-        <v>6.055066533902853</v>
+        <v>6.055066533902765</v>
       </c>
       <c r="L4">
-        <v>34.34727469740287</v>
+        <v>34.34727469740288</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.395717783569928</v>
+        <v>5.395717783569964</v>
       </c>
       <c r="D5">
-        <v>2.725711018167277</v>
+        <v>2.725711018167215</v>
       </c>
       <c r="E5">
-        <v>5.300131865040749</v>
+        <v>5.300131865040866</v>
       </c>
       <c r="F5">
-        <v>31.72092047577044</v>
+        <v>31.72092047577031</v>
       </c>
       <c r="G5">
-        <v>24.6440546986562</v>
+        <v>24.64405469865611</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.58187263555668</v>
+        <v>4.581872635556813</v>
       </c>
       <c r="J5">
-        <v>52.22022397096033</v>
+        <v>52.2202239709603</v>
       </c>
       <c r="K5">
-        <v>6.009193992338425</v>
+        <v>6.009193992338476</v>
       </c>
       <c r="L5">
-        <v>33.57898309239889</v>
+        <v>33.57898309239884</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.378790822385331</v>
+        <v>5.378790822385322</v>
       </c>
       <c r="D6">
-        <v>2.709019227716626</v>
+        <v>2.709019227716544</v>
       </c>
       <c r="E6">
-        <v>5.301190713998455</v>
+        <v>5.301190713998463</v>
       </c>
       <c r="F6">
-        <v>31.61980553471489</v>
+        <v>31.61980553471492</v>
       </c>
       <c r="G6">
-        <v>24.57110175361717</v>
+        <v>24.57110175361723</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.594237103248142</v>
+        <v>4.59423710324814</v>
       </c>
       <c r="J6">
-        <v>52.02071479679062</v>
+        <v>52.02071479679069</v>
       </c>
       <c r="K6">
-        <v>6.00158027506689</v>
+        <v>6.001580275066898</v>
       </c>
       <c r="L6">
-        <v>33.4502343748927</v>
+        <v>33.45023437489274</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.496330697037036</v>
+        <v>5.496330697037073</v>
       </c>
       <c r="D7">
-        <v>2.824941134076167</v>
+        <v>2.824941134076187</v>
       </c>
       <c r="E7">
         <v>5.294175607460202</v>
       </c>
       <c r="F7">
-        <v>32.32821956515603</v>
+        <v>32.3282195651561</v>
       </c>
       <c r="G7">
-        <v>25.08382753644673</v>
+        <v>25.0838275364468</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4.508572695092729</v>
+        <v>4.508572695092755</v>
       </c>
       <c r="J7">
-        <v>53.39464648295242</v>
+        <v>53.39464648295247</v>
       </c>
       <c r="K7">
-        <v>6.054447643272022</v>
+        <v>6.054447643272011</v>
       </c>
       <c r="L7">
-        <v>34.33699137979566</v>
+        <v>34.3369913797957</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.016796249069245</v>
+        <v>6.016796249069292</v>
       </c>
       <c r="D8">
-        <v>3.340363034502621</v>
+        <v>3.34036303450268</v>
       </c>
       <c r="E8">
-        <v>5.271858413228146</v>
+        <v>5.271858413228194</v>
       </c>
       <c r="F8">
-        <v>35.79245675999103</v>
+        <v>35.79245675999127</v>
       </c>
       <c r="G8">
-        <v>27.8236936029964</v>
+        <v>27.82369360299661</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.133776292345391</v>
+        <v>4.133776292345355</v>
       </c>
       <c r="J8">
-        <v>59.19878049983885</v>
+        <v>59.19878049983901</v>
       </c>
       <c r="K8">
-        <v>6.288388942156198</v>
+        <v>6.2883889421562</v>
       </c>
       <c r="L8">
-        <v>38.08635344144486</v>
+        <v>38.08635344144498</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.160984142611558</v>
+        <v>7.160984142611559</v>
       </c>
       <c r="D9">
-        <v>4.394775044786557</v>
+        <v>4.394775044786503</v>
       </c>
       <c r="E9">
-        <v>5.263294978433581</v>
+        <v>5.263294978433619</v>
       </c>
       <c r="F9">
-        <v>43.72700887602898</v>
+        <v>43.72700887602888</v>
       </c>
       <c r="G9">
-        <v>34.28518724877154</v>
+        <v>34.28518724877145</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.404992678577094</v>
+        <v>3.40499267857715</v>
       </c>
       <c r="J9">
-        <v>69.7765747373784</v>
+        <v>69.77657473737816</v>
       </c>
       <c r="K9">
-        <v>6.75249593249661</v>
+        <v>6.752495932496585</v>
       </c>
       <c r="L9">
-        <v>44.93484415783537</v>
+        <v>44.93484415783522</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.053444869605137</v>
+        <v>8.053444869605206</v>
       </c>
       <c r="D10">
-        <v>5.237862419945626</v>
+        <v>5.237862419945392</v>
       </c>
       <c r="E10">
-        <v>5.283473276286786</v>
+        <v>5.283473276286664</v>
       </c>
       <c r="F10">
-        <v>50.06898455342892</v>
+        <v>50.0689845534288</v>
       </c>
       <c r="G10">
-        <v>39.4273371610185</v>
+        <v>39.42733716101838</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.891522760919733</v>
+        <v>3.891522760919764</v>
       </c>
       <c r="J10">
-        <v>77.2244410264605</v>
+        <v>77.22444102646052</v>
       </c>
       <c r="K10">
-        <v>7.102376392370874</v>
+        <v>7.102376392370839</v>
       </c>
       <c r="L10">
-        <v>49.77111735044345</v>
+        <v>49.77111735044346</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.469448962884469</v>
+        <v>8.469448962884506</v>
       </c>
       <c r="D11">
-        <v>5.650996803929623</v>
+        <v>5.650996803929496</v>
       </c>
       <c r="E11">
-        <v>5.299894171087868</v>
+        <v>5.299894171088008</v>
       </c>
       <c r="F11">
-        <v>53.15206571638429</v>
+        <v>53.1520657163842</v>
       </c>
       <c r="G11">
-        <v>41.92388206418379</v>
+        <v>41.9238820641837</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.147450242164949</v>
+        <v>4.147450242164826</v>
       </c>
       <c r="J11">
-        <v>80.59857213475337</v>
+        <v>80.5985721347534</v>
       </c>
       <c r="K11">
-        <v>7.26577094067016</v>
+        <v>7.265770940670289</v>
       </c>
       <c r="L11">
-        <v>51.96668731841411</v>
+        <v>51.9666873184141</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.629670536631737</v>
+        <v>8.629670536631656</v>
       </c>
       <c r="D12">
-        <v>5.813624016846139</v>
+        <v>5.813624016846298</v>
       </c>
       <c r="E12">
-        <v>5.307321936296782</v>
+        <v>5.307321936296928</v>
       </c>
       <c r="F12">
-        <v>54.35983721165278</v>
+        <v>54.35983721165288</v>
       </c>
       <c r="G12">
-        <v>42.90157034483851</v>
+        <v>42.90157034483859</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.247298890640701</v>
+        <v>4.24729889064064</v>
       </c>
       <c r="J12">
-        <v>81.88140479524803</v>
+        <v>81.88140479524823</v>
       </c>
       <c r="K12">
-        <v>7.328569997086255</v>
+        <v>7.328569997086337</v>
       </c>
       <c r="L12">
-        <v>52.80226606729387</v>
+        <v>52.80226606729396</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.59501839093527</v>
+        <v>8.595018390935447</v>
       </c>
       <c r="D13">
-        <v>5.778284246506377</v>
+        <v>5.778284246506249</v>
       </c>
       <c r="E13">
-        <v>5.305665219467526</v>
+        <v>5.30566521946743</v>
       </c>
       <c r="F13">
-        <v>54.09768198602255</v>
+        <v>54.09768198602249</v>
       </c>
       <c r="G13">
-        <v>42.68936738094796</v>
+        <v>42.68936738094788</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.225644287344876</v>
+        <v>4.225644287344933</v>
       </c>
       <c r="J13">
-        <v>81.60474909398275</v>
+        <v>81.60474909398266</v>
       </c>
       <c r="K13">
-        <v>7.314997227169248</v>
+        <v>7.314997227169223</v>
       </c>
       <c r="L13">
-        <v>52.62202486868492</v>
+        <v>52.62202486868488</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.4825674576384</v>
+        <v>8.482567457638385</v>
       </c>
       <c r="D14">
-        <v>5.664238229561653</v>
+        <v>5.664238229561598</v>
       </c>
       <c r="E14">
-        <v>5.300479876088615</v>
+        <v>5.300479876088644</v>
       </c>
       <c r="F14">
-        <v>53.25053521132772</v>
+        <v>53.25053521132759</v>
       </c>
       <c r="G14">
-        <v>42.0035981200672</v>
+        <v>42.00359812006707</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.155599033623928</v>
+        <v>4.155599033623903</v>
       </c>
       <c r="J14">
-        <v>80.70395718173725</v>
+        <v>80.70395718173717</v>
       </c>
       <c r="K14">
-        <v>7.270916554500973</v>
+        <v>7.270916554500991</v>
       </c>
       <c r="L14">
-        <v>52.03531253068376</v>
+        <v>52.03531253068368</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.41408458341453</v>
+        <v>8.41408458341451</v>
       </c>
       <c r="D15">
-        <v>5.595258413263879</v>
+        <v>5.595258413263764</v>
       </c>
       <c r="E15">
-        <v>5.297467046578644</v>
+        <v>5.297467046578673</v>
       </c>
       <c r="F15">
-        <v>52.73732133311578</v>
+        <v>52.73732133311572</v>
       </c>
       <c r="G15">
-        <v>41.58811396701837</v>
+        <v>41.58811396701829</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.113112013326564</v>
+        <v>4.113112013326512</v>
       </c>
       <c r="J15">
-        <v>80.15312563392413</v>
+        <v>80.15312563392408</v>
       </c>
       <c r="K15">
-        <v>7.244048306883427</v>
+        <v>7.244048306883485</v>
       </c>
       <c r="L15">
-        <v>51.67665367833367</v>
+        <v>51.67665367833365</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.026554992935745</v>
+        <v>8.02655499293571</v>
       </c>
       <c r="D16">
-        <v>5.211605522972576</v>
+        <v>5.211605522972588</v>
       </c>
       <c r="E16">
-        <v>5.282559177776182</v>
+        <v>5.282559177776154</v>
       </c>
       <c r="F16">
-        <v>49.87237631783653</v>
+        <v>49.87237631783647</v>
       </c>
       <c r="G16">
-        <v>39.26808131532205</v>
+        <v>39.26808131532201</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.875146722728621</v>
+        <v>3.875146722728616</v>
       </c>
       <c r="J16">
-        <v>77.00419918497687</v>
+        <v>77.00419918497686</v>
       </c>
       <c r="K16">
-        <v>7.091807197431575</v>
+        <v>7.091807197431555</v>
       </c>
       <c r="L16">
-        <v>49.62790987572954</v>
+        <v>49.62790987572953</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.792123727388494</v>
+        <v>7.792123727388511</v>
       </c>
       <c r="D17">
-        <v>4.984965788112095</v>
+        <v>4.984965788112046</v>
       </c>
       <c r="E17">
-        <v>5.275374188235281</v>
+        <v>5.275374188235299</v>
       </c>
       <c r="F17">
-        <v>48.17243647740393</v>
+        <v>48.17243647740398</v>
       </c>
       <c r="G17">
-        <v>37.89077035404953</v>
+        <v>37.89077035404956</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.733242628888228</v>
+        <v>3.733242628888202</v>
       </c>
       <c r="J17">
-        <v>75.07310957491865</v>
+        <v>75.0731095749186</v>
       </c>
       <c r="K17">
-        <v>6.999679537840442</v>
+        <v>6.999679537840459</v>
       </c>
       <c r="L17">
-        <v>48.37278781859411</v>
+        <v>48.37278781859408</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.658131139161273</v>
+        <v>7.658131139161495</v>
       </c>
       <c r="D18">
-        <v>4.857245763818799</v>
+        <v>4.857245763818874</v>
       </c>
       <c r="E18">
-        <v>5.271910923762131</v>
+        <v>5.271910923762084</v>
       </c>
       <c r="F18">
-        <v>47.2123882542211</v>
+        <v>47.21238825422148</v>
       </c>
       <c r="G18">
-        <v>37.11262517027556</v>
+        <v>37.11262517027587</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.652835557194477</v>
+        <v>3.652835557194526</v>
       </c>
       <c r="J18">
-        <v>73.96053649884664</v>
+        <v>73.96053649884676</v>
       </c>
       <c r="K18">
-        <v>6.947063282682409</v>
+        <v>6.947063282682418</v>
       </c>
       <c r="L18">
-        <v>47.65008288930149</v>
+        <v>47.65008288930155</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.612878598254397</v>
+        <v>7.612878598254396</v>
       </c>
       <c r="D19">
-        <v>4.814408473378792</v>
+        <v>4.814408473379157</v>
       </c>
       <c r="E19">
-        <v>5.270848885572342</v>
+        <v>5.270848885572454</v>
       </c>
       <c r="F19">
-        <v>46.89009414759546</v>
+        <v>46.89009414759585</v>
       </c>
       <c r="G19">
-        <v>36.85134076375923</v>
+        <v>36.85134076375967</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.625795624541359</v>
+        <v>3.625795624541429</v>
       </c>
       <c r="J19">
-        <v>73.58334460664962</v>
+        <v>73.58334460664979</v>
       </c>
       <c r="K19">
-        <v>6.929304948057226</v>
+        <v>6.92930494805728</v>
       </c>
       <c r="L19">
-        <v>47.40513407269923</v>
+        <v>47.40513407269935</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.816984313450146</v>
+        <v>7.816984313450035</v>
       </c>
       <c r="D20">
-        <v>5.008807595833122</v>
+        <v>5.008807595833185</v>
       </c>
       <c r="E20">
-        <v>5.276068696014343</v>
+        <v>5.27606869601434</v>
       </c>
       <c r="F20">
-        <v>48.35149551516441</v>
+        <v>48.35149551516396</v>
       </c>
       <c r="G20">
-        <v>38.03587661207877</v>
+        <v>38.03587661207844</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.748217250070895</v>
+        <v>3.74821725007089</v>
       </c>
       <c r="J20">
-        <v>75.27882718435204</v>
+        <v>75.27882718435183</v>
       </c>
       <c r="K20">
-        <v>7.009446218640007</v>
+        <v>7.009446218639931</v>
       </c>
       <c r="L20">
-        <v>48.50645079477343</v>
+        <v>48.50645079477327</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.515511323395861</v>
+        <v>8.515511323395893</v>
       </c>
       <c r="D21">
-        <v>5.697548881844047</v>
+        <v>5.697548881844231</v>
       </c>
       <c r="E21">
-        <v>5.301968522872648</v>
+        <v>5.301968522872618</v>
       </c>
       <c r="F21">
-        <v>53.49814801185692</v>
+        <v>53.4981480118573</v>
       </c>
       <c r="G21">
-        <v>42.2040488865215</v>
+        <v>42.20404888652185</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.176083630212796</v>
+        <v>4.176083630212879</v>
       </c>
       <c r="J21">
-        <v>80.9683306070574</v>
+        <v>80.96833060705751</v>
       </c>
       <c r="K21">
-        <v>7.28383572175005</v>
+        <v>7.283835721750025</v>
       </c>
       <c r="L21">
-        <v>52.20748257547177</v>
+        <v>52.20748257547187</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.988766132361279</v>
+        <v>8.988766132361212</v>
       </c>
       <c r="D22">
-        <v>6.185346938001157</v>
+        <v>6.185346938001043</v>
       </c>
       <c r="E22">
-        <v>5.326064467303514</v>
+        <v>5.326064467303452</v>
       </c>
       <c r="F22">
-        <v>57.10673604842724</v>
+        <v>57.10673604842707</v>
       </c>
       <c r="G22">
-        <v>45.12480238433283</v>
+        <v>45.1248023843327</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.473619666771796</v>
+        <v>4.473619666771855</v>
       </c>
       <c r="J22">
-        <v>84.72250991928294</v>
+        <v>84.72250991928283</v>
       </c>
       <c r="K22">
-        <v>7.46883465079457</v>
+        <v>7.468834650794501</v>
       </c>
       <c r="L22">
-        <v>54.6545789558483</v>
+        <v>54.65457895584824</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.734075914078328</v>
+        <v>8.734075914078339</v>
       </c>
       <c r="D23">
-        <v>5.920662785003486</v>
+        <v>5.92066278500348</v>
       </c>
       <c r="E23">
-        <v>5.312478247328017</v>
+        <v>5.312478247328108</v>
       </c>
       <c r="F23">
-        <v>55.15282202349335</v>
+        <v>55.15282202349376</v>
       </c>
       <c r="G23">
-        <v>43.54342456895942</v>
+        <v>43.54342456895975</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.312741292315023</v>
+        <v>4.312741292314918</v>
       </c>
       <c r="J23">
-        <v>82.71231046381165</v>
+        <v>82.71231046381185</v>
       </c>
       <c r="K23">
-        <v>7.369428764695604</v>
+        <v>7.369428764695687</v>
       </c>
       <c r="L23">
-        <v>53.34373695844246</v>
+        <v>53.34373695844257</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.805742483085599</v>
+        <v>7.805742483085567</v>
       </c>
       <c r="D24">
-        <v>4.998020816169468</v>
+        <v>4.998020816169411</v>
       </c>
       <c r="E24">
-        <v>5.275752641967936</v>
+        <v>5.275752641967965</v>
       </c>
       <c r="F24">
-        <v>48.27048993807334</v>
+        <v>48.27048993807311</v>
       </c>
       <c r="G24">
-        <v>37.97023209529701</v>
+        <v>37.97023209529681</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.741443629368976</v>
+        <v>3.741443629368926</v>
       </c>
       <c r="J24">
-        <v>75.18583010790013</v>
+        <v>75.18583010789999</v>
       </c>
       <c r="K24">
-        <v>7.005029636236269</v>
+        <v>7.005029636236279</v>
       </c>
       <c r="L24">
-        <v>48.44602557877774</v>
+        <v>48.44602557877762</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.835166438572939</v>
+        <v>6.835166438572856</v>
       </c>
       <c r="D25">
         <v>4.101295044968797</v>
       </c>
       <c r="E25">
-        <v>5.261385126802884</v>
+        <v>5.261385126802908</v>
       </c>
       <c r="F25">
-        <v>41.51175000631795</v>
+        <v>41.51175000631781</v>
       </c>
       <c r="G25">
-        <v>32.48545722910597</v>
+        <v>32.48545722910586</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.601772732513568</v>
+        <v>3.601772732513569</v>
       </c>
       <c r="J25">
-        <v>66.98656580632428</v>
+        <v>66.98656580632415</v>
       </c>
       <c r="K25">
-        <v>6.625932393350127</v>
+        <v>6.625932393350125</v>
       </c>
       <c r="L25">
-        <v>43.12635403469542</v>
+        <v>43.12635403469537</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.158533714387121</v>
+        <v>6.158427468179234</v>
       </c>
       <c r="D2">
-        <v>3.481819190198215</v>
+        <v>3.474994166462155</v>
       </c>
       <c r="E2">
-        <v>5.268039814063254</v>
+        <v>5.26558504991239</v>
       </c>
       <c r="F2">
-        <v>36.84961023643874</v>
+        <v>36.81019206178501</v>
       </c>
       <c r="G2">
-        <v>28.68753693003075</v>
+        <v>28.72416481353782</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>28.50548765281603</v>
       </c>
       <c r="I2">
-        <v>4.032794501468065</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>60.71221836969956</v>
+        <v>4.033262658147001</v>
       </c>
       <c r="K2">
-        <v>6.352004883880021</v>
+        <v>60.70835396459394</v>
       </c>
       <c r="L2">
-        <v>39.06493074348985</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>6.350126656813209</v>
+      </c>
+      <c r="M2">
+        <v>39.06293382452797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.748400855654859</v>
+        <v>5.748380966260628</v>
       </c>
       <c r="D3">
-        <v>3.073950100628448</v>
+        <v>3.067842840593447</v>
       </c>
       <c r="E3">
-        <v>5.281665424645716</v>
+        <v>5.279641343041718</v>
       </c>
       <c r="F3">
-        <v>33.89385780502644</v>
+        <v>33.85892486047675</v>
       </c>
       <c r="G3">
-        <v>26.22894325634405</v>
+        <v>26.23848588325872</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.26235204254649</v>
       </c>
       <c r="I3">
-        <v>4.326218970855438</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>56.25811804461025</v>
+        <v>4.326515653992661</v>
       </c>
       <c r="K3">
-        <v>6.167795682000926</v>
+        <v>56.25528547816907</v>
       </c>
       <c r="L3">
-        <v>36.18605816401932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>6.166240048855647</v>
+      </c>
+      <c r="M3">
+        <v>36.18471548985678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.497706744912771</v>
+        <v>5.497730792123328</v>
       </c>
       <c r="D4">
-        <v>2.82629860663585</v>
+        <v>2.820615607933239</v>
       </c>
       <c r="E4">
-        <v>5.294098082740931</v>
+        <v>5.29235452090338</v>
       </c>
       <c r="F4">
-        <v>32.33659823613645</v>
+        <v>32.30374034304241</v>
       </c>
       <c r="G4">
-        <v>25.08991354169768</v>
+        <v>24.77750940467576</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>25.12203586249242</v>
       </c>
       <c r="I4">
-        <v>4.507572398851901</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>53.41057674298541</v>
+        <v>4.507783983514917</v>
       </c>
       <c r="K4">
-        <v>6.055066533902765</v>
+        <v>53.40830444662915</v>
       </c>
       <c r="L4">
-        <v>34.34727469740288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>6.053715645226343</v>
+      </c>
+      <c r="M4">
+        <v>34.34628558811398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.395717783569964</v>
+        <v>5.395758009567335</v>
       </c>
       <c r="D5">
-        <v>2.725711018167215</v>
+        <v>2.720197759137751</v>
       </c>
       <c r="E5">
-        <v>5.300131865040866</v>
+        <v>5.298506311303929</v>
       </c>
       <c r="F5">
-        <v>31.72092047577031</v>
+        <v>31.6888943281473</v>
       </c>
       <c r="G5">
-        <v>24.64405469865611</v>
+        <v>24.22307626114976</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>24.67568204721814</v>
       </c>
       <c r="I5">
-        <v>4.581872635556813</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>52.2202239709603</v>
+        <v>4.582053480736111</v>
       </c>
       <c r="K5">
-        <v>6.009193992338476</v>
+        <v>52.21816534270855</v>
       </c>
       <c r="L5">
-        <v>33.57898309239884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>6.00792841508837</v>
+      </c>
+      <c r="M5">
+        <v>33.57812849612799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.378790822385322</v>
+        <v>5.378833644487925</v>
       </c>
       <c r="D6">
-        <v>2.709019227716544</v>
+        <v>2.703533985651571</v>
       </c>
       <c r="E6">
-        <v>5.301190713998463</v>
+        <v>5.299584969176542</v>
       </c>
       <c r="F6">
-        <v>31.61980553471492</v>
+        <v>31.58791680630392</v>
       </c>
       <c r="G6">
-        <v>24.57110175361723</v>
+        <v>24.13167619498324</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>24.60264874904384</v>
       </c>
       <c r="I6">
-        <v>4.59423710324814</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>52.02071479679069</v>
+        <v>4.594413054199668</v>
       </c>
       <c r="K6">
-        <v>6.001580275066898</v>
+        <v>52.01869085660364</v>
       </c>
       <c r="L6">
-        <v>33.45023437489274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>6.000328981529926</v>
+      </c>
+      <c r="M6">
+        <v>33.44940159944965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.496330697037073</v>
+        <v>5.496354968785998</v>
       </c>
       <c r="D7">
-        <v>2.824941134076187</v>
+        <v>2.819260436254047</v>
       </c>
       <c r="E7">
-        <v>5.294175607460202</v>
+        <v>5.292433622592537</v>
       </c>
       <c r="F7">
-        <v>32.3282195651561</v>
+        <v>32.295372938569</v>
       </c>
       <c r="G7">
-        <v>25.0838275364468</v>
+        <v>24.7699873471809</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>25.11594306015493</v>
       </c>
       <c r="I7">
-        <v>4.508572695092755</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>53.39464648295247</v>
+        <v>4.508783850537055</v>
       </c>
       <c r="K7">
-        <v>6.054447643272011</v>
+        <v>53.39237712317879</v>
       </c>
       <c r="L7">
-        <v>34.3369913797957</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>6.05309789732627</v>
+      </c>
+      <c r="M7">
+        <v>34.33600412042137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.016796249069292</v>
+        <v>6.016722048842941</v>
       </c>
       <c r="D8">
-        <v>3.34036303450268</v>
+        <v>3.333789624049831</v>
       </c>
       <c r="E8">
-        <v>5.271858413228194</v>
+        <v>5.269548586339118</v>
       </c>
       <c r="F8">
-        <v>35.79245675999127</v>
+        <v>35.75425206525865</v>
       </c>
       <c r="G8">
-        <v>27.82369360299661</v>
+        <v>27.85932229013777</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>27.6879686615199</v>
       </c>
       <c r="I8">
-        <v>4.133776292345355</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>59.19878049983901</v>
+        <v>4.134180349186392</v>
       </c>
       <c r="K8">
-        <v>6.2883889421562</v>
+        <v>59.19528968508567</v>
       </c>
       <c r="L8">
-        <v>38.08635344144498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>6.28662070524947</v>
+      </c>
+      <c r="M8">
+        <v>38.08459384107048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.160984142611559</v>
+        <v>7.160647683275749</v>
       </c>
       <c r="D9">
-        <v>4.394775044786503</v>
+        <v>4.386250618403257</v>
       </c>
       <c r="E9">
-        <v>5.263294978433619</v>
+        <v>5.26001764062829</v>
       </c>
       <c r="F9">
-        <v>43.72700887602888</v>
+        <v>43.67927984606993</v>
       </c>
       <c r="G9">
-        <v>34.28518724877145</v>
+        <v>34.32805835186185</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>33.86860285104454</v>
       </c>
       <c r="I9">
-        <v>3.40499267857715</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>69.77657473737816</v>
+        <v>3.406008252546437</v>
       </c>
       <c r="K9">
-        <v>6.752495932496585</v>
+        <v>69.76986437117455</v>
       </c>
       <c r="L9">
-        <v>44.93484415783522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>6.74994579964006</v>
+      </c>
+      <c r="M9">
+        <v>44.93102580421175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.053444869605206</v>
+        <v>8.052738785416876</v>
       </c>
       <c r="D10">
-        <v>5.237862419945392</v>
+        <v>5.227621422138499</v>
       </c>
       <c r="E10">
-        <v>5.283473276286664</v>
+        <v>5.279604803023872</v>
       </c>
       <c r="F10">
-        <v>50.0689845534288</v>
+        <v>50.01261190416167</v>
       </c>
       <c r="G10">
-        <v>39.42733716101838</v>
+        <v>39.47525904211658</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>38.86342283022974</v>
       </c>
       <c r="I10">
-        <v>3.891522760919764</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>77.22444102646052</v>
+        <v>3.894187406445716</v>
       </c>
       <c r="K10">
-        <v>7.102376392370839</v>
+        <v>77.21432783150175</v>
       </c>
       <c r="L10">
-        <v>49.77111735044346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>7.099242720430272</v>
+      </c>
+      <c r="M10">
+        <v>49.76509805868845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.469448962884506</v>
+        <v>8.4685066158791</v>
       </c>
       <c r="D11">
-        <v>5.650996803929496</v>
+        <v>5.639844446251349</v>
       </c>
       <c r="E11">
-        <v>5.299894171088008</v>
+        <v>5.295791382797633</v>
       </c>
       <c r="F11">
-        <v>53.1520657163842</v>
+        <v>53.09099617613192</v>
       </c>
       <c r="G11">
-        <v>41.9238820641837</v>
+        <v>41.97387961322577</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>41.30390203161352</v>
       </c>
       <c r="I11">
-        <v>4.147450242164826</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>80.5985721347534</v>
+        <v>4.150107344303017</v>
       </c>
       <c r="K11">
-        <v>7.265770940670289</v>
+        <v>80.58646023649075</v>
       </c>
       <c r="L11">
-        <v>51.9666873184141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>7.262355888739469</v>
+      </c>
+      <c r="M11">
+        <v>51.95936699105174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.629670536631656</v>
+        <v>8.628623417060972</v>
       </c>
       <c r="D12">
-        <v>5.813624016846298</v>
+        <v>5.802097232303005</v>
       </c>
       <c r="E12">
-        <v>5.307321936296928</v>
+        <v>5.303136289127609</v>
       </c>
       <c r="F12">
-        <v>54.35983721165288</v>
+        <v>54.29681667749271</v>
       </c>
       <c r="G12">
-        <v>42.90157034483859</v>
+        <v>42.95229411012327</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>42.26177998587092</v>
       </c>
       <c r="I12">
-        <v>4.24729889064064</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>81.88140479524823</v>
+        <v>4.249943913645244</v>
       </c>
       <c r="K12">
-        <v>7.328569997086337</v>
+        <v>81.86843670633324</v>
       </c>
       <c r="L12">
-        <v>52.80226606729396</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>7.325043991414462</v>
+      </c>
+      <c r="M12">
+        <v>52.7943869125692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.595018390935447</v>
+        <v>8.593994644127774</v>
       </c>
       <c r="D13">
-        <v>5.778284246506249</v>
+        <v>5.76683964611169</v>
       </c>
       <c r="E13">
-        <v>5.30566521946743</v>
+        <v>5.3014971402321</v>
       </c>
       <c r="F13">
-        <v>54.09768198602249</v>
+        <v>54.03509072777587</v>
       </c>
       <c r="G13">
-        <v>42.68936738094788</v>
+        <v>42.73993808075461</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>42.05378295715884</v>
       </c>
       <c r="I13">
-        <v>4.225644287344933</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>81.60474909398266</v>
+        <v>4.228292398886661</v>
       </c>
       <c r="K13">
-        <v>7.314997227169223</v>
+        <v>81.59197060788131</v>
       </c>
       <c r="L13">
-        <v>52.62202486868488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>7.311495360967648</v>
+      </c>
+      <c r="M13">
+        <v>52.6142695370759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.482567457638385</v>
+        <v>8.48161684204231</v>
       </c>
       <c r="D14">
-        <v>5.664238229561598</v>
+        <v>5.653055739050357</v>
       </c>
       <c r="E14">
-        <v>5.300479876088644</v>
+        <v>5.29637014754674</v>
       </c>
       <c r="F14">
-        <v>53.25053521132759</v>
+        <v>53.18930911414495</v>
       </c>
       <c r="G14">
-        <v>42.00359812006707</v>
+        <v>42.05365684904545</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>41.3819607406818</v>
       </c>
       <c r="I14">
-        <v>4.155599033623903</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>80.70395718173717</v>
+        <v>4.158255353579674</v>
       </c>
       <c r="K14">
-        <v>7.270916554500991</v>
+        <v>80.69177710994653</v>
       </c>
       <c r="L14">
-        <v>52.03531253068368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>7.26749247924348</v>
+      </c>
+      <c r="M14">
+        <v>52.027947737932</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.41408458341451</v>
+        <v>8.413176546683195</v>
       </c>
       <c r="D15">
-        <v>5.595258413263764</v>
+        <v>5.584232232567317</v>
       </c>
       <c r="E15">
-        <v>5.297467046578673</v>
+        <v>5.293393853582115</v>
       </c>
       <c r="F15">
-        <v>52.73732133311572</v>
+        <v>52.67690648432834</v>
       </c>
       <c r="G15">
-        <v>41.58811396701829</v>
+        <v>41.63785013548198</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>40.97519976270797</v>
       </c>
       <c r="I15">
-        <v>4.113112013326512</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>80.15312563392408</v>
+        <v>4.115772025969458</v>
       </c>
       <c r="K15">
-        <v>7.244048306883485</v>
+        <v>80.14129778930783</v>
       </c>
       <c r="L15">
-        <v>51.67665367833365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>7.240671223612156</v>
+      </c>
+      <c r="M15">
+        <v>51.66951856222991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.02655499293571</v>
+        <v>8.025862579537023</v>
       </c>
       <c r="D16">
-        <v>5.211605522972588</v>
+        <v>5.201420690067112</v>
       </c>
       <c r="E16">
-        <v>5.282559177776154</v>
+        <v>5.2787067865988</v>
       </c>
       <c r="F16">
-        <v>49.87237631783647</v>
+        <v>49.81629068823234</v>
       </c>
       <c r="G16">
-        <v>39.26808131532201</v>
+        <v>39.3158611170882</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>38.70803842889444</v>
       </c>
       <c r="I16">
-        <v>3.875146722728616</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>77.00419918497686</v>
+        <v>3.877810793573048</v>
       </c>
       <c r="K16">
-        <v>7.091807197431555</v>
+        <v>76.9942050273787</v>
       </c>
       <c r="L16">
-        <v>49.62790987572953</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>7.088691439480807</v>
+      </c>
+      <c r="M16">
+        <v>49.62196789983992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.792123727388511</v>
+        <v>7.791543151808908</v>
       </c>
       <c r="D17">
-        <v>4.984965788112046</v>
+        <v>4.975257879790935</v>
       </c>
       <c r="E17">
-        <v>5.275374188235299</v>
+        <v>5.271666699800657</v>
       </c>
       <c r="F17">
-        <v>48.17243647740398</v>
+        <v>48.11877657192429</v>
       </c>
       <c r="G17">
-        <v>37.89077035404956</v>
+        <v>37.93727865384798</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>37.36586036622611</v>
       </c>
       <c r="I17">
-        <v>3.733242628888202</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>75.0731095749186</v>
+        <v>3.73589683370838</v>
       </c>
       <c r="K17">
-        <v>6.999679537840459</v>
+        <v>75.06410595281719</v>
       </c>
       <c r="L17">
-        <v>48.37278781859408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>6.996718849703925</v>
+      </c>
+      <c r="M17">
+        <v>48.36748837739123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.658131139161495</v>
+        <v>7.657608932934648</v>
       </c>
       <c r="D18">
-        <v>4.857245763818874</v>
+        <v>4.847800753850574</v>
       </c>
       <c r="E18">
-        <v>5.271910923762084</v>
+        <v>5.268289973240109</v>
       </c>
       <c r="F18">
-        <v>47.21238825422148</v>
+        <v>47.16005668960664</v>
       </c>
       <c r="G18">
-        <v>37.11262517027587</v>
+        <v>37.15838359960538</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>36.6089631608326</v>
       </c>
       <c r="I18">
-        <v>3.652835557194526</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>73.96053649884676</v>
+        <v>3.655480460742071</v>
       </c>
       <c r="K18">
-        <v>6.947063282682418</v>
+        <v>73.95206301245707</v>
       </c>
       <c r="L18">
-        <v>47.65008288930155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>6.944190460370102</v>
+      </c>
+      <c r="M18">
+        <v>47.64512668798541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.612878598254396</v>
+        <v>7.61237525133252</v>
       </c>
       <c r="D19">
-        <v>4.814408473379157</v>
+        <v>4.805050747749925</v>
       </c>
       <c r="E19">
-        <v>5.270848885572454</v>
+        <v>5.267257759139059</v>
       </c>
       <c r="F19">
-        <v>46.89009414759585</v>
+        <v>46.83820222109581</v>
       </c>
       <c r="G19">
-        <v>36.85134076375967</v>
+        <v>36.89684268665136</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>36.3550562534552</v>
       </c>
       <c r="I19">
-        <v>3.625795624541429</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>73.58334460664979</v>
+        <v>3.628436825311166</v>
       </c>
       <c r="K19">
-        <v>6.92930494805728</v>
+        <v>73.57504457275729</v>
       </c>
       <c r="L19">
-        <v>47.40513407269935</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>6.926461694615702</v>
+      </c>
+      <c r="M19">
+        <v>47.40029007007074</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.816984313450035</v>
+        <v>7.816392478956985</v>
       </c>
       <c r="D20">
-        <v>5.008807595833185</v>
+        <v>4.999050157577337</v>
       </c>
       <c r="E20">
-        <v>5.27606869601434</v>
+        <v>5.272345445930425</v>
       </c>
       <c r="F20">
-        <v>48.35149551516396</v>
+        <v>48.29758465034029</v>
       </c>
       <c r="G20">
-        <v>38.03587661207844</v>
+        <v>38.08252232770788</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>37.50712007708152</v>
       </c>
       <c r="I20">
-        <v>3.74821725007089</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>75.27882718435183</v>
+        <v>3.750872897891583</v>
       </c>
       <c r="K20">
-        <v>7.009446218639931</v>
+        <v>75.26972240520801</v>
       </c>
       <c r="L20">
-        <v>48.50645079477327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>7.006469171991989</v>
+      </c>
+      <c r="M20">
+        <v>48.50108580590837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.515511323395893</v>
+        <v>8.514539704539249</v>
       </c>
       <c r="D21">
-        <v>5.697548881844231</v>
+        <v>5.686290315804984</v>
       </c>
       <c r="E21">
-        <v>5.301968522872618</v>
+        <v>5.297841487994425</v>
       </c>
       <c r="F21">
-        <v>53.4981480118573</v>
+        <v>53.43652630503202</v>
       </c>
       <c r="G21">
-        <v>42.20404888652185</v>
+        <v>42.25425994407853</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>41.57827766369673</v>
       </c>
       <c r="I21">
-        <v>4.176083630212879</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>80.96833060705751</v>
+        <v>4.178737826683376</v>
       </c>
       <c r="K21">
-        <v>7.283835721750025</v>
+        <v>80.95597784518831</v>
       </c>
       <c r="L21">
-        <v>52.20748257547187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>7.280388940097988</v>
+      </c>
+      <c r="M21">
+        <v>52.20000512332391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.988766132361212</v>
+        <v>8.987451306327081</v>
       </c>
       <c r="D22">
-        <v>6.185346938001043</v>
+        <v>6.172925636947902</v>
       </c>
       <c r="E22">
-        <v>5.326064467303452</v>
+        <v>5.321708299655652</v>
       </c>
       <c r="F22">
-        <v>57.10673604842707</v>
+        <v>57.03900592637486</v>
       </c>
       <c r="G22">
-        <v>45.1248023843327</v>
+        <v>45.17696264921555</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>44.44382078163835</v>
       </c>
       <c r="I22">
-        <v>4.473619666771855</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>84.72250991928283</v>
+        <v>4.476215607133744</v>
       </c>
       <c r="K22">
-        <v>7.468834650794501</v>
+        <v>84.70742001314096</v>
       </c>
       <c r="L22">
-        <v>54.65457895584824</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>7.465053088717773</v>
+      </c>
+      <c r="M22">
+        <v>54.64531157813535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.734075914078339</v>
+        <v>8.732955878287896</v>
       </c>
       <c r="D23">
-        <v>5.92066278500348</v>
+        <v>5.908884179437484</v>
       </c>
       <c r="E23">
-        <v>5.312478247328108</v>
+        <v>5.308240849872437</v>
       </c>
       <c r="F23">
-        <v>55.15282202349376</v>
+        <v>55.08848251595986</v>
       </c>
       <c r="G23">
-        <v>43.54342456895975</v>
+        <v>43.59459518319728</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>42.89121561590804</v>
       </c>
       <c r="I23">
-        <v>4.312741292314918</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>82.71231046381185</v>
+        <v>4.315375340999284</v>
       </c>
       <c r="K23">
-        <v>7.369428764695687</v>
+        <v>82.69875567974741</v>
       </c>
       <c r="L23">
-        <v>53.34373695844257</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>7.365829513212536</v>
+      </c>
+      <c r="M23">
+        <v>53.33547440735226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.805742483085567</v>
+        <v>7.805155756852162</v>
       </c>
       <c r="D24">
-        <v>4.998020816169411</v>
+        <v>4.988285804877543</v>
       </c>
       <c r="E24">
-        <v>5.275752641967965</v>
+        <v>5.272036507726206</v>
       </c>
       <c r="F24">
-        <v>48.27048993807311</v>
+        <v>48.21669273420776</v>
       </c>
       <c r="G24">
-        <v>37.97023209529681</v>
+        <v>38.01681574223676</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>37.44321130350718</v>
       </c>
       <c r="I24">
-        <v>3.741443629368926</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>75.18583010789999</v>
+        <v>3.7440986359028</v>
       </c>
       <c r="K24">
-        <v>7.005029636236279</v>
+        <v>75.17677118211951</v>
       </c>
       <c r="L24">
-        <v>48.44602557877762</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>7.002059989137634</v>
+      </c>
+      <c r="M24">
+        <v>48.44069030399132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.835166438572856</v>
+        <v>6.834928943693362</v>
       </c>
       <c r="D25">
-        <v>4.101295044968797</v>
+        <v>4.093332333749642</v>
       </c>
       <c r="E25">
-        <v>5.261385126802908</v>
+        <v>5.258351042420907</v>
       </c>
       <c r="F25">
-        <v>41.51175000631781</v>
+        <v>41.46679303151339</v>
       </c>
       <c r="G25">
-        <v>32.48545722910586</v>
+        <v>32.5263814069369</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>32.13385190871389</v>
       </c>
       <c r="I25">
-        <v>3.601772732513569</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>66.98656580632415</v>
+        <v>3.602585345978568</v>
       </c>
       <c r="K25">
-        <v>6.625932393350125</v>
+        <v>66.98085673730763</v>
       </c>
       <c r="L25">
-        <v>43.12635403469537</v>
+        <v>6.62359216506133</v>
+      </c>
+      <c r="M25">
+        <v>43.12317895470635</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.158427468179234</v>
+        <v>5.367220736729471</v>
       </c>
       <c r="D2">
-        <v>3.474994166462155</v>
+        <v>8.340309483547378</v>
       </c>
       <c r="E2">
-        <v>5.26558504991239</v>
+        <v>6.542730470357117</v>
       </c>
       <c r="F2">
-        <v>36.81019206178501</v>
+        <v>66.61088866499911</v>
       </c>
       <c r="G2">
-        <v>28.72416481353782</v>
+        <v>2.038167662996496</v>
       </c>
       <c r="H2">
-        <v>28.50548765281603</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.033262658147001</v>
+        <v>5.270418372192549</v>
       </c>
       <c r="K2">
-        <v>60.70835396459394</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.350126656813209</v>
+        <v>5.948195475436433</v>
       </c>
       <c r="M2">
-        <v>39.06293382452797</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>45.68289186646574</v>
+      </c>
+      <c r="N2">
+        <v>16.34513542359483</v>
+      </c>
+      <c r="O2">
+        <v>53.14517364277044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.748380966260628</v>
+        <v>5.416596046692077</v>
       </c>
       <c r="D3">
-        <v>3.067842840593447</v>
+        <v>7.640153937538134</v>
       </c>
       <c r="E3">
-        <v>5.279641343041718</v>
+        <v>6.417180877905587</v>
       </c>
       <c r="F3">
-        <v>33.85892486047675</v>
+        <v>62.85381291498595</v>
       </c>
       <c r="G3">
-        <v>26.23848588325872</v>
+        <v>2.069787364969009</v>
       </c>
       <c r="H3">
-        <v>26.26235204254649</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.326515653992661</v>
+        <v>5.457241900476911</v>
       </c>
       <c r="K3">
-        <v>56.25528547816907</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.166240048855647</v>
+        <v>5.723040591463295</v>
       </c>
       <c r="M3">
-        <v>36.18471548985678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>42.82232503419084</v>
+      </c>
+      <c r="N3">
+        <v>15.92242795591168</v>
+      </c>
+      <c r="O3">
+        <v>50.1352364858594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.497730792123328</v>
+        <v>5.454790436727697</v>
       </c>
       <c r="D4">
-        <v>2.820615607933239</v>
+        <v>7.203230210437601</v>
       </c>
       <c r="E4">
-        <v>5.29235452090338</v>
+        <v>6.342092081430543</v>
       </c>
       <c r="F4">
-        <v>32.30374034304241</v>
+        <v>60.64128168441114</v>
       </c>
       <c r="G4">
-        <v>24.77750940467576</v>
+        <v>2.088925305694856</v>
       </c>
       <c r="H4">
-        <v>25.12203586249242</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.507783983514917</v>
+        <v>5.571946411467896</v>
       </c>
       <c r="K4">
-        <v>53.40830444662915</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.053715645226343</v>
+        <v>5.585442281920852</v>
       </c>
       <c r="M4">
-        <v>34.34628558811398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>41.03469149378673</v>
+      </c>
+      <c r="N4">
+        <v>15.66208154207105</v>
+      </c>
+      <c r="O4">
+        <v>48.36112192465075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.395758009567335</v>
+        <v>5.472105737664337</v>
       </c>
       <c r="D5">
-        <v>2.720197759137751</v>
+        <v>7.02282714945852</v>
       </c>
       <c r="E5">
-        <v>5.298506311303929</v>
+        <v>6.311888872076386</v>
       </c>
       <c r="F5">
-        <v>31.6888943281473</v>
+        <v>59.7604045105744</v>
       </c>
       <c r="G5">
-        <v>24.22307626114976</v>
+        <v>2.09669338501948</v>
       </c>
       <c r="H5">
-        <v>24.67568204721814</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.582053480736111</v>
+        <v>5.618815077356469</v>
       </c>
       <c r="K5">
-        <v>52.21816534270855</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.00792841508837</v>
+        <v>5.529392376648731</v>
       </c>
       <c r="M5">
-        <v>33.57812849612799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>40.29747518284342</v>
+      </c>
+      <c r="N5">
+        <v>15.55592439314528</v>
+      </c>
+      <c r="O5">
+        <v>47.65439695230857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.378833644487925</v>
+        <v>5.475080781309446</v>
       </c>
       <c r="D6">
-        <v>2.703533985651571</v>
+        <v>6.992714413763022</v>
       </c>
       <c r="E6">
-        <v>5.299584969176542</v>
+        <v>6.306894967143747</v>
       </c>
       <c r="F6">
-        <v>31.58791680630392</v>
+        <v>59.61531931868167</v>
       </c>
       <c r="G6">
-        <v>24.13167619498324</v>
+        <v>2.097982389107721</v>
       </c>
       <c r="H6">
-        <v>24.60264874904384</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.594413054199668</v>
+        <v>5.626608479210442</v>
       </c>
       <c r="K6">
-        <v>52.01869085660364</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.000328981529926</v>
+        <v>5.520083380328535</v>
       </c>
       <c r="M6">
-        <v>33.44940159944965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>40.17451595515337</v>
+      </c>
+      <c r="N6">
+        <v>15.53829733564962</v>
+      </c>
+      <c r="O6">
+        <v>47.53797169727066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.496354968785998</v>
+        <v>5.455017139740622</v>
       </c>
       <c r="D7">
-        <v>2.819260436254047</v>
+        <v>7.200807444044186</v>
       </c>
       <c r="E7">
-        <v>5.292433622592537</v>
+        <v>6.341683267692407</v>
       </c>
       <c r="F7">
-        <v>32.295372938569</v>
+        <v>60.62932110387361</v>
       </c>
       <c r="G7">
-        <v>24.7699873471809</v>
+        <v>2.089030148121619</v>
       </c>
       <c r="H7">
-        <v>25.11594306015493</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.508783850537055</v>
+        <v>5.572577837823432</v>
       </c>
       <c r="K7">
-        <v>53.39237712317879</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.05309789732627</v>
+        <v>5.584686436861648</v>
       </c>
       <c r="M7">
-        <v>34.33600412042137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>41.02478536117847</v>
+      </c>
+      <c r="N7">
+        <v>15.66064994295049</v>
+      </c>
+      <c r="O7">
+        <v>48.35152760096349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.016722048842941</v>
+        <v>5.382456344429293</v>
       </c>
       <c r="D8">
-        <v>3.333789624049831</v>
+        <v>8.099957024321061</v>
       </c>
       <c r="E8">
-        <v>5.269548586339118</v>
+        <v>6.498952139967601</v>
       </c>
       <c r="F8">
-        <v>35.75425206525865</v>
+        <v>65.29374757159385</v>
       </c>
       <c r="G8">
-        <v>27.85932229013777</v>
+        <v>2.049153820929892</v>
       </c>
       <c r="H8">
-        <v>27.6879686615199</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.134180349186392</v>
+        <v>5.334920469452029</v>
       </c>
       <c r="K8">
-        <v>59.19528968508567</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.28662070524947</v>
+        <v>5.870328282526992</v>
       </c>
       <c r="M8">
-        <v>38.08459384107048</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>44.70235792114907</v>
+      </c>
+      <c r="N8">
+        <v>16.19963395149545</v>
+      </c>
+      <c r="O8">
+        <v>52.09029586374675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.160647683275749</v>
+        <v>5.316330109589639</v>
       </c>
       <c r="D9">
-        <v>4.386250618403257</v>
+        <v>9.843642744698673</v>
       </c>
       <c r="E9">
-        <v>5.26001764062829</v>
+        <v>6.830222719323626</v>
       </c>
       <c r="F9">
-        <v>43.67927984606993</v>
+        <v>75.39752128910159</v>
       </c>
       <c r="G9">
-        <v>34.32805835186185</v>
+        <v>1.966366251552237</v>
       </c>
       <c r="H9">
-        <v>33.86860285104454</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.406008252546437</v>
+        <v>4.86147793297549</v>
       </c>
       <c r="K9">
-        <v>69.76986437117455</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6.74994579964006</v>
+        <v>6.445230737962544</v>
       </c>
       <c r="M9">
-        <v>44.93102580421175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>52.06242516168135</v>
+      </c>
+      <c r="N9">
+        <v>17.2442630560568</v>
+      </c>
+      <c r="O9">
+        <v>60.17552196927484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.052738785416876</v>
+        <v>5.34164029233063</v>
       </c>
       <c r="D10">
-        <v>5.227621422138499</v>
+        <v>11.19054284379871</v>
       </c>
       <c r="E10">
-        <v>5.279604803023872</v>
+        <v>7.103567774041126</v>
       </c>
       <c r="F10">
-        <v>50.01261190416167</v>
+        <v>84.21091543823024</v>
       </c>
       <c r="G10">
-        <v>39.47525904211658</v>
+        <v>1.897608361555989</v>
       </c>
       <c r="H10">
-        <v>38.86342283022974</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3.894187406445716</v>
+        <v>4.494772130336167</v>
       </c>
       <c r="K10">
-        <v>77.21432783150175</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>7.099242720430272</v>
+        <v>6.899016276913436</v>
       </c>
       <c r="M10">
-        <v>49.76509805868845</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>57.90788522310289</v>
+      </c>
+      <c r="N10">
+        <v>17.99578871048343</v>
+      </c>
+      <c r="O10">
+        <v>67.4503054478954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.4685066158791</v>
+        <v>5.379837859241257</v>
       </c>
       <c r="D11">
-        <v>5.639844446251349</v>
+        <v>11.85060888766999</v>
       </c>
       <c r="E11">
-        <v>5.295791382797633</v>
+        <v>7.241652112882722</v>
       </c>
       <c r="F11">
-        <v>53.09099617613192</v>
+        <v>88.74490665988897</v>
       </c>
       <c r="G11">
-        <v>41.97387961322577</v>
+        <v>1.862431374909822</v>
       </c>
       <c r="H11">
-        <v>41.30390203161352</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.150107344303017</v>
+        <v>4.31849267495798</v>
       </c>
       <c r="K11">
-        <v>80.58646023649075</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>7.262355888739469</v>
+        <v>7.122377273792304</v>
       </c>
       <c r="M11">
-        <v>51.95936699105174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>60.66424944978051</v>
+      </c>
+      <c r="N11">
+        <v>18.33182214341577</v>
+      </c>
+      <c r="O11">
+        <v>71.17532847251741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.628623417060972</v>
+        <v>5.399732007623228</v>
       </c>
       <c r="D12">
-        <v>5.802097232303005</v>
+        <v>12.11271244481835</v>
       </c>
       <c r="E12">
-        <v>5.303136289127609</v>
+        <v>7.29712886301401</v>
       </c>
       <c r="F12">
-        <v>54.29681667749271</v>
+        <v>90.56346113327567</v>
       </c>
       <c r="G12">
-        <v>42.95229411012327</v>
+        <v>1.848199972638557</v>
       </c>
       <c r="H12">
-        <v>42.26177998587092</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.249943913645244</v>
+        <v>4.249604083240764</v>
       </c>
       <c r="K12">
-        <v>81.86843670633324</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>7.325043991414462</v>
+        <v>7.211069611010745</v>
       </c>
       <c r="M12">
-        <v>52.7943869125692</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>61.73797095068782</v>
+      </c>
+      <c r="N12">
+        <v>18.45789741780524</v>
+      </c>
+      <c r="O12">
+        <v>72.66647316946219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.593994644127774</v>
+        <v>5.395168887310408</v>
       </c>
       <c r="D13">
-        <v>5.76683964611169</v>
+        <v>12.05559372477092</v>
       </c>
       <c r="E13">
-        <v>5.3014971402321</v>
+        <v>7.285009305992647</v>
       </c>
       <c r="F13">
-        <v>54.03509072777587</v>
+        <v>90.16636563652017</v>
       </c>
       <c r="G13">
-        <v>42.73993808075461</v>
+        <v>1.851313928325156</v>
       </c>
       <c r="H13">
-        <v>42.05378295715884</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.228292398886661</v>
+        <v>4.26455312363969</v>
       </c>
       <c r="K13">
-        <v>81.59197060788131</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>7.311495360967648</v>
+        <v>7.19174430284709</v>
       </c>
       <c r="M13">
-        <v>52.6142695370759</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>61.50500625947991</v>
+      </c>
+      <c r="N13">
+        <v>18.43080497411206</v>
+      </c>
+      <c r="O13">
+        <v>72.34100107291178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.48161684204231</v>
+        <v>5.381352867828316</v>
       </c>
       <c r="D14">
-        <v>5.653055739050357</v>
+        <v>11.87188393321819</v>
       </c>
       <c r="E14">
-        <v>5.29637014754674</v>
+        <v>7.246142013198051</v>
       </c>
       <c r="F14">
-        <v>53.18930911414495</v>
+        <v>88.89216605884957</v>
       </c>
       <c r="G14">
-        <v>42.05365684904545</v>
+        <v>1.861281730386148</v>
       </c>
       <c r="H14">
-        <v>41.3819607406818</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.158255353579674</v>
+        <v>4.312874117758553</v>
       </c>
       <c r="K14">
-        <v>80.69177710994653</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>7.26749247924348</v>
+        <v>7.129577484332119</v>
       </c>
       <c r="M14">
-        <v>52.027947737932</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>60.7518508470029</v>
+      </c>
+      <c r="N14">
+        <v>18.34222069206011</v>
+      </c>
+      <c r="O14">
+        <v>71.29613371811179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.413176546683195</v>
+        <v>5.373661796800628</v>
       </c>
       <c r="D15">
-        <v>5.584232232567317</v>
+        <v>11.76116276859553</v>
       </c>
       <c r="E15">
-        <v>5.293393853582115</v>
+        <v>7.2228012521052</v>
       </c>
       <c r="F15">
-        <v>52.67690648432834</v>
+        <v>88.12650197947062</v>
       </c>
       <c r="G15">
-        <v>41.63785013548198</v>
+        <v>1.867254063110026</v>
       </c>
       <c r="H15">
-        <v>40.97519976270797</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.115772025969458</v>
+        <v>4.342163134812226</v>
       </c>
       <c r="K15">
-        <v>80.14129778930783</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>7.240671223612156</v>
+        <v>7.092104592219761</v>
       </c>
       <c r="M15">
-        <v>51.66951856222991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>60.29509124371847</v>
+      </c>
+      <c r="N15">
+        <v>18.28779376024462</v>
+      </c>
+      <c r="O15">
+        <v>70.66789982959615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.025862579537023</v>
+        <v>5.339796415778856</v>
       </c>
       <c r="D16">
-        <v>5.201420690067112</v>
+        <v>11.14873770346887</v>
       </c>
       <c r="E16">
-        <v>5.2787067865988</v>
+        <v>7.094905226562092</v>
       </c>
       <c r="F16">
-        <v>49.81629068823234</v>
+        <v>83.92622386485998</v>
       </c>
       <c r="G16">
-        <v>39.3158611170882</v>
+        <v>1.899803944689608</v>
       </c>
       <c r="H16">
-        <v>38.70803842889444</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3.877810793573048</v>
+        <v>4.506045253954129</v>
       </c>
       <c r="K16">
-        <v>76.9942050273787</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>7.088691439480807</v>
+        <v>6.884878041802008</v>
       </c>
       <c r="M16">
-        <v>49.62196789983992</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>57.73083844122014</v>
+      </c>
+      <c r="N16">
+        <v>17.97368654180324</v>
+      </c>
+      <c r="O16">
+        <v>67.21602378607312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.791543151808908</v>
+        <v>5.32672626500577</v>
       </c>
       <c r="D17">
-        <v>4.975257879790935</v>
+        <v>10.78798071099335</v>
       </c>
       <c r="E17">
-        <v>5.271666699800657</v>
+        <v>7.020593215911429</v>
       </c>
       <c r="F17">
-        <v>48.11877657192429</v>
+        <v>81.48318998618551</v>
       </c>
       <c r="G17">
-        <v>37.93727865384798</v>
+        <v>1.918588614149242</v>
       </c>
       <c r="H17">
-        <v>37.36586036622611</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3.73589683370838</v>
+        <v>4.603727594973325</v>
       </c>
       <c r="K17">
-        <v>75.06410595281719</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.996718849703925</v>
+        <v>6.762963826841192</v>
       </c>
       <c r="M17">
-        <v>48.36748837739123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>56.19106598604689</v>
+      </c>
+      <c r="N17">
+        <v>17.77931398809708</v>
+      </c>
+      <c r="O17">
+        <v>65.20348298155461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.657608932934648</v>
+        <v>5.321591603798029</v>
       </c>
       <c r="D18">
-        <v>4.847800753850574</v>
+        <v>10.58449877230418</v>
       </c>
       <c r="E18">
-        <v>5.268289973240109</v>
+        <v>6.979042971726742</v>
       </c>
       <c r="F18">
-        <v>47.16005668960664</v>
+        <v>80.11676105981483</v>
       </c>
       <c r="G18">
-        <v>37.15838359960538</v>
+        <v>1.92905498205505</v>
       </c>
       <c r="H18">
-        <v>36.6089631608326</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.655480460742071</v>
+        <v>4.659083205694051</v>
       </c>
       <c r="K18">
-        <v>73.95206301245707</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.944190460370102</v>
+        <v>6.694296254387609</v>
       </c>
       <c r="M18">
-        <v>47.64512668798541</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>55.31326045899529</v>
+      </c>
+      <c r="N18">
+        <v>17.66699242327393</v>
+      </c>
+      <c r="O18">
+        <v>64.07609492358645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.61237525133252</v>
+        <v>5.320227482037352</v>
       </c>
       <c r="D19">
-        <v>4.805050747749925</v>
+        <v>10.51618137559421</v>
       </c>
       <c r="E19">
-        <v>5.267257759139059</v>
+        <v>6.9651546874501</v>
       </c>
       <c r="F19">
-        <v>46.83820222109581</v>
+        <v>79.6599831420162</v>
       </c>
       <c r="G19">
-        <v>36.89684268665136</v>
+        <v>1.932547989663717</v>
       </c>
       <c r="H19">
-        <v>36.3550562534552</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3.628436825311166</v>
+        <v>4.677700652741348</v>
       </c>
       <c r="K19">
-        <v>73.57504457275729</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6.926461694615702</v>
+        <v>6.671261747342121</v>
       </c>
       <c r="M19">
-        <v>47.40029007007074</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>55.01706242400579</v>
+      </c>
+      <c r="N19">
+        <v>17.62887964813576</v>
+      </c>
+      <c r="O19">
+        <v>63.69892739626471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.816392478956985</v>
+        <v>5.327862284658698</v>
       </c>
       <c r="D20">
-        <v>4.999050157577337</v>
+        <v>10.82594026325704</v>
       </c>
       <c r="E20">
-        <v>5.272345445930425</v>
+        <v>7.028374236649201</v>
       </c>
       <c r="F20">
-        <v>48.29758465034029</v>
+        <v>81.73904921559534</v>
       </c>
       <c r="G20">
-        <v>38.08252232770788</v>
+        <v>1.916625784501994</v>
       </c>
       <c r="H20">
-        <v>37.50712007708152</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3.750872897891583</v>
+        <v>4.593419213569025</v>
       </c>
       <c r="K20">
-        <v>75.26972240520801</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>7.006469171991989</v>
+        <v>6.77578259073989</v>
       </c>
       <c r="M20">
-        <v>48.50108580590837</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>56.35408331854975</v>
+      </c>
+      <c r="N20">
+        <v>17.80006128200409</v>
+      </c>
+      <c r="O20">
+        <v>65.4144390545266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.514539704539249</v>
+        <v>5.385245684745135</v>
       </c>
       <c r="D21">
-        <v>5.686290315804984</v>
+        <v>11.92545175057416</v>
       </c>
       <c r="E21">
-        <v>5.297841487994425</v>
+        <v>7.257457401674302</v>
       </c>
       <c r="F21">
-        <v>53.43652630503202</v>
+        <v>89.2632293987468</v>
       </c>
       <c r="G21">
-        <v>42.25425994407853</v>
+        <v>1.858382739577278</v>
       </c>
       <c r="H21">
-        <v>41.57827766369673</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.178737826683376</v>
+        <v>4.298747588001086</v>
       </c>
       <c r="K21">
-        <v>80.95597784518831</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>7.280388940097988</v>
+        <v>7.14770608842654</v>
       </c>
       <c r="M21">
-        <v>52.20000512332391</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>60.97207138259585</v>
+      </c>
+      <c r="N21">
+        <v>18.3682757070388</v>
+      </c>
+      <c r="O21">
+        <v>71.60049165974</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.987451306327081</v>
+        <v>5.456134665091864</v>
       </c>
       <c r="D22">
-        <v>6.172925636947902</v>
+        <v>12.72118987687191</v>
       </c>
       <c r="E22">
-        <v>5.321708299655652</v>
+        <v>7.427233452980266</v>
       </c>
       <c r="F22">
-        <v>57.03900592637486</v>
+        <v>94.81785523135039</v>
       </c>
       <c r="G22">
-        <v>45.17696264921555</v>
+        <v>1.814598143046296</v>
       </c>
       <c r="H22">
-        <v>44.44382078163835</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.476215607133744</v>
+        <v>4.092905147136946</v>
       </c>
       <c r="K22">
-        <v>84.70742001314096</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>7.465053088717773</v>
+        <v>7.416751028519478</v>
       </c>
       <c r="M22">
-        <v>54.64531157813535</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>64.18364272189136</v>
+      </c>
+      <c r="N22">
+        <v>18.73240766896953</v>
+      </c>
+      <c r="O22">
+        <v>76.14932185220889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.732955878287896</v>
+        <v>5.414381066464303</v>
       </c>
       <c r="D23">
-        <v>5.908884179437484</v>
+        <v>12.28637047163675</v>
       </c>
       <c r="E23">
-        <v>5.308240849872437</v>
+        <v>7.334076095005932</v>
       </c>
       <c r="F23">
-        <v>55.08848251595986</v>
+        <v>91.77329525038201</v>
       </c>
       <c r="G23">
-        <v>43.59459518319728</v>
+        <v>1.838689819645265</v>
       </c>
       <c r="H23">
-        <v>42.89121561590804</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.315375340999284</v>
+        <v>4.204389095955392</v>
       </c>
       <c r="K23">
-        <v>82.69875567974741</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>7.365829513212536</v>
+        <v>7.269809902897332</v>
       </c>
       <c r="M23">
-        <v>53.33547440735226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>62.44271399789058</v>
+      </c>
+      <c r="N23">
+        <v>18.53891394387618</v>
+      </c>
+      <c r="O23">
+        <v>73.65766103670235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.805155756852162</v>
+        <v>5.327341381725365</v>
       </c>
       <c r="D24">
-        <v>4.988285804877543</v>
+        <v>10.80876687170727</v>
       </c>
       <c r="E24">
-        <v>5.272036507726206</v>
+        <v>7.024852860421639</v>
       </c>
       <c r="F24">
-        <v>48.21669273420776</v>
+        <v>81.62325895498843</v>
       </c>
       <c r="G24">
-        <v>38.01681574223676</v>
+        <v>1.917514195380149</v>
       </c>
       <c r="H24">
-        <v>37.44321130350718</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3.7440986359028</v>
+        <v>4.598082084006635</v>
       </c>
       <c r="K24">
-        <v>75.17677118211951</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>7.002059989137634</v>
+        <v>6.769982902336418</v>
       </c>
       <c r="M24">
-        <v>48.44069030399132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>56.28036105019491</v>
+      </c>
+      <c r="N24">
+        <v>17.79068319762526</v>
+      </c>
+      <c r="O24">
+        <v>65.31897539996625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.834928943693362</v>
+        <v>5.323792965074355</v>
       </c>
       <c r="D25">
-        <v>4.093332333749642</v>
+        <v>9.367847214318784</v>
       </c>
       <c r="E25">
-        <v>5.258351042420907</v>
+        <v>6.736926888082741</v>
       </c>
       <c r="F25">
-        <v>41.46679303151339</v>
+        <v>72.52434635909475</v>
       </c>
       <c r="G25">
-        <v>32.5263814069369</v>
+        <v>1.989662327863273</v>
       </c>
       <c r="H25">
-        <v>32.13385190871389</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.602585345978568</v>
+        <v>4.991557066657814</v>
       </c>
       <c r="K25">
-        <v>66.98085673730763</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.62359216506133</v>
+        <v>6.286412942718099</v>
       </c>
       <c r="M25">
-        <v>43.12317895470635</v>
+        <v>49.93112482714426</v>
+      </c>
+      <c r="N25">
+        <v>16.9638124080926</v>
+      </c>
+      <c r="O25">
+        <v>57.87770484128136</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.367220736729471</v>
+        <v>6.547086852017999</v>
       </c>
       <c r="D2">
-        <v>8.340309483547378</v>
+        <v>5.247781862253865</v>
       </c>
       <c r="E2">
-        <v>6.542730470357117</v>
+        <v>6.268504015303568</v>
       </c>
       <c r="F2">
-        <v>66.61088866499911</v>
+        <v>49.34943253530463</v>
       </c>
       <c r="G2">
-        <v>2.038167662996496</v>
+        <v>76.54412974243614</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>20.08584286127994</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.270418372192549</v>
+        <v>5.297565349512673</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.948195475436433</v>
+        <v>5.486209977272267</v>
       </c>
       <c r="M2">
-        <v>45.68289186646574</v>
+        <v>38.43547043154052</v>
       </c>
       <c r="N2">
-        <v>16.34513542359483</v>
+        <v>17.72912592504266</v>
       </c>
       <c r="O2">
-        <v>53.14517364277044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.416596046692077</v>
+        <v>6.514823515211147</v>
       </c>
       <c r="D3">
-        <v>7.640153937538134</v>
+        <v>4.951127918626871</v>
       </c>
       <c r="E3">
-        <v>6.417180877905587</v>
+        <v>6.346220215413384</v>
       </c>
       <c r="F3">
-        <v>62.85381291498595</v>
+        <v>46.81050574920611</v>
       </c>
       <c r="G3">
-        <v>2.069787364969009</v>
+        <v>71.95888930341455</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>19.23035546328524</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.457241900476911</v>
+        <v>5.44136963845583</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.723040591463295</v>
+        <v>5.413281646037209</v>
       </c>
       <c r="M3">
-        <v>42.82232503419084</v>
+        <v>36.08241682494769</v>
       </c>
       <c r="N3">
-        <v>15.92242795591168</v>
+        <v>17.11534009566901</v>
       </c>
       <c r="O3">
-        <v>50.1352364858594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.454790436727697</v>
+        <v>6.50403267895662</v>
       </c>
       <c r="D4">
-        <v>7.203230210437601</v>
+        <v>4.764734805561251</v>
       </c>
       <c r="E4">
-        <v>6.342092081430543</v>
+        <v>6.395199347379416</v>
       </c>
       <c r="F4">
-        <v>60.64128168441114</v>
+        <v>45.27581022503168</v>
       </c>
       <c r="G4">
-        <v>2.088925305694856</v>
+        <v>69.14627547739445</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>18.72126360804382</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.571946411467896</v>
+        <v>5.53106974862666</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.585442281920852</v>
+        <v>5.368988981671355</v>
       </c>
       <c r="M4">
-        <v>41.03469149378673</v>
+        <v>34.58034507168326</v>
       </c>
       <c r="N4">
-        <v>15.66208154207105</v>
+        <v>16.73182915534161</v>
       </c>
       <c r="O4">
-        <v>48.36112192465075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.472105737664337</v>
+        <v>6.501728651647895</v>
       </c>
       <c r="D5">
-        <v>7.02282714945852</v>
+        <v>4.687645161827535</v>
       </c>
       <c r="E5">
-        <v>6.311888872076386</v>
+        <v>6.415491252711668</v>
       </c>
       <c r="F5">
-        <v>59.7604045105744</v>
+        <v>44.65637497607079</v>
       </c>
       <c r="G5">
-        <v>2.09669338501948</v>
+        <v>68.00068997868715</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>18.51774450050628</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.618815077356469</v>
+        <v>5.56801285398912</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.529392376648731</v>
+        <v>5.351041559463725</v>
       </c>
       <c r="M5">
-        <v>40.29747518284342</v>
+        <v>33.95390240628669</v>
       </c>
       <c r="N5">
-        <v>15.55592439314528</v>
+        <v>16.57407166530468</v>
       </c>
       <c r="O5">
-        <v>47.65439695230857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.475080781309446</v>
+        <v>6.501467635564662</v>
       </c>
       <c r="D6">
-        <v>6.992714413763022</v>
+        <v>4.674774558045002</v>
       </c>
       <c r="E6">
-        <v>6.306894967143747</v>
+        <v>6.418881212922435</v>
       </c>
       <c r="F6">
-        <v>59.61531931868167</v>
+        <v>44.55387891228249</v>
       </c>
       <c r="G6">
-        <v>2.097982389107721</v>
+        <v>67.81050650356894</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>18.48418556095913</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.626608479210442</v>
+        <v>5.574171772688096</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.520083380328535</v>
+        <v>5.34806706417564</v>
       </c>
       <c r="M6">
-        <v>40.17451595515337</v>
+        <v>33.84902101641536</v>
       </c>
       <c r="N6">
-        <v>15.53829733564962</v>
+        <v>16.54779334733746</v>
       </c>
       <c r="O6">
-        <v>47.53797169727066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.455017139740622</v>
+        <v>6.503993351762027</v>
       </c>
       <c r="D7">
-        <v>7.200807444044186</v>
+        <v>4.763699805601957</v>
       </c>
       <c r="E7">
-        <v>6.341683267692407</v>
+        <v>6.395471645504287</v>
       </c>
       <c r="F7">
-        <v>60.62932110387361</v>
+        <v>45.26743215963575</v>
       </c>
       <c r="G7">
-        <v>2.089030148121619</v>
+        <v>69.13082319562317</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>18.7185030545617</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.572577837823432</v>
+        <v>5.531566352599702</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.584686436861648</v>
+        <v>5.368746546269749</v>
       </c>
       <c r="M7">
-        <v>41.02478536117847</v>
+        <v>34.57195449776094</v>
       </c>
       <c r="N7">
-        <v>15.66064994295049</v>
+        <v>16.72970727253049</v>
       </c>
       <c r="O7">
-        <v>48.35152760096349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.382456344429293</v>
+        <v>6.533981378831777</v>
       </c>
       <c r="D8">
-        <v>8.099957024321061</v>
+        <v>5.146330758439942</v>
       </c>
       <c r="E8">
-        <v>6.498952139967601</v>
+        <v>6.295048604955608</v>
       </c>
       <c r="F8">
-        <v>65.29374757159385</v>
+        <v>48.46883843647596</v>
       </c>
       <c r="G8">
-        <v>2.049153820929892</v>
+        <v>74.96235567181117</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>19.78741489500425</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.334920469452029</v>
+        <v>5.346880747598714</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.870328282526992</v>
+        <v>5.460950220488304</v>
       </c>
       <c r="M8">
-        <v>44.70235792114907</v>
+        <v>37.63602398750734</v>
       </c>
       <c r="N8">
-        <v>16.19963395149545</v>
+        <v>17.51898258212651</v>
       </c>
       <c r="O8">
-        <v>52.09029586374675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.316330109589639</v>
+        <v>6.672974469803615</v>
       </c>
       <c r="D9">
-        <v>9.843642744698673</v>
+        <v>5.867229145574747</v>
       </c>
       <c r="E9">
-        <v>6.830222719323626</v>
+        <v>6.107334565994507</v>
       </c>
       <c r="F9">
-        <v>75.39752128910159</v>
+        <v>54.9587867114229</v>
       </c>
       <c r="G9">
-        <v>1.966366251552237</v>
+        <v>86.45251976782262</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>22.02196718349796</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.86147793297549</v>
+        <v>4.994020980024057</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.445230737962544</v>
+        <v>5.646775662005337</v>
       </c>
       <c r="M9">
-        <v>52.06242516168135</v>
+        <v>43.25523481577814</v>
       </c>
       <c r="N9">
-        <v>17.2442630560568</v>
+        <v>19.00659436280972</v>
       </c>
       <c r="O9">
-        <v>60.17552196927484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.34164029233063</v>
+        <v>6.83746661750161</v>
       </c>
       <c r="D10">
-        <v>11.19054284379871</v>
+        <v>6.387290624582601</v>
       </c>
       <c r="E10">
-        <v>7.103567774041126</v>
+        <v>5.973759292317376</v>
       </c>
       <c r="F10">
-        <v>84.21091543823024</v>
+        <v>59.91107665880367</v>
       </c>
       <c r="G10">
-        <v>1.897608361555989</v>
+        <v>95.02184627952433</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>23.77097272687221</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.494772130336167</v>
+        <v>4.737598293189298</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.899016276913436</v>
+        <v>5.78853182763113</v>
       </c>
       <c r="M10">
-        <v>57.90788522310289</v>
+        <v>47.45325746068897</v>
       </c>
       <c r="N10">
-        <v>17.99578871048343</v>
+        <v>20.05469610677976</v>
       </c>
       <c r="O10">
-        <v>67.4503054478954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.379837859241257</v>
+        <v>6.929425650711874</v>
       </c>
       <c r="D11">
-        <v>11.85060888766999</v>
+        <v>6.624569148263508</v>
       </c>
       <c r="E11">
-        <v>7.241652112882722</v>
+        <v>5.913587545175182</v>
       </c>
       <c r="F11">
-        <v>88.74490665988897</v>
+        <v>62.26350495251565</v>
       </c>
       <c r="G11">
-        <v>1.862431374909822</v>
+        <v>99.03973573321591</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>24.74645661462584</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.31849267495798</v>
+        <v>4.620829987810176</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.122377273792304</v>
+        <v>5.854863297984871</v>
       </c>
       <c r="M11">
-        <v>60.66424944978051</v>
+        <v>49.30191579032457</v>
       </c>
       <c r="N11">
-        <v>18.33182214341577</v>
+        <v>20.52055555753394</v>
       </c>
       <c r="O11">
-        <v>71.17532847251741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.399732007623228</v>
+        <v>6.967077736438084</v>
       </c>
       <c r="D12">
-        <v>12.11271244481835</v>
+        <v>6.714844756374226</v>
       </c>
       <c r="E12">
-        <v>7.29712886301401</v>
+        <v>5.890852227398693</v>
       </c>
       <c r="F12">
-        <v>90.56346113327567</v>
+        <v>63.20892902460289</v>
       </c>
       <c r="G12">
-        <v>1.848199972638557</v>
+        <v>100.5771346131121</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>25.1252694826098</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.249604083240764</v>
+        <v>4.576526570845734</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.211069611010745</v>
+        <v>5.880329856416477</v>
       </c>
       <c r="M12">
-        <v>61.73797095068782</v>
+        <v>49.99450490974083</v>
       </c>
       <c r="N12">
-        <v>18.45789741780524</v>
+        <v>20.69532689424156</v>
       </c>
       <c r="O12">
-        <v>72.66647316946219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.395168887310408</v>
+        <v>6.958836219663176</v>
       </c>
       <c r="D13">
-        <v>12.05559372477092</v>
+        <v>6.69537725035944</v>
       </c>
       <c r="E13">
-        <v>7.285009305992647</v>
+        <v>5.895747064073522</v>
       </c>
       <c r="F13">
-        <v>90.16636563652017</v>
+        <v>63.00483990841143</v>
       </c>
       <c r="G13">
-        <v>1.851313928325156</v>
+        <v>100.2453491148147</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>25.04350452800224</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.26455312363969</v>
+        <v>4.586073096207293</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.19174430284709</v>
+        <v>5.874828082606605</v>
       </c>
       <c r="M13">
-        <v>61.50500625947991</v>
+        <v>49.8456502034463</v>
       </c>
       <c r="N13">
-        <v>18.43080497411206</v>
+        <v>20.65776046838487</v>
       </c>
       <c r="O13">
-        <v>72.34100107291178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.381352867828316</v>
+        <v>6.932464246969168</v>
       </c>
       <c r="D14">
-        <v>11.87188393321819</v>
+        <v>6.631985491422449</v>
       </c>
       <c r="E14">
-        <v>7.246142013198051</v>
+        <v>5.911716308034052</v>
       </c>
       <c r="F14">
-        <v>88.89216605884957</v>
+        <v>62.34107702975816</v>
       </c>
       <c r="G14">
-        <v>1.861281730386148</v>
+        <v>99.16592150063146</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>24.77754253397414</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.312874117758553</v>
+        <v>4.617187259207882</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.129577484332119</v>
+        <v>5.856950898661921</v>
       </c>
       <c r="M14">
-        <v>60.7518508470029</v>
+        <v>49.35903613032171</v>
       </c>
       <c r="N14">
-        <v>18.34222069206011</v>
+        <v>20.53496725132457</v>
       </c>
       <c r="O14">
-        <v>71.29613371811179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.373661796800628</v>
+        <v>6.916691213184316</v>
       </c>
       <c r="D15">
-        <v>11.76116276859553</v>
+        <v>6.593222584748601</v>
       </c>
       <c r="E15">
-        <v>7.2228012521052</v>
+        <v>5.921503358610948</v>
       </c>
       <c r="F15">
-        <v>88.12650197947062</v>
+        <v>61.93582964965903</v>
       </c>
       <c r="G15">
-        <v>1.867254063110026</v>
+        <v>98.50662420527439</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>24.61513660231793</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.342163134812226</v>
+        <v>4.636232241034024</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.092104592219761</v>
+        <v>5.846048864826597</v>
       </c>
       <c r="M15">
-        <v>60.29509124371847</v>
+        <v>49.06004499952788</v>
       </c>
       <c r="N15">
-        <v>18.28779376024462</v>
+        <v>20.45953779256056</v>
       </c>
       <c r="O15">
-        <v>70.66789982959615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.339796415778856</v>
+        <v>6.831831262509648</v>
       </c>
       <c r="D16">
-        <v>11.14873770346887</v>
+        <v>6.371823469558162</v>
       </c>
       <c r="E16">
-        <v>7.094905226562092</v>
+        <v>5.977700743043781</v>
       </c>
       <c r="F16">
-        <v>83.92622386485998</v>
+        <v>59.76125216563409</v>
       </c>
       <c r="G16">
-        <v>1.899803944689608</v>
+        <v>94.76448276544296</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>23.71761643541612</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.506045253954129</v>
+        <v>4.745221279105535</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.884878041802008</v>
+        <v>5.784240570171956</v>
       </c>
       <c r="M16">
-        <v>57.73083844122014</v>
+        <v>47.3313200774797</v>
       </c>
       <c r="N16">
-        <v>17.97368654180324</v>
+        <v>20.02402475761927</v>
       </c>
       <c r="O16">
-        <v>67.21602378607312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.32672626500577</v>
+        <v>6.784398967890139</v>
       </c>
       <c r="D17">
-        <v>10.78798071099335</v>
+        <v>6.236382889362332</v>
       </c>
       <c r="E17">
-        <v>7.020593215911429</v>
+        <v>6.012304853876691</v>
       </c>
       <c r="F17">
-        <v>81.48318998618551</v>
+        <v>58.45543914620037</v>
       </c>
       <c r="G17">
-        <v>1.918588614149242</v>
+        <v>92.51680020411746</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>23.25367868649248</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.603727594973325</v>
+        <v>4.812005419617805</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.762963826841192</v>
+        <v>5.746847370022026</v>
       </c>
       <c r="M17">
-        <v>56.19106598604689</v>
+        <v>46.25600489083133</v>
       </c>
       <c r="N17">
-        <v>17.77931398809708</v>
+        <v>19.75399574847251</v>
       </c>
       <c r="O17">
-        <v>65.20348298155461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.321591603798029</v>
+        <v>6.758704213335381</v>
       </c>
       <c r="D18">
-        <v>10.58449877230418</v>
+        <v>6.158522928117946</v>
       </c>
       <c r="E18">
-        <v>6.979042971726742</v>
+        <v>6.032266377885756</v>
       </c>
       <c r="F18">
-        <v>80.11676105981483</v>
+        <v>57.71001247467598</v>
       </c>
       <c r="G18">
-        <v>1.92905498205505</v>
+        <v>91.22981955355665</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>22.98975503410042</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.659083205694051</v>
+        <v>4.850411116833608</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.694296254387609</v>
+        <v>5.725507343747478</v>
       </c>
       <c r="M18">
-        <v>55.31326045899529</v>
+        <v>45.63167028739484</v>
       </c>
       <c r="N18">
-        <v>17.66699242327393</v>
+        <v>19.59765608489211</v>
       </c>
       <c r="O18">
-        <v>64.07609492358645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.320227482037352</v>
+        <v>6.750266954272112</v>
       </c>
       <c r="D19">
-        <v>10.51618137559421</v>
+        <v>6.132159717046099</v>
       </c>
       <c r="E19">
-        <v>6.9651546874501</v>
+        <v>6.039035957250334</v>
       </c>
       <c r="F19">
-        <v>79.6599831420162</v>
+        <v>57.45852265145006</v>
       </c>
       <c r="G19">
-        <v>1.932547989663717</v>
+        <v>90.79495125999685</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>22.90086988496661</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.677700652741348</v>
+        <v>4.86341542224969</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.671261747342121</v>
+        <v>5.71830862359865</v>
       </c>
       <c r="M19">
-        <v>55.01706242400579</v>
+        <v>45.41924314457427</v>
       </c>
       <c r="N19">
-        <v>17.62887964813576</v>
+        <v>19.5445484466896</v>
       </c>
       <c r="O19">
-        <v>63.69892739626471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.327862284658698</v>
+        <v>6.789281537494796</v>
       </c>
       <c r="D20">
-        <v>10.82594026325704</v>
+        <v>6.250794394583732</v>
       </c>
       <c r="E20">
-        <v>7.028374236649201</v>
+        <v>6.008615400895704</v>
       </c>
       <c r="F20">
-        <v>81.73904921559534</v>
+        <v>58.59384394193472</v>
       </c>
       <c r="G20">
-        <v>1.916625784501994</v>
+        <v>92.75543745423045</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>23.30275674649651</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.593419213569025</v>
+        <v>4.804897306034665</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.77578259073989</v>
+        <v>5.750810077855382</v>
       </c>
       <c r="M20">
-        <v>56.35408331854975</v>
+        <v>46.37107014432487</v>
       </c>
       <c r="N20">
-        <v>17.80006128200409</v>
+        <v>19.78284757773656</v>
       </c>
       <c r="O20">
-        <v>65.4144390545266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.385245684745135</v>
+        <v>6.94013026353695</v>
       </c>
       <c r="D21">
-        <v>11.92545175057416</v>
+        <v>6.650590634665578</v>
       </c>
       <c r="E21">
-        <v>7.257457401674302</v>
+        <v>5.907024694018275</v>
       </c>
       <c r="F21">
-        <v>89.2632293987468</v>
+        <v>62.53575712063001</v>
       </c>
       <c r="G21">
-        <v>1.858382739577278</v>
+        <v>99.48257216057453</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>24.85555439962614</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.298747588001086</v>
+        <v>4.608051189264861</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.14770608842654</v>
+        <v>5.862191617587541</v>
       </c>
       <c r="M21">
-        <v>60.97207138259585</v>
+        <v>49.50215656541694</v>
       </c>
       <c r="N21">
-        <v>18.3682757070388</v>
+        <v>20.57107949821677</v>
       </c>
       <c r="O21">
-        <v>71.60049165974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.456134665091864</v>
+        <v>7.055438882009868</v>
       </c>
       <c r="D22">
-        <v>12.72118987687191</v>
+        <v>6.914576498148333</v>
       </c>
       <c r="E22">
-        <v>7.427233452980266</v>
+        <v>5.840902186224196</v>
       </c>
       <c r="F22">
-        <v>94.81785523135039</v>
+        <v>65.30904919854582</v>
       </c>
       <c r="G22">
-        <v>1.814598143046296</v>
+        <v>103.9884574184028</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>25.96636241017966</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.092905147136946</v>
+        <v>4.478863167580037</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.416751028519478</v>
+        <v>5.937075393656874</v>
       </c>
       <c r="M22">
-        <v>64.18364272189136</v>
+        <v>51.50593252584268</v>
       </c>
       <c r="N22">
-        <v>18.73240766896953</v>
+        <v>21.0766666451525</v>
       </c>
       <c r="O22">
-        <v>76.14932185220889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.414381066464303</v>
+        <v>6.992224737956763</v>
       </c>
       <c r="D23">
-        <v>12.28637047163675</v>
+        <v>6.773301399725081</v>
       </c>
       <c r="E23">
-        <v>7.334076095005932</v>
+        <v>5.876181249758853</v>
       </c>
       <c r="F23">
-        <v>91.77329525038201</v>
+        <v>63.82243793885662</v>
       </c>
       <c r="G23">
-        <v>1.838689819645265</v>
+        <v>101.57420881111</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>25.37103116796256</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.204389095955392</v>
+        <v>4.547887185933592</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.269809902897332</v>
+        <v>5.896882553386627</v>
       </c>
       <c r="M23">
-        <v>62.44271399789058</v>
+        <v>50.43983782403381</v>
       </c>
       <c r="N23">
-        <v>18.53891394387618</v>
+        <v>20.80771598867301</v>
       </c>
       <c r="O23">
-        <v>73.65766103670235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.327341381725365</v>
+        <v>6.787069249509189</v>
       </c>
       <c r="D24">
-        <v>10.80876687170727</v>
+        <v>6.244278955390314</v>
       </c>
       <c r="E24">
-        <v>7.024852860421639</v>
+        <v>6.010283190859044</v>
       </c>
       <c r="F24">
-        <v>81.62325895498843</v>
+        <v>58.53125481437191</v>
       </c>
       <c r="G24">
-        <v>1.917514195380149</v>
+        <v>92.64753355985023</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>23.28055990819358</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.598082084006635</v>
+        <v>4.808110846073623</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.769982902336418</v>
+        <v>5.749018051939139</v>
       </c>
       <c r="M24">
-        <v>56.28036105019491</v>
+        <v>46.31906830519916</v>
       </c>
       <c r="N24">
-        <v>17.79068319762526</v>
+        <v>19.76980707521228</v>
       </c>
       <c r="O24">
-        <v>65.31897539996625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.323792965074355</v>
+        <v>6.625495822866838</v>
       </c>
       <c r="D25">
-        <v>9.367847214318784</v>
+        <v>5.67464001904669</v>
       </c>
       <c r="E25">
-        <v>6.736926888082741</v>
+        <v>6.157250709091642</v>
       </c>
       <c r="F25">
-        <v>72.52434635909475</v>
+        <v>53.17627928373084</v>
       </c>
       <c r="G25">
-        <v>1.989662327863273</v>
+        <v>83.33127192776699</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>21.4008101464096</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.991557066657814</v>
+        <v>5.088757969632548</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.286412942718099</v>
+        <v>5.595778036004966</v>
       </c>
       <c r="M25">
-        <v>49.93112482714426</v>
+        <v>41.73796296220393</v>
       </c>
       <c r="N25">
-        <v>16.9638124080926</v>
+        <v>18.61153473730461</v>
       </c>
       <c r="O25">
-        <v>57.87770484128136</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.547086852017999</v>
+        <v>11.39997876197891</v>
       </c>
       <c r="D2">
-        <v>5.247781862253865</v>
+        <v>4.86064255170043</v>
       </c>
       <c r="E2">
-        <v>6.268504015303568</v>
+        <v>11.2074708779952</v>
       </c>
       <c r="F2">
-        <v>49.34943253530463</v>
+        <v>57.7746890519082</v>
       </c>
       <c r="G2">
-        <v>76.54412974243614</v>
+        <v>78.59567557695948</v>
       </c>
       <c r="H2">
-        <v>20.08584286127994</v>
+        <v>26.17387131447306</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.297565349512673</v>
+        <v>10.57022822086932</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.486209977272267</v>
+        <v>8.200946204045596</v>
       </c>
       <c r="M2">
-        <v>38.43547043154052</v>
+        <v>35.29548741705593</v>
       </c>
       <c r="N2">
-        <v>17.72912592504266</v>
+        <v>17.51568045241979</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.514823515211147</v>
+        <v>11.44342066004473</v>
       </c>
       <c r="D3">
-        <v>4.951127918626871</v>
+        <v>4.769923155248835</v>
       </c>
       <c r="E3">
-        <v>6.346220215413384</v>
+        <v>11.23714557018159</v>
       </c>
       <c r="F3">
-        <v>46.81050574920611</v>
+        <v>57.60087961874182</v>
       </c>
       <c r="G3">
-        <v>71.95888930341455</v>
+        <v>78.05104785854728</v>
       </c>
       <c r="H3">
-        <v>19.23035546328524</v>
+        <v>26.15390854441009</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.44136963845583</v>
+        <v>10.61659357856541</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.413281646037209</v>
+        <v>8.18974324514293</v>
       </c>
       <c r="M3">
-        <v>36.08241682494769</v>
+        <v>34.66295100685373</v>
       </c>
       <c r="N3">
-        <v>17.11534009566901</v>
+        <v>17.34036893700447</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.50403267895662</v>
+        <v>11.47250053978795</v>
       </c>
       <c r="D4">
-        <v>4.764734805561251</v>
+        <v>4.712631826147979</v>
       </c>
       <c r="E4">
-        <v>6.395199347379416</v>
+        <v>11.25630219689479</v>
       </c>
       <c r="F4">
-        <v>45.27581022503168</v>
+        <v>57.51319000802609</v>
       </c>
       <c r="G4">
-        <v>69.14627547739445</v>
+        <v>77.74437839097132</v>
       </c>
       <c r="H4">
-        <v>18.72126360804382</v>
+        <v>26.14928184959506</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.53106974862666</v>
+        <v>10.64639258030702</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.368988981671355</v>
+        <v>8.182957995688476</v>
       </c>
       <c r="M4">
-        <v>34.58034507168326</v>
+        <v>34.27342482090467</v>
       </c>
       <c r="N4">
-        <v>16.73182915534161</v>
+        <v>17.2342335993989</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.501728651647895</v>
+        <v>11.48495367632318</v>
       </c>
       <c r="D5">
-        <v>4.687645161827535</v>
+        <v>4.688897017897072</v>
       </c>
       <c r="E5">
-        <v>6.415491252711668</v>
+        <v>11.26434489990705</v>
       </c>
       <c r="F5">
-        <v>44.65637497607079</v>
+        <v>57.48223816858652</v>
       </c>
       <c r="G5">
-        <v>68.00068997868715</v>
+        <v>77.62645438356881</v>
       </c>
       <c r="H5">
-        <v>18.51774450050628</v>
+        <v>26.149307367341</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.56801285398912</v>
+        <v>10.65887171208725</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.351041559463725</v>
+        <v>8.180216628149397</v>
       </c>
       <c r="M5">
-        <v>33.95390240628669</v>
+        <v>34.11459003613805</v>
       </c>
       <c r="N5">
-        <v>16.57407166530468</v>
+        <v>17.19140454046106</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.501467635564662</v>
+        <v>11.487057855494</v>
       </c>
       <c r="D6">
-        <v>4.674774558045002</v>
+        <v>4.684932776030601</v>
       </c>
       <c r="E6">
-        <v>6.418881212922435</v>
+        <v>11.26569467517481</v>
       </c>
       <c r="F6">
-        <v>44.55387891228249</v>
+        <v>57.47738727774685</v>
       </c>
       <c r="G6">
-        <v>67.81050650356894</v>
+        <v>77.60730059319953</v>
       </c>
       <c r="H6">
-        <v>18.48418556095913</v>
+        <v>26.14942676291883</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.574171772688096</v>
+        <v>10.66096417997059</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.34806706417564</v>
+        <v>8.179762861474764</v>
       </c>
       <c r="M6">
-        <v>33.84902101641536</v>
+        <v>34.0882151928612</v>
       </c>
       <c r="N6">
-        <v>16.54779334733746</v>
+        <v>17.18431954156186</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.503993351762027</v>
+        <v>11.47266604916223</v>
       </c>
       <c r="D7">
-        <v>4.763699805601957</v>
+        <v>4.712313286146421</v>
       </c>
       <c r="E7">
-        <v>6.395471645504287</v>
+        <v>11.25640970608278</v>
       </c>
       <c r="F7">
-        <v>45.26743215963575</v>
+        <v>57.51275322526883</v>
       </c>
       <c r="G7">
-        <v>69.13082319562317</v>
+        <v>77.7427594116474</v>
       </c>
       <c r="H7">
-        <v>18.7185030545617</v>
+        <v>26.14927446780713</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.531566352599702</v>
+        <v>10.64655951696297</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.368746546269749</v>
+        <v>8.182920928540293</v>
       </c>
       <c r="M7">
-        <v>34.57195449776094</v>
+        <v>34.27128287159784</v>
       </c>
       <c r="N7">
-        <v>16.72970727253049</v>
+        <v>17.23365422670986</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.533981378831777</v>
+        <v>11.41445672063245</v>
       </c>
       <c r="D8">
-        <v>5.146330758439942</v>
+        <v>4.829699075400315</v>
       </c>
       <c r="E8">
-        <v>6.295048604955608</v>
+        <v>11.21750887513623</v>
       </c>
       <c r="F8">
-        <v>48.46883843647596</v>
+        <v>57.71080998117041</v>
       </c>
       <c r="G8">
-        <v>74.96235567181117</v>
+        <v>78.40217955060686</v>
       </c>
       <c r="H8">
-        <v>19.78741489500425</v>
+        <v>26.16540016099187</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.346880747598714</v>
+        <v>10.58593960120637</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.460950220488304</v>
+        <v>8.197064147939084</v>
       </c>
       <c r="M8">
-        <v>37.63602398750734</v>
+        <v>35.07773876076436</v>
       </c>
       <c r="N8">
-        <v>17.51898258212651</v>
+        <v>17.45494633738203</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.672974469803615</v>
+        <v>11.31950443466837</v>
       </c>
       <c r="D9">
-        <v>5.867229145574747</v>
+        <v>5.046808912579527</v>
       </c>
       <c r="E9">
-        <v>6.107334565994507</v>
+        <v>11.14861655779205</v>
       </c>
       <c r="F9">
-        <v>54.9587867114229</v>
+        <v>58.25004535565651</v>
       </c>
       <c r="G9">
-        <v>86.45251976782262</v>
+        <v>79.91149431340851</v>
       </c>
       <c r="H9">
-        <v>22.02196718349796</v>
+        <v>26.25785369715861</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.994020980024057</v>
+        <v>10.47756389354351</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.646775662005337</v>
+        <v>8.22553290942818</v>
       </c>
       <c r="M9">
-        <v>43.25523481577814</v>
+        <v>36.64202859323315</v>
       </c>
       <c r="N9">
-        <v>19.00659436280972</v>
+        <v>17.89894323396332</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.83746661750161</v>
+        <v>11.26158841008832</v>
       </c>
       <c r="D10">
-        <v>6.387290624582601</v>
+        <v>5.197756875411887</v>
       </c>
       <c r="E10">
-        <v>5.973759292317376</v>
+        <v>11.10245612689682</v>
       </c>
       <c r="F10">
-        <v>59.91107665880367</v>
+        <v>58.73758999534569</v>
       </c>
       <c r="G10">
-        <v>95.02184627952433</v>
+        <v>81.14609457579155</v>
       </c>
       <c r="H10">
-        <v>23.77097272687221</v>
+        <v>26.36316261000065</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.737598293189298</v>
+        <v>10.40426041255933</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.78853182763113</v>
+        <v>8.24688815914738</v>
       </c>
       <c r="M10">
-        <v>47.45325746068897</v>
+        <v>37.77042243961448</v>
       </c>
       <c r="N10">
-        <v>20.05469610677976</v>
+        <v>18.22870289590215</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.929425650711874</v>
+        <v>11.23784456571821</v>
       </c>
       <c r="D11">
-        <v>6.624569148263508</v>
+        <v>5.264456272105621</v>
       </c>
       <c r="E11">
-        <v>5.913587545175182</v>
+        <v>11.082412752797</v>
       </c>
       <c r="F11">
-        <v>62.26350495251565</v>
+        <v>58.97897284796899</v>
       </c>
       <c r="G11">
-        <v>99.03973573321591</v>
+        <v>81.73349374357605</v>
       </c>
       <c r="H11">
-        <v>24.74645661462584</v>
+        <v>26.41921941788623</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.620829987810176</v>
+        <v>10.37226779066426</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.854863297984871</v>
+        <v>8.256696797461526</v>
       </c>
       <c r="M11">
-        <v>49.30191579032457</v>
+        <v>38.27714891856509</v>
       </c>
       <c r="N11">
-        <v>20.52055555753394</v>
+        <v>18.3789487527411</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.967077736438084</v>
+        <v>11.22923029795166</v>
       </c>
       <c r="D12">
-        <v>6.714844756374226</v>
+        <v>5.289422076694332</v>
       </c>
       <c r="E12">
-        <v>5.890852227398693</v>
+        <v>11.07495935983099</v>
       </c>
       <c r="F12">
-        <v>63.20892902460289</v>
+        <v>59.07316505824053</v>
       </c>
       <c r="G12">
-        <v>100.5771346131121</v>
+        <v>81.95948688135036</v>
       </c>
       <c r="H12">
-        <v>25.1252694826098</v>
+        <v>26.44161859917279</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.576526570845734</v>
+        <v>10.36034633533588</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.880329856416477</v>
+        <v>8.260424381034543</v>
       </c>
       <c r="M12">
-        <v>49.99450490974083</v>
+        <v>38.46792370261712</v>
       </c>
       <c r="N12">
-        <v>20.69532689424156</v>
+        <v>18.43583215150177</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.958836219663176</v>
+        <v>11.2310687222614</v>
       </c>
       <c r="D13">
-        <v>6.69537725035944</v>
+        <v>5.284058356643214</v>
       </c>
       <c r="E13">
-        <v>5.895747064073522</v>
+        <v>11.07655851829836</v>
       </c>
       <c r="F13">
-        <v>63.00483990841143</v>
+        <v>59.05275575471042</v>
       </c>
       <c r="G13">
-        <v>100.2453491148147</v>
+        <v>81.91065943182579</v>
       </c>
       <c r="H13">
-        <v>25.04350452800224</v>
+        <v>26.43674244788264</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.586073096207293</v>
+        <v>10.36290524867712</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.874828082606605</v>
+        <v>8.259620993401223</v>
       </c>
       <c r="M13">
-        <v>49.8456502034463</v>
+        <v>38.42688890094932</v>
       </c>
       <c r="N13">
-        <v>20.65776046838487</v>
+        <v>18.42358251808096</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.932464246969168</v>
+        <v>11.23712829279087</v>
       </c>
       <c r="D14">
-        <v>6.631985491422449</v>
+        <v>5.266516120658947</v>
       </c>
       <c r="E14">
-        <v>5.911716308034052</v>
+        <v>11.08179682442746</v>
       </c>
       <c r="F14">
-        <v>62.34107702975816</v>
+        <v>58.98666647129191</v>
       </c>
       <c r="G14">
-        <v>99.16592150063146</v>
+        <v>81.75201591079299</v>
       </c>
       <c r="H14">
-        <v>24.77754253397414</v>
+        <v>26.42103873804511</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.617187259207882</v>
+        <v>10.37128313493025</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.856950898661921</v>
+        <v>8.257003203644562</v>
       </c>
       <c r="M14">
-        <v>49.35903613032171</v>
+        <v>38.29286726274691</v>
       </c>
       <c r="N14">
-        <v>20.53496725132457</v>
+        <v>18.38362907112626</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.916691213184316</v>
+        <v>11.24088913588431</v>
       </c>
       <c r="D15">
-        <v>6.593222584748601</v>
+        <v>5.255732740250674</v>
       </c>
       <c r="E15">
-        <v>5.921503358610948</v>
+        <v>11.08502320456694</v>
       </c>
       <c r="F15">
-        <v>61.93582964965903</v>
+        <v>58.94654661421329</v>
       </c>
       <c r="G15">
-        <v>98.50662420527439</v>
+        <v>81.65530095854689</v>
       </c>
       <c r="H15">
-        <v>24.61513660231793</v>
+        <v>26.41157230928298</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.636232241034024</v>
+        <v>10.3764399910583</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.846048864826597</v>
+        <v>8.255401451620086</v>
       </c>
       <c r="M15">
-        <v>49.06004499952788</v>
+        <v>38.21062565202958</v>
       </c>
       <c r="N15">
-        <v>20.45953779256056</v>
+        <v>18.35915360497389</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.831831262509648</v>
+        <v>11.26319273095343</v>
       </c>
       <c r="D16">
-        <v>6.371823469558162</v>
+        <v>5.193357546711792</v>
       </c>
       <c r="E16">
-        <v>5.977700743043781</v>
+        <v>11.10378516502272</v>
       </c>
       <c r="F16">
-        <v>59.76125216563409</v>
+        <v>58.72220676694309</v>
       </c>
       <c r="G16">
-        <v>94.76448276544296</v>
+        <v>81.10821280136751</v>
       </c>
       <c r="H16">
-        <v>23.71761643541612</v>
+        <v>26.35966318756552</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.745221279105535</v>
+        <v>10.40637834093988</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.784240570171956</v>
+        <v>8.246249011936314</v>
       </c>
       <c r="M16">
-        <v>47.3313200774797</v>
+        <v>37.73715988871641</v>
       </c>
       <c r="N16">
-        <v>20.02402475761927</v>
+        <v>18.21888483188229</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.784398967890139</v>
+        <v>11.2775437799364</v>
       </c>
       <c r="D17">
-        <v>6.236382889362332</v>
+        <v>5.154581919214704</v>
       </c>
       <c r="E17">
-        <v>6.012304853876691</v>
+        <v>11.11553913547962</v>
       </c>
       <c r="F17">
-        <v>58.45543914620037</v>
+        <v>58.58957956133561</v>
       </c>
       <c r="G17">
-        <v>92.51680020411746</v>
+        <v>80.77909037068368</v>
       </c>
       <c r="H17">
-        <v>23.25367868649248</v>
+        <v>26.32990654085972</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.812005419617805</v>
+        <v>10.42509037490074</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.746847370022026</v>
+        <v>8.240658189717333</v>
       </c>
       <c r="M17">
-        <v>46.25600489083133</v>
+        <v>37.44489742381492</v>
       </c>
       <c r="N17">
-        <v>19.75399574847251</v>
+        <v>18.13286248312639</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.758704213335381</v>
+        <v>11.28604290947075</v>
       </c>
       <c r="D18">
-        <v>6.158522928117946</v>
+        <v>5.132094494124898</v>
       </c>
       <c r="E18">
-        <v>6.032266377885756</v>
+        <v>11.12238966557966</v>
       </c>
       <c r="F18">
-        <v>57.71001247467598</v>
+        <v>58.51514270000685</v>
       </c>
       <c r="G18">
-        <v>91.22981955355665</v>
+        <v>80.59222324505903</v>
       </c>
       <c r="H18">
-        <v>22.98975503410042</v>
+        <v>26.3135586699494</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.850411116833608</v>
+        <v>10.43598050973144</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.725507343747478</v>
+        <v>8.237451362828724</v>
       </c>
       <c r="M18">
-        <v>45.63167028739484</v>
+        <v>37.27618522286053</v>
       </c>
       <c r="N18">
-        <v>19.59765608489211</v>
+        <v>18.08340964445018</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.750266954272112</v>
+        <v>11.28896252671976</v>
       </c>
       <c r="D19">
-        <v>6.132159717046099</v>
+        <v>5.12444919540277</v>
       </c>
       <c r="E19">
-        <v>6.039035957250334</v>
+        <v>11.12472461085743</v>
       </c>
       <c r="F19">
-        <v>57.45852265145006</v>
+        <v>58.4902577335403</v>
       </c>
       <c r="G19">
-        <v>90.79495125999685</v>
+        <v>80.52937590342208</v>
       </c>
       <c r="H19">
-        <v>22.90086988496661</v>
+        <v>26.30815534476821</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.86341542224969</v>
+        <v>10.43968965082616</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.71830862359865</v>
+        <v>8.23636711679883</v>
       </c>
       <c r="M19">
-        <v>45.41924314457427</v>
+        <v>37.21896246276008</v>
       </c>
       <c r="N19">
-        <v>19.5445484466896</v>
+        <v>18.06667144416553</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.789281537494796</v>
+        <v>11.27599073185885</v>
       </c>
       <c r="D20">
-        <v>6.250794394583732</v>
+        <v>5.158728834047294</v>
       </c>
       <c r="E20">
-        <v>6.008615400895704</v>
+        <v>11.11427860057273</v>
       </c>
       <c r="F20">
-        <v>58.59384394193472</v>
+        <v>58.60350703210248</v>
       </c>
       <c r="G20">
-        <v>92.75543745423045</v>
+        <v>80.81387500870498</v>
       </c>
       <c r="H20">
-        <v>23.30275674649651</v>
+        <v>26.33299476554636</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.804897306034665</v>
+        <v>10.42308526304005</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.750810077855382</v>
+        <v>8.241252426501926</v>
       </c>
       <c r="M20">
-        <v>46.37107014432487</v>
+        <v>37.47607367274522</v>
       </c>
       <c r="N20">
-        <v>19.78284757773656</v>
+        <v>18.14201745946287</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.94013026353695</v>
+        <v>11.23533819570551</v>
       </c>
       <c r="D21">
-        <v>6.650590634665578</v>
+        <v>5.271676687698619</v>
       </c>
       <c r="E21">
-        <v>5.907024694018275</v>
+        <v>11.08025450580174</v>
       </c>
       <c r="F21">
-        <v>62.53575712063001</v>
+        <v>59.00600317531441</v>
       </c>
       <c r="G21">
-        <v>99.48257216057453</v>
+        <v>81.79851802438559</v>
       </c>
       <c r="H21">
-        <v>24.85555439962614</v>
+        <v>26.42561951065306</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.608051189264861</v>
+        <v>10.36881710565005</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.862191617587541</v>
+        <v>8.257771754017295</v>
       </c>
       <c r="M21">
-        <v>49.50215656541694</v>
+        <v>38.33226410082345</v>
       </c>
       <c r="N21">
-        <v>20.57107949821677</v>
+        <v>18.39536503593339</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.055438882009868</v>
+        <v>11.21096823948929</v>
       </c>
       <c r="D22">
-        <v>6.914576498148333</v>
+        <v>5.343790095950204</v>
       </c>
       <c r="E22">
-        <v>5.840902186224196</v>
+        <v>11.05881363489448</v>
       </c>
       <c r="F22">
-        <v>65.30904919854582</v>
+        <v>59.28527639836285</v>
       </c>
       <c r="G22">
-        <v>103.9884574184028</v>
+        <v>82.46270239572611</v>
       </c>
       <c r="H22">
-        <v>25.96636241017966</v>
+        <v>26.49298327282628</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.478863167580037</v>
+        <v>10.33447679613764</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.937075393656874</v>
+        <v>8.268645285050718</v>
       </c>
       <c r="M22">
-        <v>51.50593252584268</v>
+        <v>38.88528515544169</v>
       </c>
       <c r="N22">
-        <v>21.0766666451525</v>
+        <v>18.56085512312184</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.992224737956763</v>
+        <v>11.22377282153694</v>
       </c>
       <c r="D23">
-        <v>6.773301399725081</v>
+        <v>5.305460541198664</v>
       </c>
       <c r="E23">
-        <v>5.876181249758853</v>
+        <v>11.07018446408394</v>
       </c>
       <c r="F23">
-        <v>63.82243793885662</v>
+        <v>59.13475107602687</v>
       </c>
       <c r="G23">
-        <v>101.57420881111</v>
+        <v>82.10637513168038</v>
       </c>
       <c r="H23">
-        <v>25.37103116796256</v>
+        <v>26.45640575360532</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.547887185933592</v>
+        <v>10.35270212599579</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.896882553386627</v>
+        <v>8.26283489991456</v>
       </c>
       <c r="M23">
-        <v>50.43983782403381</v>
+        <v>38.59077868988651</v>
       </c>
       <c r="N23">
-        <v>20.80771598867301</v>
+        <v>18.47255272967832</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.787069249509189</v>
+        <v>11.27669209101977</v>
       </c>
       <c r="D24">
-        <v>6.244278955390314</v>
+        <v>5.156854619930627</v>
       </c>
       <c r="E24">
-        <v>6.010283190859044</v>
+        <v>11.11484819862239</v>
       </c>
       <c r="F24">
-        <v>58.53125481437191</v>
+        <v>58.59720477532947</v>
       </c>
       <c r="G24">
-        <v>92.64753355985023</v>
+        <v>80.79814154377499</v>
       </c>
       <c r="H24">
-        <v>23.28055990819358</v>
+        <v>26.33159621309764</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.808110846073623</v>
+        <v>10.42399136182236</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.749018051939139</v>
+        <v>8.240983748947579</v>
       </c>
       <c r="M24">
-        <v>46.31906830519916</v>
+        <v>37.46198101668246</v>
       </c>
       <c r="N24">
-        <v>19.76980707521228</v>
+        <v>18.13787848324548</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.625495822866838</v>
+        <v>11.34312185314274</v>
       </c>
       <c r="D25">
-        <v>5.67464001904669</v>
+        <v>4.989538579549968</v>
       </c>
       <c r="E25">
-        <v>6.157250709091642</v>
+        <v>11.16646772301886</v>
       </c>
       <c r="F25">
-        <v>53.17627928373084</v>
+        <v>58.08805520604869</v>
       </c>
       <c r="G25">
-        <v>83.33127192776699</v>
+        <v>79.48061855062093</v>
       </c>
       <c r="H25">
-        <v>21.4008101464096</v>
+        <v>26.22629308591267</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.088757969632548</v>
+        <v>10.5057666880327</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.595778036004966</v>
+        <v>8.217753588981362</v>
       </c>
       <c r="M25">
-        <v>41.73796296220393</v>
+        <v>36.2217858231563</v>
       </c>
       <c r="N25">
-        <v>18.61153473730461</v>
+        <v>17.77802041980726</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>11.39997876197891</v>
+        <v>6.547086852017711</v>
       </c>
       <c r="D2">
-        <v>4.86064255170043</v>
+        <v>5.247781862253723</v>
       </c>
       <c r="E2">
-        <v>11.2074708779952</v>
+        <v>6.268504015303438</v>
       </c>
       <c r="F2">
-        <v>57.7746890519082</v>
+        <v>49.34943253530463</v>
       </c>
       <c r="G2">
-        <v>78.59567557695948</v>
+        <v>76.54412974243627</v>
       </c>
       <c r="H2">
-        <v>26.17387131447306</v>
+        <v>20.08584286127995</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.57022822086932</v>
+        <v>5.297565349512705</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.200946204045596</v>
+        <v>5.486209977272264</v>
       </c>
       <c r="M2">
-        <v>35.29548741705593</v>
+        <v>38.43547043154052</v>
       </c>
       <c r="N2">
-        <v>17.51568045241979</v>
+        <v>17.72912592504265</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.44342066004473</v>
+        <v>6.514823515210969</v>
       </c>
       <c r="D3">
-        <v>4.769923155248835</v>
+        <v>4.951127918626884</v>
       </c>
       <c r="E3">
-        <v>11.23714557018159</v>
+        <v>6.346220215413383</v>
       </c>
       <c r="F3">
-        <v>57.60087961874182</v>
+        <v>46.81050574920613</v>
       </c>
       <c r="G3">
-        <v>78.05104785854728</v>
+        <v>71.95888930341464</v>
       </c>
       <c r="H3">
-        <v>26.15390854441009</v>
+        <v>19.23035546328525</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.61659357856541</v>
+        <v>5.441369638455897</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.18974324514293</v>
+        <v>5.413281646037306</v>
       </c>
       <c r="M3">
-        <v>34.66295100685373</v>
+        <v>36.08241682494773</v>
       </c>
       <c r="N3">
-        <v>17.34036893700447</v>
+        <v>17.11534009566898</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.47250053978795</v>
+        <v>6.504032678956599</v>
       </c>
       <c r="D4">
-        <v>4.712631826147979</v>
+        <v>4.764734805561196</v>
       </c>
       <c r="E4">
-        <v>11.25630219689479</v>
+        <v>6.395199347379483</v>
       </c>
       <c r="F4">
-        <v>57.51319000802609</v>
+        <v>45.27581022503158</v>
       </c>
       <c r="G4">
-        <v>77.74437839097132</v>
+        <v>69.14627547739428</v>
       </c>
       <c r="H4">
-        <v>26.14928184959506</v>
+        <v>18.72126360804379</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.64639258030702</v>
+        <v>5.531069748626718</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.182957995688476</v>
+        <v>5.368988981671324</v>
       </c>
       <c r="M4">
-        <v>34.27342482090467</v>
+        <v>34.5803450716832</v>
       </c>
       <c r="N4">
-        <v>17.2342335993989</v>
+        <v>16.73182915534162</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.48495367632318</v>
+        <v>6.501728651647682</v>
       </c>
       <c r="D5">
-        <v>4.688897017897072</v>
+        <v>4.687645161827443</v>
       </c>
       <c r="E5">
-        <v>11.26434489990705</v>
+        <v>6.415491252711535</v>
       </c>
       <c r="F5">
-        <v>57.48223816858652</v>
+        <v>44.65637497607081</v>
       </c>
       <c r="G5">
-        <v>77.62645438356881</v>
+        <v>68.00068997868709</v>
       </c>
       <c r="H5">
-        <v>26.149307367341</v>
+        <v>18.5177445005063</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.65887171208725</v>
+        <v>5.568012853989054</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.180216628149397</v>
+        <v>5.351041559463695</v>
       </c>
       <c r="M5">
-        <v>34.11459003613805</v>
+        <v>33.95390240628669</v>
       </c>
       <c r="N5">
-        <v>17.19140454046106</v>
+        <v>16.57407166530471</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11.487057855494</v>
+        <v>6.501467635564764</v>
       </c>
       <c r="D6">
-        <v>4.684932776030601</v>
+        <v>4.674774558045111</v>
       </c>
       <c r="E6">
-        <v>11.26569467517481</v>
+        <v>6.418881212922568</v>
       </c>
       <c r="F6">
-        <v>57.47738727774685</v>
+        <v>44.55387891228249</v>
       </c>
       <c r="G6">
-        <v>77.60730059319953</v>
+        <v>67.81050650356892</v>
       </c>
       <c r="H6">
-        <v>26.14942676291883</v>
+        <v>18.48418556095916</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.66096417997059</v>
+        <v>5.574171772688161</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.179762861474764</v>
+        <v>5.348067064175701</v>
       </c>
       <c r="M6">
-        <v>34.0882151928612</v>
+        <v>33.84902101641538</v>
       </c>
       <c r="N6">
-        <v>17.18431954156186</v>
+        <v>16.54779334733746</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.47266604916223</v>
+        <v>6.503993351762204</v>
       </c>
       <c r="D7">
-        <v>4.712313286146421</v>
+        <v>4.763699805602163</v>
       </c>
       <c r="E7">
-        <v>11.25640970608278</v>
+        <v>6.395471645504354</v>
       </c>
       <c r="F7">
-        <v>57.51275322526883</v>
+        <v>45.26743215963594</v>
       </c>
       <c r="G7">
-        <v>77.7427594116474</v>
+        <v>69.13082319562335</v>
       </c>
       <c r="H7">
-        <v>26.14927446780713</v>
+        <v>18.71850305456174</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.64655951696297</v>
+        <v>5.531566352599543</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.182920928540293</v>
+        <v>5.368746546269652</v>
       </c>
       <c r="M7">
-        <v>34.27128287159784</v>
+        <v>34.57195449776098</v>
       </c>
       <c r="N7">
-        <v>17.23365422670986</v>
+        <v>16.72970727253047</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>11.41445672063245</v>
+        <v>6.533981378831919</v>
       </c>
       <c r="D8">
-        <v>4.829699075400315</v>
+        <v>5.14633075843985</v>
       </c>
       <c r="E8">
-        <v>11.21750887513623</v>
+        <v>6.29504860495561</v>
       </c>
       <c r="F8">
-        <v>57.71080998117041</v>
+        <v>48.46883843647585</v>
       </c>
       <c r="G8">
-        <v>78.40217955060686</v>
+        <v>74.96235567181114</v>
       </c>
       <c r="H8">
-        <v>26.16540016099187</v>
+        <v>19.7874148950042</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.58593960120637</v>
+        <v>5.346880747598809</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.197064147939084</v>
+        <v>5.460950220488274</v>
       </c>
       <c r="M8">
-        <v>35.07773876076436</v>
+        <v>37.63602398750729</v>
       </c>
       <c r="N8">
-        <v>17.45494633738203</v>
+        <v>17.51898258212651</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.31950443466837</v>
+        <v>6.672974469803558</v>
       </c>
       <c r="D9">
-        <v>5.046808912579527</v>
+        <v>5.867229145574697</v>
       </c>
       <c r="E9">
-        <v>11.14861655779205</v>
+        <v>6.107334565994442</v>
       </c>
       <c r="F9">
-        <v>58.25004535565651</v>
+        <v>54.95878671142287</v>
       </c>
       <c r="G9">
-        <v>79.91149431340851</v>
+        <v>86.45251976782245</v>
       </c>
       <c r="H9">
-        <v>26.25785369715861</v>
+        <v>22.02196718349799</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.47756389354351</v>
+        <v>4.994020980024053</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.22553290942818</v>
+        <v>5.646775662005302</v>
       </c>
       <c r="M9">
-        <v>36.64202859323315</v>
+        <v>43.25523481577809</v>
       </c>
       <c r="N9">
-        <v>17.89894323396332</v>
+        <v>19.00659436280975</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.26158841008832</v>
+        <v>6.837466617501613</v>
       </c>
       <c r="D10">
-        <v>5.197756875411887</v>
+        <v>6.387290624582621</v>
       </c>
       <c r="E10">
-        <v>11.10245612689682</v>
+        <v>5.973759292317377</v>
       </c>
       <c r="F10">
-        <v>58.73758999534569</v>
+        <v>59.91107665880367</v>
       </c>
       <c r="G10">
-        <v>81.14609457579155</v>
+        <v>95.0218462795242</v>
       </c>
       <c r="H10">
-        <v>26.36316261000065</v>
+        <v>23.77097272687224</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.40426041255933</v>
+        <v>4.737598293189238</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.24688815914738</v>
+        <v>5.788531827631043</v>
       </c>
       <c r="M10">
-        <v>37.77042243961448</v>
+        <v>47.45325746068892</v>
       </c>
       <c r="N10">
-        <v>18.22870289590215</v>
+        <v>20.05469610677974</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.23784456571821</v>
+        <v>6.929425650711911</v>
       </c>
       <c r="D11">
-        <v>5.264456272105621</v>
+        <v>6.624569148263509</v>
       </c>
       <c r="E11">
-        <v>11.082412752797</v>
+        <v>5.913587545175151</v>
       </c>
       <c r="F11">
-        <v>58.97897284796899</v>
+        <v>62.26350495251551</v>
       </c>
       <c r="G11">
-        <v>81.73349374357605</v>
+        <v>99.03973573321571</v>
       </c>
       <c r="H11">
-        <v>26.41921941788623</v>
+        <v>24.74645661462581</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.37226779066426</v>
+        <v>4.620829987810175</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.256696797461526</v>
+        <v>5.854863297984875</v>
       </c>
       <c r="M11">
-        <v>38.27714891856509</v>
+        <v>49.30191579032454</v>
       </c>
       <c r="N11">
-        <v>18.3789487527411</v>
+        <v>20.52055555753397</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.22923029795166</v>
+        <v>6.967077736438081</v>
       </c>
       <c r="D12">
-        <v>5.289422076694332</v>
+        <v>6.714844756374275</v>
       </c>
       <c r="E12">
-        <v>11.07495935983099</v>
+        <v>5.890852227398693</v>
       </c>
       <c r="F12">
-        <v>59.07316505824053</v>
+        <v>63.20892902460299</v>
       </c>
       <c r="G12">
-        <v>81.95948688135036</v>
+        <v>100.5771346131123</v>
       </c>
       <c r="H12">
-        <v>26.44161859917279</v>
+        <v>25.12526948260985</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.36034633533588</v>
+        <v>4.57652657084573</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.260424381034543</v>
+        <v>5.880329856416514</v>
       </c>
       <c r="M12">
-        <v>38.46792370261712</v>
+        <v>49.99450490974088</v>
       </c>
       <c r="N12">
-        <v>18.43583215150177</v>
+        <v>20.69532689424156</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.2310687222614</v>
+        <v>6.958836219663192</v>
       </c>
       <c r="D13">
-        <v>5.284058356643214</v>
+        <v>6.695377250359562</v>
       </c>
       <c r="E13">
-        <v>11.07655851829836</v>
+        <v>5.895747064073526</v>
       </c>
       <c r="F13">
-        <v>59.05275575471042</v>
+        <v>63.00483990841153</v>
       </c>
       <c r="G13">
-        <v>81.91065943182579</v>
+        <v>100.2453491148149</v>
       </c>
       <c r="H13">
-        <v>26.43674244788264</v>
+        <v>25.04350452800229</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.36290524867712</v>
+        <v>4.58607309620723</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.259620993401223</v>
+        <v>5.874828082606611</v>
       </c>
       <c r="M13">
-        <v>38.42688890094932</v>
+        <v>49.84565020344633</v>
       </c>
       <c r="N13">
-        <v>18.42358251808096</v>
+        <v>20.65776046838484</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.23712829279087</v>
+        <v>6.932464246969109</v>
       </c>
       <c r="D14">
-        <v>5.266516120658947</v>
+        <v>6.631985491422472</v>
       </c>
       <c r="E14">
-        <v>11.08179682442746</v>
+        <v>5.911716308033919</v>
       </c>
       <c r="F14">
-        <v>58.98666647129191</v>
+        <v>62.34107702975832</v>
       </c>
       <c r="G14">
-        <v>81.75201591079299</v>
+        <v>99.16592150063177</v>
       </c>
       <c r="H14">
-        <v>26.42103873804511</v>
+        <v>24.7775425339742</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.37128313493025</v>
+        <v>4.617187259207826</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.257003203644562</v>
+        <v>5.856950898661927</v>
       </c>
       <c r="M14">
-        <v>38.29286726274691</v>
+        <v>49.35903613032181</v>
       </c>
       <c r="N14">
-        <v>18.38362907112626</v>
+        <v>20.53496725132454</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.24088913588431</v>
+        <v>6.916691213184237</v>
       </c>
       <c r="D15">
-        <v>5.255732740250674</v>
+        <v>6.593222584748398</v>
       </c>
       <c r="E15">
-        <v>11.08502320456694</v>
+        <v>5.921503358610947</v>
       </c>
       <c r="F15">
-        <v>58.94654661421329</v>
+        <v>61.93582964965915</v>
       </c>
       <c r="G15">
-        <v>81.65530095854689</v>
+        <v>98.50662420527459</v>
       </c>
       <c r="H15">
-        <v>26.41157230928298</v>
+        <v>24.61513660231797</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.3764399910583</v>
+        <v>4.636232241034114</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.255401451620086</v>
+        <v>5.846048864826665</v>
       </c>
       <c r="M15">
-        <v>38.21062565202958</v>
+        <v>49.06004499952793</v>
       </c>
       <c r="N15">
-        <v>18.35915360497389</v>
+        <v>20.45953779256056</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.26319273095343</v>
+        <v>6.831831262509558</v>
       </c>
       <c r="D16">
-        <v>5.193357546711792</v>
+        <v>6.371823469558172</v>
       </c>
       <c r="E16">
-        <v>11.10378516502272</v>
+        <v>5.977700743043714</v>
       </c>
       <c r="F16">
-        <v>58.72220676694309</v>
+        <v>59.76125216563407</v>
       </c>
       <c r="G16">
-        <v>81.10821280136751</v>
+        <v>94.76448276544296</v>
       </c>
       <c r="H16">
-        <v>26.35966318756552</v>
+        <v>23.71761643541612</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.40637834093988</v>
+        <v>4.745221279105535</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.246249011936314</v>
+        <v>5.784240570172021</v>
       </c>
       <c r="M16">
-        <v>37.73715988871641</v>
+        <v>47.3313200774797</v>
       </c>
       <c r="N16">
-        <v>18.21888483188229</v>
+        <v>20.02402475761923</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.2775437799364</v>
+        <v>6.784398967890295</v>
       </c>
       <c r="D17">
-        <v>5.154581919214704</v>
+        <v>6.236382889362249</v>
       </c>
       <c r="E17">
-        <v>11.11553913547962</v>
+        <v>6.012304853876688</v>
       </c>
       <c r="F17">
-        <v>58.58957956133561</v>
+        <v>58.45543914620032</v>
       </c>
       <c r="G17">
-        <v>80.77909037068368</v>
+        <v>92.51680020411742</v>
       </c>
       <c r="H17">
-        <v>26.32990654085972</v>
+        <v>23.25367868649245</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.42509037490074</v>
+        <v>4.812005419617861</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.240658189717333</v>
+        <v>5.746847370021968</v>
       </c>
       <c r="M17">
-        <v>37.44489742381492</v>
+        <v>46.25600489083133</v>
       </c>
       <c r="N17">
-        <v>18.13286248312639</v>
+        <v>19.75399574847248</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.28604290947075</v>
+        <v>6.758704213335395</v>
       </c>
       <c r="D18">
-        <v>5.132094494124898</v>
+        <v>6.158522928117836</v>
       </c>
       <c r="E18">
-        <v>11.12238966557966</v>
+        <v>6.03226637788569</v>
       </c>
       <c r="F18">
-        <v>58.51514270000685</v>
+        <v>57.71001247467593</v>
       </c>
       <c r="G18">
-        <v>80.59222324505903</v>
+        <v>91.2298195535565</v>
       </c>
       <c r="H18">
-        <v>26.3135586699494</v>
+        <v>22.98975503410042</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.43598050973144</v>
+        <v>4.850411116833637</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.237451362828724</v>
+        <v>5.725507343747414</v>
       </c>
       <c r="M18">
-        <v>37.27618522286053</v>
+        <v>45.63167028739478</v>
       </c>
       <c r="N18">
-        <v>18.08340964445018</v>
+        <v>19.59765608489212</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.28896252671976</v>
+        <v>6.750266954272098</v>
       </c>
       <c r="D19">
-        <v>5.12444919540277</v>
+        <v>6.132159717046038</v>
       </c>
       <c r="E19">
-        <v>11.12472461085743</v>
+        <v>6.039035957250269</v>
       </c>
       <c r="F19">
-        <v>58.4902577335403</v>
+        <v>57.45852265145</v>
       </c>
       <c r="G19">
-        <v>80.52937590342208</v>
+        <v>90.79495125999674</v>
       </c>
       <c r="H19">
-        <v>26.30815534476821</v>
+        <v>22.90086988496659</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.43968965082616</v>
+        <v>4.863415422249718</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.23636711679883</v>
+        <v>5.71830862359865</v>
       </c>
       <c r="M19">
-        <v>37.21896246276008</v>
+        <v>45.41924314457425</v>
       </c>
       <c r="N19">
-        <v>18.06667144416553</v>
+        <v>19.54454844668962</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.27599073185885</v>
+        <v>6.789281537494703</v>
       </c>
       <c r="D20">
-        <v>5.158728834047294</v>
+        <v>6.250794394583647</v>
       </c>
       <c r="E20">
-        <v>11.11427860057273</v>
+        <v>6.008615400895705</v>
       </c>
       <c r="F20">
-        <v>58.60350703210248</v>
+        <v>58.59384394193476</v>
       </c>
       <c r="G20">
-        <v>80.81387500870498</v>
+        <v>92.75543745423046</v>
       </c>
       <c r="H20">
-        <v>26.33299476554636</v>
+        <v>23.30275674649652</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.42308526304005</v>
+        <v>4.804897306034627</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.241252426501926</v>
+        <v>5.750810077855313</v>
       </c>
       <c r="M20">
-        <v>37.47607367274522</v>
+        <v>46.37107014432488</v>
       </c>
       <c r="N20">
-        <v>18.14201745946287</v>
+        <v>19.78284757773651</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.23533819570551</v>
+        <v>6.940130263536881</v>
       </c>
       <c r="D21">
-        <v>5.271676687698619</v>
+        <v>6.650590634665515</v>
       </c>
       <c r="E21">
-        <v>11.08025450580174</v>
+        <v>5.907024694018173</v>
       </c>
       <c r="F21">
-        <v>59.00600317531441</v>
+        <v>62.53575712062991</v>
       </c>
       <c r="G21">
-        <v>81.79851802438559</v>
+        <v>99.48257216057431</v>
       </c>
       <c r="H21">
-        <v>26.42561951065306</v>
+        <v>24.85555439962608</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.36881710565005</v>
+        <v>4.608051189264827</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.257771754017295</v>
+        <v>5.862191617587537</v>
       </c>
       <c r="M21">
-        <v>38.33226410082345</v>
+        <v>49.50215656541688</v>
       </c>
       <c r="N21">
-        <v>18.39536503593339</v>
+        <v>20.57107949821678</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.21096823948929</v>
+        <v>7.055438882009865</v>
       </c>
       <c r="D22">
-        <v>5.343790095950204</v>
+        <v>6.914576498148181</v>
       </c>
       <c r="E22">
-        <v>11.05881363489448</v>
+        <v>5.840902186224231</v>
       </c>
       <c r="F22">
-        <v>59.28527639836285</v>
+        <v>65.30904919854574</v>
       </c>
       <c r="G22">
-        <v>82.46270239572611</v>
+        <v>103.9884574184027</v>
       </c>
       <c r="H22">
-        <v>26.49298327282628</v>
+        <v>25.96636241017961</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.33447679613764</v>
+        <v>4.478863167580158</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.268645285050718</v>
+        <v>5.937075393656901</v>
       </c>
       <c r="M22">
-        <v>38.88528515544169</v>
+        <v>51.50593252584261</v>
       </c>
       <c r="N22">
-        <v>18.56085512312184</v>
+        <v>21.07666664515249</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.22377282153694</v>
+        <v>6.992224737956733</v>
       </c>
       <c r="D23">
-        <v>5.305460541198664</v>
+        <v>6.773301399725202</v>
       </c>
       <c r="E23">
-        <v>11.07018446408394</v>
+        <v>5.876181249758856</v>
       </c>
       <c r="F23">
-        <v>59.13475107602687</v>
+        <v>63.82243793885644</v>
       </c>
       <c r="G23">
-        <v>82.10637513168038</v>
+        <v>101.5742088111097</v>
       </c>
       <c r="H23">
-        <v>26.45640575360532</v>
+        <v>25.37103116796249</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.35270212599579</v>
+        <v>4.547887185933589</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.26283489991456</v>
+        <v>5.896882553386599</v>
       </c>
       <c r="M23">
-        <v>38.59077868988651</v>
+        <v>50.43983782403374</v>
       </c>
       <c r="N23">
-        <v>18.47255272967832</v>
+        <v>20.80771598867304</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.27669209101977</v>
+        <v>6.787069249509238</v>
       </c>
       <c r="D24">
-        <v>5.156854619930627</v>
+        <v>6.244278955390248</v>
       </c>
       <c r="E24">
-        <v>11.11484819862239</v>
+        <v>6.010283190858978</v>
       </c>
       <c r="F24">
-        <v>58.59720477532947</v>
+        <v>58.53125481437197</v>
       </c>
       <c r="G24">
-        <v>80.79814154377499</v>
+        <v>92.64753355985034</v>
       </c>
       <c r="H24">
-        <v>26.33159621309764</v>
+        <v>23.28055990819362</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.42399136182236</v>
+        <v>4.808110846073689</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.240983748947579</v>
+        <v>5.749018051939052</v>
       </c>
       <c r="M24">
-        <v>37.46198101668246</v>
+        <v>46.31906830519918</v>
       </c>
       <c r="N24">
-        <v>18.13787848324548</v>
+        <v>19.76980707521229</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.34312185314274</v>
+        <v>6.625495822866917</v>
       </c>
       <c r="D25">
-        <v>4.989538579549968</v>
+        <v>5.674640019046639</v>
       </c>
       <c r="E25">
-        <v>11.16646772301886</v>
+        <v>6.157250709091441</v>
       </c>
       <c r="F25">
-        <v>58.08805520604869</v>
+        <v>53.1762792837308</v>
       </c>
       <c r="G25">
-        <v>79.48061855062093</v>
+        <v>83.33127192776691</v>
       </c>
       <c r="H25">
-        <v>26.22629308591267</v>
+        <v>21.40081014640957</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.5057666880327</v>
+        <v>5.088757969632518</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.217753588981362</v>
+        <v>5.595778036004871</v>
       </c>
       <c r="M25">
-        <v>36.2217858231563</v>
+        <v>41.73796296220389</v>
       </c>
       <c r="N25">
-        <v>17.77802041980726</v>
+        <v>18.61153473730459</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.547086852017711</v>
+        <v>7.899342307770834</v>
       </c>
       <c r="D2">
-        <v>5.247781862253723</v>
+        <v>5.041678752247362</v>
       </c>
       <c r="E2">
-        <v>6.268504015303438</v>
+        <v>8.108201518943913</v>
       </c>
       <c r="F2">
-        <v>49.34943253530463</v>
+        <v>25.99236764877838</v>
       </c>
       <c r="G2">
-        <v>76.54412974243627</v>
+        <v>33.77753649865095</v>
       </c>
       <c r="H2">
-        <v>20.08584286127995</v>
+        <v>1.657919808419958</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.09872144416053</v>
       </c>
       <c r="J2">
-        <v>5.297565349512705</v>
+        <v>10.83816512603964</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.740778679309</v>
       </c>
       <c r="L2">
-        <v>5.486209977272264</v>
+        <v>6.176868391511909</v>
       </c>
       <c r="M2">
-        <v>38.43547043154052</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>17.72912592504265</v>
+        <v>5.556287784677029</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>28.02207239289902</v>
+      </c>
+      <c r="P2">
+        <v>19.966435316422</v>
+      </c>
+      <c r="Q2">
+        <v>19.39648608944664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.514823515210969</v>
+        <v>7.754602427417454</v>
       </c>
       <c r="D3">
-        <v>4.951127918626884</v>
+        <v>5.03687233895756</v>
       </c>
       <c r="E3">
-        <v>6.346220215413383</v>
+        <v>8.088369428527622</v>
       </c>
       <c r="F3">
-        <v>46.81050574920613</v>
+        <v>25.11693025802667</v>
       </c>
       <c r="G3">
-        <v>71.95888930341464</v>
+        <v>32.21210249540478</v>
       </c>
       <c r="H3">
-        <v>19.23035546328525</v>
+        <v>1.697381951118154</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.902332695903307</v>
       </c>
       <c r="J3">
-        <v>5.441369638455897</v>
+        <v>10.61736581609439</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.16688198171352</v>
       </c>
       <c r="L3">
-        <v>5.413281646037306</v>
+        <v>6.158149399347298</v>
       </c>
       <c r="M3">
-        <v>36.08241682494773</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>17.11534009566898</v>
+        <v>5.579940917130567</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>26.33888713567125</v>
+      </c>
+      <c r="P3">
+        <v>19.11046922104991</v>
+      </c>
+      <c r="Q3">
+        <v>18.77540219184574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.504032678956599</v>
+        <v>7.661554512267259</v>
       </c>
       <c r="D4">
-        <v>4.764734805561196</v>
+        <v>5.035190415179793</v>
       </c>
       <c r="E4">
-        <v>6.395199347379483</v>
+        <v>8.075702589541113</v>
       </c>
       <c r="F4">
-        <v>45.27581022503158</v>
+        <v>24.57046170187651</v>
       </c>
       <c r="G4">
-        <v>69.14627547739428</v>
+        <v>31.21919532837464</v>
       </c>
       <c r="H4">
-        <v>18.72126360804379</v>
+        <v>1.847878185759654</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.777546212785613</v>
       </c>
       <c r="J4">
-        <v>5.531069748626718</v>
+        <v>10.48193103259615</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.80820962299582</v>
       </c>
       <c r="L4">
-        <v>5.368988981671324</v>
+        <v>6.145884624230541</v>
       </c>
       <c r="M4">
-        <v>34.5803450716832</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>16.73182915534162</v>
+        <v>5.594749611685175</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>25.24290429851138</v>
+      </c>
+      <c r="P4">
+        <v>18.56699808101038</v>
+      </c>
+      <c r="Q4">
+        <v>18.38809389711464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.501728651647682</v>
+        <v>7.617887609994139</v>
       </c>
       <c r="D5">
-        <v>4.687645161827443</v>
+        <v>5.035055465890838</v>
       </c>
       <c r="E5">
-        <v>6.415491252711535</v>
+        <v>8.069960285228161</v>
       </c>
       <c r="F5">
-        <v>44.65637497607081</v>
+        <v>24.33793758066534</v>
       </c>
       <c r="G5">
-        <v>68.00068997868709</v>
+        <v>30.79292636859922</v>
       </c>
       <c r="H5">
-        <v>18.5177445005063</v>
+        <v>1.911026085970171</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.725972556119058</v>
       </c>
       <c r="J5">
-        <v>5.568012853989054</v>
+        <v>10.42425194722026</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.6524191419592</v>
       </c>
       <c r="L5">
-        <v>5.351041559463695</v>
+        <v>6.140470351570938</v>
       </c>
       <c r="M5">
-        <v>33.95390240628669</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>16.57407166530471</v>
+        <v>5.600896847743946</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>24.77591321592117</v>
+      </c>
+      <c r="P5">
+        <v>18.34227728436211</v>
+      </c>
+      <c r="Q5">
+        <v>18.22270694507262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.501467635564764</v>
+        <v>7.604839958132291</v>
       </c>
       <c r="D6">
-        <v>4.674774558045111</v>
+        <v>5.035345608021768</v>
       </c>
       <c r="E6">
-        <v>6.418881212922568</v>
+        <v>8.06845203824971</v>
       </c>
       <c r="F6">
-        <v>44.55387891228249</v>
+        <v>24.28957890047365</v>
       </c>
       <c r="G6">
-        <v>67.81050650356892</v>
+        <v>30.70436659158676</v>
       </c>
       <c r="H6">
-        <v>18.48418556095916</v>
+        <v>1.922184815788125</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.717970031648419</v>
       </c>
       <c r="J6">
-        <v>5.574171772688161</v>
+        <v>10.41152820026613</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.61641004173775</v>
       </c>
       <c r="L6">
-        <v>5.348067064175701</v>
+        <v>6.139293311437323</v>
       </c>
       <c r="M6">
-        <v>33.84902101641538</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>16.54779334733746</v>
+        <v>5.601975919669107</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>24.6916022081203</v>
+      </c>
+      <c r="P6">
+        <v>18.30589784270434</v>
+      </c>
+      <c r="Q6">
+        <v>18.18751069159812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.503993351762204</v>
+        <v>7.645370778712524</v>
       </c>
       <c r="D7">
-        <v>4.763699805602163</v>
+        <v>5.035991600044738</v>
       </c>
       <c r="E7">
-        <v>6.395471645504354</v>
+        <v>8.074150188146334</v>
       </c>
       <c r="F7">
-        <v>45.26743215963594</v>
+        <v>24.54128712885703</v>
       </c>
       <c r="G7">
-        <v>69.13082319562335</v>
+        <v>31.16684141237859</v>
       </c>
       <c r="H7">
-        <v>18.71850305456174</v>
+        <v>1.850321628257638</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.778172566882138</v>
       </c>
       <c r="J7">
-        <v>5.531566352599543</v>
+        <v>10.4725934379213</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.77887848694182</v>
       </c>
       <c r="L7">
-        <v>5.368746546269652</v>
+        <v>6.14510040417706</v>
       </c>
       <c r="M7">
-        <v>34.57195449776098</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>16.72970727253047</v>
+        <v>5.594964715748799</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>25.22110644617216</v>
+      </c>
+      <c r="P7">
+        <v>18.5671729807572</v>
+      </c>
+      <c r="Q7">
+        <v>18.36515115930726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.533981378831919</v>
+        <v>7.830085274046669</v>
       </c>
       <c r="D8">
-        <v>5.14633075843985</v>
+        <v>5.040825230178654</v>
       </c>
       <c r="E8">
-        <v>6.29504860495561</v>
+        <v>8.099576601657269</v>
       </c>
       <c r="F8">
-        <v>48.46883843647585</v>
+        <v>25.65938141666024</v>
       </c>
       <c r="G8">
-        <v>74.96235567181114</v>
+        <v>33.18620201429798</v>
       </c>
       <c r="H8">
-        <v>19.7874148950042</v>
+        <v>1.577383283468934</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.032970703249987</v>
       </c>
       <c r="J8">
-        <v>5.346880747598809</v>
+        <v>10.7509661248685</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.50942523225044</v>
       </c>
       <c r="L8">
-        <v>5.460950220488274</v>
+        <v>6.169689317555138</v>
       </c>
       <c r="M8">
-        <v>37.63602398750729</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>17.51898258212651</v>
+        <v>5.564518760820046</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>27.43564665515182</v>
+      </c>
+      <c r="P8">
+        <v>19.67922162868232</v>
+      </c>
+      <c r="Q8">
+        <v>19.15725907256285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.672974469803558</v>
+        <v>8.186046428474281</v>
       </c>
       <c r="D9">
-        <v>5.867229145574697</v>
+        <v>5.059299274655682</v>
       </c>
       <c r="E9">
-        <v>6.107334565994442</v>
+        <v>8.14852343405585</v>
       </c>
       <c r="F9">
-        <v>54.95878671142287</v>
+        <v>27.81354822276182</v>
       </c>
       <c r="G9">
-        <v>86.45251976782245</v>
+        <v>36.9533926165331</v>
       </c>
       <c r="H9">
-        <v>22.02196718349799</v>
+        <v>2.127823159614401</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.49906579740369</v>
       </c>
       <c r="J9">
-        <v>4.994020980024053</v>
+        <v>11.31048746050998</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20.93147836711881</v>
       </c>
       <c r="L9">
-        <v>5.646775662005302</v>
+        <v>6.213147762654194</v>
       </c>
       <c r="M9">
-        <v>43.25523481577809</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>19.00659436280975</v>
+        <v>5.506939700076662</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>31.30405173768122</v>
+      </c>
+      <c r="P9">
+        <v>21.70188607513392</v>
+      </c>
+      <c r="Q9">
+        <v>20.69037406076105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.837466617501613</v>
+        <v>8.38996778029486</v>
       </c>
       <c r="D10">
-        <v>6.387290624582621</v>
+        <v>5.061778587720461</v>
       </c>
       <c r="E10">
-        <v>5.973759292317377</v>
+        <v>8.156751732916963</v>
       </c>
       <c r="F10">
-        <v>59.91107665880367</v>
+        <v>29.19117384813481</v>
       </c>
       <c r="G10">
-        <v>95.0218462795242</v>
+        <v>39.3451536724701</v>
       </c>
       <c r="H10">
-        <v>23.77097272687224</v>
+        <v>2.499355955608555</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.816861565245475</v>
       </c>
       <c r="J10">
-        <v>4.737598293189238</v>
+        <v>11.67884918660398</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.83338460884749</v>
       </c>
       <c r="L10">
-        <v>5.788531827631043</v>
+        <v>6.236634403120293</v>
       </c>
       <c r="M10">
-        <v>47.45325746068892</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>20.05469610677974</v>
+        <v>5.465214986680221</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>33.73631776248427</v>
+      </c>
+      <c r="P10">
+        <v>23.10631533519974</v>
+      </c>
+      <c r="Q10">
+        <v>21.68313489416521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.929425650711911</v>
+        <v>8.210390731517029</v>
       </c>
       <c r="D11">
-        <v>6.624569148263509</v>
+        <v>4.912665902639709</v>
       </c>
       <c r="E11">
-        <v>5.913587545175151</v>
+        <v>8.008937164794986</v>
       </c>
       <c r="F11">
-        <v>62.26350495251551</v>
+        <v>28.6458742879944</v>
       </c>
       <c r="G11">
-        <v>99.03973573321571</v>
+        <v>38.85035868660689</v>
       </c>
       <c r="H11">
-        <v>24.74645661462581</v>
+        <v>3.275073152474845</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.907790690402587</v>
       </c>
       <c r="J11">
-        <v>4.620829987810175</v>
+        <v>11.52726792354863</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>21.43998223112474</v>
       </c>
       <c r="L11">
-        <v>5.854863297984875</v>
+        <v>6.242553050627956</v>
       </c>
       <c r="M11">
-        <v>49.30191579032454</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>20.52055555753397</v>
+        <v>5.487074783571228</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>33.92865795305941</v>
+      </c>
+      <c r="P11">
+        <v>23.91347057862622</v>
+      </c>
+      <c r="Q11">
+        <v>21.39453878593608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.967077736438081</v>
+        <v>8.050074233383684</v>
       </c>
       <c r="D12">
-        <v>6.714844756374275</v>
+        <v>4.793636773663392</v>
       </c>
       <c r="E12">
-        <v>5.890852227398693</v>
+        <v>7.984763021076749</v>
       </c>
       <c r="F12">
-        <v>63.20892902460299</v>
+        <v>27.91469297919522</v>
       </c>
       <c r="G12">
-        <v>100.5771346131123</v>
+        <v>37.97655602451219</v>
       </c>
       <c r="H12">
-        <v>25.12526948260985</v>
+        <v>4.435709235274876</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.920382620831826</v>
       </c>
       <c r="J12">
-        <v>4.57652657084573</v>
+        <v>11.32787628871742</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.94516977330045</v>
       </c>
       <c r="L12">
-        <v>5.880329856416514</v>
+        <v>6.293822547523136</v>
       </c>
       <c r="M12">
-        <v>49.99450490974088</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>20.69532689424156</v>
+        <v>5.581224635535449</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>33.60369480280395</v>
+      </c>
+      <c r="P12">
+        <v>24.30438713185913</v>
+      </c>
+      <c r="Q12">
+        <v>20.95972613433286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.958836219663192</v>
+        <v>7.87233063976389</v>
       </c>
       <c r="D13">
-        <v>6.695377250359562</v>
+        <v>4.692869165315578</v>
       </c>
       <c r="E13">
-        <v>5.895747064073526</v>
+        <v>8.050250593652084</v>
       </c>
       <c r="F13">
-        <v>63.00483990841153</v>
+        <v>26.94431906016138</v>
       </c>
       <c r="G13">
-        <v>100.2453491148149</v>
+        <v>36.67201386913015</v>
       </c>
       <c r="H13">
-        <v>25.04350452800229</v>
+        <v>5.692579017352291</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.874917432859916</v>
       </c>
       <c r="J13">
-        <v>4.58607309620723</v>
+        <v>11.06422158899333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.29558467480055</v>
       </c>
       <c r="L13">
-        <v>5.874828082606611</v>
+        <v>6.378835403345313</v>
       </c>
       <c r="M13">
-        <v>49.84565020344633</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>20.65776046838484</v>
+        <v>5.730040387654383</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>32.83385708731534</v>
+      </c>
+      <c r="P13">
+        <v>24.41131600886531</v>
+      </c>
+      <c r="Q13">
+        <v>20.34788995028748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.932464246969109</v>
+        <v>7.739141240533025</v>
       </c>
       <c r="D14">
-        <v>6.631985491422472</v>
+        <v>4.633144544929494</v>
       </c>
       <c r="E14">
-        <v>5.911716308033919</v>
+        <v>8.147370075909452</v>
       </c>
       <c r="F14">
-        <v>62.34107702975832</v>
+        <v>26.14157980972893</v>
       </c>
       <c r="G14">
-        <v>99.16592150063177</v>
+        <v>35.53621126498096</v>
       </c>
       <c r="H14">
-        <v>24.7775425339742</v>
+        <v>6.606629669089211</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.817429873085453</v>
       </c>
       <c r="J14">
-        <v>4.617187259207826</v>
+        <v>10.84696770862034</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>19.75917800057342</v>
       </c>
       <c r="L14">
-        <v>5.856950898661927</v>
+        <v>6.458127669797853</v>
       </c>
       <c r="M14">
-        <v>49.35903613032181</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>20.53496725132454</v>
+        <v>5.862235174990516</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>32.0782521432188</v>
+      </c>
+      <c r="P14">
+        <v>24.35959078652954</v>
+      </c>
+      <c r="Q14">
+        <v>19.82883457620142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.916691213184237</v>
+        <v>7.698102955220929</v>
       </c>
       <c r="D15">
-        <v>6.593222584748398</v>
+        <v>4.621609401234102</v>
       </c>
       <c r="E15">
-        <v>5.921503358610947</v>
+        <v>8.176227091802742</v>
       </c>
       <c r="F15">
-        <v>61.93582964965915</v>
+        <v>25.88697945038006</v>
       </c>
       <c r="G15">
-        <v>98.50662420527459</v>
+        <v>35.15100374180096</v>
       </c>
       <c r="H15">
-        <v>24.61513660231797</v>
+        <v>6.814061029675905</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.791190088036923</v>
       </c>
       <c r="J15">
-        <v>4.636232241034114</v>
+        <v>10.77801599629775</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>19.58697642189467</v>
       </c>
       <c r="L15">
-        <v>5.846048864826665</v>
+        <v>6.478008897718849</v>
       </c>
       <c r="M15">
-        <v>49.06004499952793</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>20.45953779256056</v>
+        <v>5.895364505500857</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>31.79214522587487</v>
+      </c>
+      <c r="P15">
+        <v>24.28692470028119</v>
+      </c>
+      <c r="Q15">
+        <v>19.65810569337632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.831831262509558</v>
+        <v>7.638506585079058</v>
       </c>
       <c r="D16">
-        <v>6.371823469558172</v>
+        <v>4.642115452748327</v>
       </c>
       <c r="E16">
-        <v>5.977700743043714</v>
+        <v>8.153867610630879</v>
       </c>
       <c r="F16">
-        <v>59.76125216563407</v>
+        <v>25.44136095253038</v>
       </c>
       <c r="G16">
-        <v>94.76448276544296</v>
+        <v>34.30396378588312</v>
       </c>
       <c r="H16">
-        <v>23.71761643541612</v>
+        <v>6.536714400945416</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.666209923604124</v>
       </c>
       <c r="J16">
-        <v>4.745221279105535</v>
+        <v>10.66187303593696</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.29652584202429</v>
       </c>
       <c r="L16">
-        <v>5.784240570172021</v>
+        <v>6.446319755534649</v>
       </c>
       <c r="M16">
-        <v>47.3313200774797</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>20.02402475761923</v>
+        <v>5.873820731375021</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>30.887176745725</v>
+      </c>
+      <c r="P16">
+        <v>23.69225044072075</v>
+      </c>
+      <c r="Q16">
+        <v>19.32270835917684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.784398967890295</v>
+        <v>7.661474425539662</v>
       </c>
       <c r="D17">
-        <v>6.236382889362249</v>
+        <v>4.688415890704486</v>
       </c>
       <c r="E17">
-        <v>6.012304853876688</v>
+        <v>8.0774942154125</v>
       </c>
       <c r="F17">
-        <v>58.45543914620032</v>
+        <v>25.53802689342443</v>
       </c>
       <c r="G17">
-        <v>92.51680020411742</v>
+        <v>34.27683983933228</v>
       </c>
       <c r="H17">
-        <v>23.25367868649245</v>
+        <v>5.788022840821491</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.600725120292933</v>
       </c>
       <c r="J17">
-        <v>4.812005419617861</v>
+        <v>10.69053083749349</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.36493931013887</v>
       </c>
       <c r="L17">
-        <v>5.746847370021968</v>
+        <v>6.37641191138138</v>
       </c>
       <c r="M17">
-        <v>46.25600489083133</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>19.75399574847248</v>
+        <v>5.783911570027524</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>30.6006036455794</v>
+      </c>
+      <c r="P17">
+        <v>23.25693429675336</v>
+      </c>
+      <c r="Q17">
+        <v>19.34844524829249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.758704213335395</v>
+        <v>7.774792569684366</v>
       </c>
       <c r="D18">
-        <v>6.158522928117836</v>
+        <v>4.76744575007869</v>
       </c>
       <c r="E18">
-        <v>6.03226637788569</v>
+        <v>7.993280241850758</v>
       </c>
       <c r="F18">
-        <v>57.71001247467593</v>
+        <v>26.12793992857674</v>
       </c>
       <c r="G18">
-        <v>91.2298195535565</v>
+        <v>34.98747692476212</v>
       </c>
       <c r="H18">
-        <v>22.98975503410042</v>
+        <v>4.588928545263265</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.579313530504143</v>
       </c>
       <c r="J18">
-        <v>4.850411116833637</v>
+        <v>10.85148017161853</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.76809421532774</v>
       </c>
       <c r="L18">
-        <v>5.725507343747414</v>
+        <v>6.287668195185062</v>
       </c>
       <c r="M18">
-        <v>45.63167028739478</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>19.59765608489212</v>
+        <v>5.654498845024843</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>30.83660555270897</v>
+      </c>
+      <c r="P18">
+        <v>22.9134110776174</v>
+      </c>
+      <c r="Q18">
+        <v>19.70085659207374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.750266954272098</v>
+        <v>7.944047242747067</v>
       </c>
       <c r="D19">
-        <v>6.132159717046038</v>
+        <v>4.876678381786575</v>
       </c>
       <c r="E19">
-        <v>6.039035957250269</v>
+        <v>7.980207305942254</v>
       </c>
       <c r="F19">
-        <v>57.45852265145</v>
+        <v>27.016530570656</v>
       </c>
       <c r="G19">
-        <v>90.79495125999674</v>
+        <v>36.14740506302248</v>
       </c>
       <c r="H19">
-        <v>22.90086988496659</v>
+        <v>3.273586264592669</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.602187226462634</v>
       </c>
       <c r="J19">
-        <v>4.863415422249718</v>
+        <v>11.08936484184815</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.3592146135703</v>
       </c>
       <c r="L19">
-        <v>5.71830862359865</v>
+        <v>6.224991791593447</v>
       </c>
       <c r="M19">
-        <v>45.41924314457425</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>19.54454844668962</v>
+        <v>5.540647265437312</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>31.44421443748029</v>
+      </c>
+      <c r="P19">
+        <v>22.67860386498514</v>
+      </c>
+      <c r="Q19">
+        <v>20.24802696340908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.789281537494703</v>
+        <v>8.292214782705082</v>
       </c>
       <c r="D20">
-        <v>6.250794394583647</v>
+        <v>5.062400463081939</v>
       </c>
       <c r="E20">
-        <v>6.008615400895705</v>
+        <v>8.149437440758204</v>
       </c>
       <c r="F20">
-        <v>58.59384394193476</v>
+        <v>28.75735468896062</v>
       </c>
       <c r="G20">
-        <v>92.75543745423046</v>
+        <v>38.60105352157737</v>
       </c>
       <c r="H20">
-        <v>23.30275674649652</v>
+        <v>2.397316286894613</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.738556388716301</v>
       </c>
       <c r="J20">
-        <v>4.804897306034627</v>
+        <v>11.55643405847254</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.52042975339771</v>
       </c>
       <c r="L20">
-        <v>5.750810077855313</v>
+        <v>6.228675803542896</v>
       </c>
       <c r="M20">
-        <v>46.37107014432488</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>19.78284757773651</v>
+        <v>5.47591507274487</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>33.07520173679713</v>
+      </c>
+      <c r="P20">
+        <v>22.75474858457983</v>
+      </c>
+      <c r="Q20">
+        <v>21.36532688879765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.940130263536881</v>
+        <v>8.498577206647342</v>
       </c>
       <c r="D21">
-        <v>6.650590634665515</v>
+        <v>5.094582045213544</v>
       </c>
       <c r="E21">
-        <v>5.907024694018173</v>
+        <v>8.196186847661725</v>
       </c>
       <c r="F21">
-        <v>62.53575712062991</v>
+        <v>30.0100381704325</v>
       </c>
       <c r="G21">
-        <v>99.48257216057431</v>
+        <v>40.67307192924752</v>
       </c>
       <c r="H21">
-        <v>24.85555439962608</v>
+        <v>2.69212506643229</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.985472505419247</v>
       </c>
       <c r="J21">
-        <v>4.608051189264827</v>
+        <v>11.89741640224043</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.35066575981571</v>
       </c>
       <c r="L21">
-        <v>5.862191617587537</v>
+        <v>6.253654891547993</v>
       </c>
       <c r="M21">
-        <v>49.50215656541688</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>20.57107949821678</v>
+        <v>5.446048970469982</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>35.00509608494873</v>
+      </c>
+      <c r="P21">
+        <v>23.76032546574621</v>
+      </c>
+      <c r="Q21">
+        <v>22.25091175931627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.055438882009865</v>
+        <v>8.632442588154927</v>
       </c>
       <c r="D22">
-        <v>6.914576498148181</v>
+        <v>5.106556771768158</v>
       </c>
       <c r="E22">
-        <v>5.840902186224231</v>
+        <v>8.215273468103183</v>
       </c>
       <c r="F22">
-        <v>65.30904919854574</v>
+        <v>30.77483329916408</v>
       </c>
       <c r="G22">
-        <v>103.9884574184027</v>
+        <v>41.94722725298031</v>
       </c>
       <c r="H22">
-        <v>25.96636241017961</v>
+        <v>2.877168543605813</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.139018981359447</v>
       </c>
       <c r="J22">
-        <v>4.478863167580158</v>
+        <v>12.11056042006809</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>22.86801549677969</v>
       </c>
       <c r="L22">
-        <v>5.937075393656901</v>
+        <v>6.267712762415761</v>
       </c>
       <c r="M22">
-        <v>51.50593252584261</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>21.07666664515249</v>
+        <v>5.425984301744381</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>36.17464576062702</v>
+      </c>
+      <c r="P22">
+        <v>24.40409923746762</v>
+      </c>
+      <c r="Q22">
+        <v>22.79998031583968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.992224737956733</v>
+        <v>8.577778590044106</v>
       </c>
       <c r="D23">
-        <v>6.773301399725202</v>
+        <v>5.09905703094616</v>
       </c>
       <c r="E23">
-        <v>5.876181249758856</v>
+        <v>8.206612372608364</v>
       </c>
       <c r="F23">
-        <v>63.82243793885644</v>
+        <v>30.39362169700139</v>
       </c>
       <c r="G23">
-        <v>101.5742088111097</v>
+        <v>41.31379871761454</v>
       </c>
       <c r="H23">
-        <v>25.37103116796249</v>
+        <v>2.780324037123536</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.055775551234111</v>
       </c>
       <c r="J23">
-        <v>4.547887185933589</v>
+        <v>12.00593141419274</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>22.62024751865315</v>
       </c>
       <c r="L23">
-        <v>5.896882553386599</v>
+        <v>6.260909275774713</v>
       </c>
       <c r="M23">
-        <v>50.43983782403374</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>20.80771598867304</v>
+        <v>5.436563509965258</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>35.56904669364346</v>
+      </c>
+      <c r="P23">
+        <v>24.05942454817544</v>
+      </c>
+      <c r="Q23">
+        <v>22.52840716781803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.787069249509238</v>
+        <v>8.337980470938573</v>
       </c>
       <c r="D24">
-        <v>6.244278955390248</v>
+        <v>5.075011567815271</v>
       </c>
       <c r="E24">
-        <v>6.010283190858978</v>
+        <v>8.171404140274873</v>
       </c>
       <c r="F24">
-        <v>58.53125481437197</v>
+        <v>28.88136688545565</v>
       </c>
       <c r="G24">
-        <v>92.64753355985034</v>
+        <v>38.7746048579021</v>
       </c>
       <c r="H24">
-        <v>23.28055990819362</v>
+        <v>2.403556960163409</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.736402889264779</v>
       </c>
       <c r="J24">
-        <v>4.808110846073689</v>
+        <v>11.59303237160022</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.62012877308193</v>
       </c>
       <c r="L24">
-        <v>5.749018051939052</v>
+        <v>6.233120451930577</v>
       </c>
       <c r="M24">
-        <v>46.31906830519918</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>19.76980707521229</v>
+        <v>5.47732988845144</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>33.14256414694292</v>
+      </c>
+      <c r="P24">
+        <v>22.71549734968577</v>
+      </c>
+      <c r="Q24">
+        <v>21.44830439489157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.625495822866917</v>
+        <v>8.066723982758479</v>
       </c>
       <c r="D25">
-        <v>5.674640019046639</v>
+        <v>5.054611001264756</v>
       </c>
       <c r="E25">
-        <v>6.157250709091441</v>
+        <v>8.133118899633111</v>
       </c>
       <c r="F25">
-        <v>53.1762792837308</v>
+        <v>27.19829292698921</v>
       </c>
       <c r="G25">
-        <v>83.33127192776691</v>
+        <v>35.89141052588277</v>
       </c>
       <c r="H25">
-        <v>21.40081014640957</v>
+        <v>1.980464259595527</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.378389373649841</v>
       </c>
       <c r="J25">
-        <v>5.088757969632518</v>
+        <v>11.14495175177785</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.50841354149176</v>
       </c>
       <c r="L25">
-        <v>5.595778036004871</v>
+        <v>6.200886391843386</v>
       </c>
       <c r="M25">
-        <v>41.73796296220389</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>18.61153473730459</v>
+        <v>5.522434275481961</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>30.28769025993858</v>
+      </c>
+      <c r="P25">
+        <v>21.17758695542077</v>
+      </c>
+      <c r="Q25">
+        <v>20.24838400085653</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.899342307770834</v>
+        <v>7.003692194351687</v>
       </c>
       <c r="D2">
-        <v>5.041678752247362</v>
+        <v>5.068029201125407</v>
       </c>
       <c r="E2">
-        <v>8.108201518943913</v>
+        <v>8.001263724951722</v>
       </c>
       <c r="F2">
-        <v>25.99236764877838</v>
+        <v>24.84981180936914</v>
       </c>
       <c r="G2">
-        <v>33.77753649865095</v>
+        <v>31.28401474261904</v>
       </c>
       <c r="H2">
-        <v>1.657919808419958</v>
+        <v>1.633503503320749</v>
       </c>
       <c r="I2">
-        <v>3.09872144416053</v>
+        <v>3.092603621848002</v>
       </c>
       <c r="J2">
-        <v>10.83816512603964</v>
+        <v>10.93986350660791</v>
       </c>
       <c r="K2">
-        <v>19.740778679309</v>
+        <v>18.48468444052073</v>
       </c>
       <c r="L2">
-        <v>6.176868391511909</v>
+        <v>15.71191350184105</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.96629780147275</v>
       </c>
       <c r="N2">
-        <v>5.556287784677029</v>
+        <v>6.119984734262221</v>
       </c>
       <c r="O2">
-        <v>28.02207239289902</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>19.966435316422</v>
+        <v>5.666242096908536</v>
       </c>
       <c r="Q2">
-        <v>19.39648608944664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>27.37528622275788</v>
+      </c>
+      <c r="R2">
+        <v>20.10037883847034</v>
+      </c>
+      <c r="S2">
+        <v>18.48940905530575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.754602427417454</v>
+        <v>6.89629075648804</v>
       </c>
       <c r="D3">
-        <v>5.03687233895756</v>
+        <v>5.06481888168628</v>
       </c>
       <c r="E3">
-        <v>8.088369428527622</v>
+        <v>7.99377273304244</v>
       </c>
       <c r="F3">
-        <v>25.11693025802667</v>
+        <v>24.09356489311282</v>
       </c>
       <c r="G3">
-        <v>32.21210249540478</v>
+        <v>29.91245058979358</v>
       </c>
       <c r="H3">
-        <v>1.697381951118154</v>
+        <v>1.700057343905522</v>
       </c>
       <c r="I3">
-        <v>2.902332695903307</v>
+        <v>2.923030478147222</v>
       </c>
       <c r="J3">
-        <v>10.61736581609439</v>
+        <v>10.73627273393496</v>
       </c>
       <c r="K3">
-        <v>19.16688198171352</v>
+        <v>18.03352742525857</v>
       </c>
       <c r="L3">
-        <v>6.158149399347298</v>
+        <v>15.57739507598693</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.38360295572177</v>
       </c>
       <c r="N3">
-        <v>5.579940917130567</v>
+        <v>6.103237221666886</v>
       </c>
       <c r="O3">
-        <v>26.33888713567125</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>19.11046922104991</v>
+        <v>5.702200172066791</v>
       </c>
       <c r="Q3">
-        <v>18.77540219184574</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>25.75434278617814</v>
+      </c>
+      <c r="R3">
+        <v>19.22613652720014</v>
+      </c>
+      <c r="S3">
+        <v>17.9620420903882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.661554512267259</v>
+        <v>6.827068107252257</v>
       </c>
       <c r="D4">
-        <v>5.035190415179793</v>
+        <v>5.064408938100954</v>
       </c>
       <c r="E4">
-        <v>8.075702589541113</v>
+        <v>7.988851015810294</v>
       </c>
       <c r="F4">
-        <v>24.57046170187651</v>
+        <v>23.62130606886959</v>
       </c>
       <c r="G4">
-        <v>31.21919532837464</v>
+        <v>29.04411150817144</v>
       </c>
       <c r="H4">
-        <v>1.847878185759654</v>
+        <v>1.836461093147755</v>
       </c>
       <c r="I4">
-        <v>2.777546212785613</v>
+        <v>2.81532668594829</v>
       </c>
       <c r="J4">
-        <v>10.48193103259615</v>
+        <v>10.60937342850422</v>
       </c>
       <c r="K4">
-        <v>18.80820962299582</v>
+        <v>17.75092675982771</v>
       </c>
       <c r="L4">
-        <v>6.145884624230541</v>
+        <v>15.48776779022898</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.03280573099942</v>
       </c>
       <c r="N4">
-        <v>5.594749611685175</v>
+        <v>6.092258516340339</v>
       </c>
       <c r="O4">
-        <v>25.24290429851138</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>18.56699808101038</v>
+        <v>5.725054446327188</v>
       </c>
       <c r="Q4">
-        <v>18.38809389711464</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>24.69838870645613</v>
+      </c>
+      <c r="R4">
+        <v>18.67082990107472</v>
+      </c>
+      <c r="S4">
+        <v>17.63286594269644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.617887609994139</v>
+        <v>6.795190699985554</v>
       </c>
       <c r="D5">
-        <v>5.035055465890838</v>
+        <v>5.064892295486424</v>
       </c>
       <c r="E5">
-        <v>8.069960285228161</v>
+        <v>7.986358152165976</v>
       </c>
       <c r="F5">
-        <v>24.33793758066534</v>
+        <v>23.41941019163982</v>
       </c>
       <c r="G5">
-        <v>30.79292636859922</v>
+        <v>28.67006579279195</v>
       </c>
       <c r="H5">
-        <v>1.911026085970171</v>
+        <v>1.893733724897377</v>
       </c>
       <c r="I5">
-        <v>2.725972556119058</v>
+        <v>2.771161666663291</v>
       </c>
       <c r="J5">
-        <v>10.42425194722026</v>
+        <v>10.55472924765989</v>
       </c>
       <c r="K5">
-        <v>18.6524191419592</v>
+        <v>17.62657235039409</v>
       </c>
       <c r="L5">
-        <v>6.140470351570938</v>
+        <v>15.44314990995714</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.88648968464322</v>
       </c>
       <c r="N5">
-        <v>5.600896847743946</v>
+        <v>6.087437380859587</v>
       </c>
       <c r="O5">
-        <v>24.77591321592117</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>18.34227728436211</v>
+        <v>5.734795787692057</v>
       </c>
       <c r="Q5">
-        <v>18.22270694507262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>24.24820675813762</v>
+      </c>
+      <c r="R5">
+        <v>18.44113018566183</v>
+      </c>
+      <c r="S5">
+        <v>17.49143464584565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.604839958132291</v>
+        <v>6.786422430272548</v>
       </c>
       <c r="D6">
-        <v>5.035345608021768</v>
+        <v>5.06532253040172</v>
       </c>
       <c r="E6">
-        <v>8.06845203824971</v>
+        <v>7.98545225596505</v>
       </c>
       <c r="F6">
-        <v>24.28957890047365</v>
+        <v>23.3763820247804</v>
       </c>
       <c r="G6">
-        <v>30.70436659158676</v>
+        <v>28.59043111062138</v>
       </c>
       <c r="H6">
-        <v>1.922184815788125</v>
+        <v>1.90386750554439</v>
       </c>
       <c r="I6">
-        <v>2.717970031648419</v>
+        <v>2.764790692940156</v>
       </c>
       <c r="J6">
-        <v>10.41152820026613</v>
+        <v>10.54257147523122</v>
       </c>
       <c r="K6">
-        <v>18.61641004173775</v>
+        <v>17.59618154999033</v>
       </c>
       <c r="L6">
-        <v>6.139293311437323</v>
+        <v>15.42792128593734</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.85529700203817</v>
       </c>
       <c r="N6">
-        <v>5.601975919669107</v>
+        <v>6.086420316297941</v>
       </c>
       <c r="O6">
-        <v>24.6916022081203</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>18.30589784270434</v>
+        <v>5.736717712347743</v>
       </c>
       <c r="Q6">
-        <v>18.18751069159812</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>24.16677797713036</v>
+      </c>
+      <c r="R6">
+        <v>18.40390277017971</v>
+      </c>
+      <c r="S6">
+        <v>17.4604264437048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.645370778712524</v>
+        <v>6.818228788987586</v>
       </c>
       <c r="D7">
-        <v>5.035991600044738</v>
+        <v>5.067016141146314</v>
       </c>
       <c r="E7">
-        <v>8.074150188146334</v>
+        <v>7.987715223262271</v>
       </c>
       <c r="F7">
-        <v>24.54128712885703</v>
+        <v>23.57891701762541</v>
       </c>
       <c r="G7">
-        <v>31.16684141237859</v>
+        <v>29.09313853947938</v>
       </c>
       <c r="H7">
-        <v>1.850321628257638</v>
+        <v>1.839363349926883</v>
       </c>
       <c r="I7">
-        <v>2.778172566882138</v>
+        <v>2.816461798721335</v>
       </c>
       <c r="J7">
-        <v>10.4725934379213</v>
+        <v>10.5484594151198</v>
       </c>
       <c r="K7">
-        <v>18.77887848694182</v>
+        <v>17.71361549388044</v>
       </c>
       <c r="L7">
-        <v>6.14510040417706</v>
+        <v>15.45905732509368</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.00441090152008</v>
       </c>
       <c r="N7">
-        <v>5.594964715748799</v>
+        <v>6.091465995952826</v>
       </c>
       <c r="O7">
-        <v>25.22110644617216</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>18.5671729807572</v>
+        <v>5.726002611718584</v>
       </c>
       <c r="Q7">
-        <v>18.36515115930726</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>24.66997155426307</v>
+      </c>
+      <c r="R7">
+        <v>18.67234017842377</v>
+      </c>
+      <c r="S7">
+        <v>17.59831434946916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.830085274046669</v>
+        <v>6.958488520367184</v>
       </c>
       <c r="D8">
-        <v>5.040825230178654</v>
+        <v>5.073529691084092</v>
       </c>
       <c r="E8">
-        <v>8.099576601657269</v>
+        <v>7.997862717205622</v>
       </c>
       <c r="F8">
-        <v>25.65938141666024</v>
+        <v>24.5128572910553</v>
       </c>
       <c r="G8">
-        <v>33.18620201429798</v>
+        <v>31.07448596837512</v>
       </c>
       <c r="H8">
-        <v>1.577383283468934</v>
+        <v>1.562603160994186</v>
       </c>
       <c r="I8">
-        <v>3.032970703249987</v>
+        <v>3.035372706147436</v>
       </c>
       <c r="J8">
-        <v>10.7509661248685</v>
+        <v>10.69163027755395</v>
       </c>
       <c r="K8">
-        <v>19.50942523225044</v>
+        <v>18.26639762998314</v>
       </c>
       <c r="L8">
-        <v>6.169689317555138</v>
+        <v>15.61816748039265</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.71516460373355</v>
       </c>
       <c r="N8">
-        <v>5.564518760820046</v>
+        <v>6.113149856118632</v>
       </c>
       <c r="O8">
-        <v>27.43564665515182</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>19.67922162868232</v>
+        <v>5.679646278490637</v>
       </c>
       <c r="Q8">
-        <v>19.15725907256285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>26.78857376802627</v>
+      </c>
+      <c r="R8">
+        <v>19.81152185089471</v>
+      </c>
+      <c r="S8">
+        <v>18.24300930441857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.186046428474281</v>
+        <v>7.220305430402838</v>
       </c>
       <c r="D9">
-        <v>5.059299274655682</v>
+        <v>5.091195919376062</v>
       </c>
       <c r="E9">
-        <v>8.14852343405585</v>
+        <v>8.016998688990961</v>
       </c>
       <c r="F9">
-        <v>27.81354822276182</v>
+        <v>26.36805926147274</v>
       </c>
       <c r="G9">
-        <v>36.9533926165331</v>
+        <v>34.44092370638275</v>
       </c>
       <c r="H9">
-        <v>2.127823159614401</v>
+        <v>2.055996357095387</v>
       </c>
       <c r="I9">
-        <v>3.49906579740369</v>
+        <v>3.436397711333389</v>
       </c>
       <c r="J9">
-        <v>11.31048746050998</v>
+        <v>11.15906080906526</v>
       </c>
       <c r="K9">
-        <v>20.93147836711881</v>
+        <v>19.38101878385868</v>
       </c>
       <c r="L9">
-        <v>6.213147762654194</v>
+        <v>15.93605028553624</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.20039722673866</v>
       </c>
       <c r="N9">
-        <v>5.506939700076662</v>
+        <v>6.151810441363207</v>
       </c>
       <c r="O9">
-        <v>31.30405173768122</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>21.70188607513392</v>
+        <v>5.593509166797752</v>
       </c>
       <c r="Q9">
-        <v>20.69037406076105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>30.50904201574036</v>
+      </c>
+      <c r="R9">
+        <v>21.87695085908941</v>
+      </c>
+      <c r="S9">
+        <v>19.53884788639096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.38996778029486</v>
+        <v>7.385255879348891</v>
       </c>
       <c r="D10">
-        <v>5.061778587720461</v>
+        <v>5.103330346775133</v>
       </c>
       <c r="E10">
-        <v>8.156751732916963</v>
+        <v>8.0099310403308</v>
       </c>
       <c r="F10">
-        <v>29.19117384813481</v>
+        <v>27.47406037876936</v>
       </c>
       <c r="G10">
-        <v>39.3451536724701</v>
+        <v>37.05745169893684</v>
       </c>
       <c r="H10">
-        <v>2.499355955608555</v>
+        <v>2.388399067141771</v>
       </c>
       <c r="I10">
-        <v>3.816861565245475</v>
+        <v>3.707862738806784</v>
       </c>
       <c r="J10">
-        <v>11.67884918660398</v>
+        <v>11.18399965048471</v>
       </c>
       <c r="K10">
-        <v>21.83338460884749</v>
+        <v>20.02809624295959</v>
       </c>
       <c r="L10">
-        <v>6.236634403120293</v>
+        <v>16.03890651191059</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.17195133061384</v>
       </c>
       <c r="N10">
-        <v>5.465214986680221</v>
+        <v>6.175133548528473</v>
       </c>
       <c r="O10">
-        <v>33.73631776248427</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>23.10631533519974</v>
+        <v>5.525563394863763</v>
       </c>
       <c r="Q10">
-        <v>21.68313489416521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>32.8153864615176</v>
+      </c>
+      <c r="R10">
+        <v>23.3153253751163</v>
+      </c>
+      <c r="S10">
+        <v>20.30860425713935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.210390731517029</v>
+        <v>7.349270645850487</v>
       </c>
       <c r="D11">
-        <v>4.912665902639709</v>
+        <v>4.960151093471299</v>
       </c>
       <c r="E11">
-        <v>8.008937164794986</v>
+        <v>7.89168466758712</v>
       </c>
       <c r="F11">
-        <v>28.6458742879944</v>
+        <v>26.77498269990482</v>
       </c>
       <c r="G11">
-        <v>38.85035868660689</v>
+        <v>37.60361830023038</v>
       </c>
       <c r="H11">
-        <v>3.275073152474845</v>
+        <v>3.179188474446768</v>
       </c>
       <c r="I11">
-        <v>3.907790690402587</v>
+        <v>3.783950595478665</v>
       </c>
       <c r="J11">
-        <v>11.52726792354863</v>
+        <v>10.47127217768878</v>
       </c>
       <c r="K11">
-        <v>21.43998223112474</v>
+        <v>19.53760446792409</v>
       </c>
       <c r="L11">
-        <v>6.242553050627956</v>
+        <v>15.52745688971802</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.98477680468472</v>
       </c>
       <c r="N11">
-        <v>5.487074783571228</v>
+        <v>6.212180194864877</v>
       </c>
       <c r="O11">
-        <v>33.92865795305941</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>23.91347057862622</v>
+        <v>5.462436314875441</v>
       </c>
       <c r="Q11">
-        <v>21.39453878593608</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>32.94067601147169</v>
+      </c>
+      <c r="R11">
+        <v>24.14034764782214</v>
+      </c>
+      <c r="S11">
+        <v>19.88274595695651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.050074233383684</v>
+        <v>7.30417711968446</v>
       </c>
       <c r="D12">
-        <v>4.793636773663392</v>
+        <v>4.834408508344663</v>
       </c>
       <c r="E12">
-        <v>7.984763021076749</v>
+        <v>7.891520478041983</v>
       </c>
       <c r="F12">
-        <v>27.91469297919522</v>
+        <v>26.01524591429879</v>
       </c>
       <c r="G12">
-        <v>37.97655602451219</v>
+        <v>37.27503323288725</v>
       </c>
       <c r="H12">
-        <v>4.435709235274876</v>
+        <v>4.364422928744657</v>
       </c>
       <c r="I12">
-        <v>3.920382620831826</v>
+        <v>3.79311731518973</v>
       </c>
       <c r="J12">
-        <v>11.32787628871742</v>
+        <v>10.04701438720431</v>
       </c>
       <c r="K12">
-        <v>20.94516977330045</v>
+        <v>19.04455222646368</v>
       </c>
       <c r="L12">
-        <v>6.293822547523136</v>
+        <v>15.12072561095375</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.66481157252753</v>
       </c>
       <c r="N12">
-        <v>5.581224635535449</v>
+        <v>6.288611824314255</v>
       </c>
       <c r="O12">
-        <v>33.60369480280395</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>24.30438713185913</v>
+        <v>5.490591018471943</v>
       </c>
       <c r="Q12">
-        <v>20.95972613433286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>32.60409190530971</v>
+      </c>
+      <c r="R12">
+        <v>24.53510109601686</v>
+      </c>
+      <c r="S12">
+        <v>19.41781132138417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.87233063976389</v>
+        <v>7.237833794447508</v>
       </c>
       <c r="D13">
-        <v>4.692869165315578</v>
+        <v>4.715492122508472</v>
       </c>
       <c r="E13">
-        <v>8.050250593652084</v>
+        <v>7.981560278065637</v>
       </c>
       <c r="F13">
-        <v>26.94431906016138</v>
+        <v>25.14342180594416</v>
       </c>
       <c r="G13">
-        <v>36.67201386913015</v>
+        <v>35.96713791306745</v>
       </c>
       <c r="H13">
-        <v>5.692579017352291</v>
+        <v>5.641626887755683</v>
       </c>
       <c r="I13">
-        <v>3.874917432859916</v>
+        <v>3.755338718933011</v>
       </c>
       <c r="J13">
-        <v>11.06422158899333</v>
+        <v>9.898099846709419</v>
       </c>
       <c r="K13">
-        <v>20.29558467480055</v>
+        <v>18.49612896922493</v>
       </c>
       <c r="L13">
-        <v>6.378835403345313</v>
+        <v>14.74894681065758</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.20496108657121</v>
       </c>
       <c r="N13">
-        <v>5.730040387654383</v>
+        <v>6.395498075545316</v>
       </c>
       <c r="O13">
-        <v>32.83385708731534</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>24.41131600886531</v>
+        <v>5.589933330900018</v>
       </c>
       <c r="Q13">
-        <v>20.34788995028748</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>31.87811338459337</v>
+      </c>
+      <c r="R13">
+        <v>24.63225512629085</v>
+      </c>
+      <c r="S13">
+        <v>18.88520067950425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.739141240533025</v>
+        <v>7.183777024726449</v>
       </c>
       <c r="D14">
-        <v>4.633144544929494</v>
+        <v>4.640015801938418</v>
       </c>
       <c r="E14">
-        <v>8.147370075909452</v>
+        <v>8.09756572736447</v>
       </c>
       <c r="F14">
-        <v>26.14157980972893</v>
+        <v>24.46660503893802</v>
       </c>
       <c r="G14">
-        <v>35.53621126498096</v>
+        <v>34.58908247998261</v>
       </c>
       <c r="H14">
-        <v>6.606629669089211</v>
+        <v>6.567227263656294</v>
       </c>
       <c r="I14">
-        <v>3.817429873085453</v>
+        <v>3.708530095681865</v>
       </c>
       <c r="J14">
-        <v>10.84696770862034</v>
+        <v>9.904907880118449</v>
       </c>
       <c r="K14">
-        <v>19.75917800057342</v>
+        <v>18.07535032955185</v>
       </c>
       <c r="L14">
-        <v>6.458127669797853</v>
+        <v>14.49484705342285</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.81009530473811</v>
       </c>
       <c r="N14">
-        <v>5.862235174990516</v>
+        <v>6.488158854322171</v>
       </c>
       <c r="O14">
-        <v>32.0782521432188</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>24.35959078652954</v>
+        <v>5.697435661371626</v>
       </c>
       <c r="Q14">
-        <v>19.82883457620142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>31.17833026749751</v>
+      </c>
+      <c r="R14">
+        <v>24.56753113247642</v>
+      </c>
+      <c r="S14">
+        <v>18.47044899145392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.698102955220929</v>
+        <v>7.164538185223759</v>
       </c>
       <c r="D15">
-        <v>4.621609401234102</v>
+        <v>4.623711246851153</v>
       </c>
       <c r="E15">
-        <v>8.176227091802742</v>
+        <v>8.132157960672245</v>
       </c>
       <c r="F15">
-        <v>25.88697945038006</v>
+        <v>24.26746486493373</v>
       </c>
       <c r="G15">
-        <v>35.15100374180096</v>
+        <v>34.04274658938108</v>
       </c>
       <c r="H15">
-        <v>6.814061029675905</v>
+        <v>6.777840441056723</v>
       </c>
       <c r="I15">
-        <v>3.791190088036923</v>
+        <v>3.687770331279016</v>
       </c>
       <c r="J15">
-        <v>10.77801599629775</v>
+        <v>9.952212647160614</v>
       </c>
       <c r="K15">
-        <v>19.58697642189467</v>
+        <v>17.95099602006776</v>
       </c>
       <c r="L15">
-        <v>6.478008897718849</v>
+        <v>14.43199481506462</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.67636063391844</v>
       </c>
       <c r="N15">
-        <v>5.895364505500857</v>
+        <v>6.510822693284958</v>
       </c>
       <c r="O15">
-        <v>31.79214522587487</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>24.28692470028119</v>
+        <v>5.7281417527107</v>
       </c>
       <c r="Q15">
-        <v>19.65810569337632</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>30.91685620319978</v>
+      </c>
+      <c r="R15">
+        <v>24.48898478955156</v>
+      </c>
+      <c r="S15">
+        <v>18.34639169075637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.638506585079058</v>
+        <v>7.101253642941158</v>
       </c>
       <c r="D16">
-        <v>4.642115452748327</v>
+        <v>4.635900914606465</v>
       </c>
       <c r="E16">
-        <v>8.153867610630879</v>
+        <v>8.118025903718326</v>
       </c>
       <c r="F16">
-        <v>25.44136095253038</v>
+        <v>24.03083180492435</v>
       </c>
       <c r="G16">
-        <v>34.30396378588312</v>
+        <v>32.36195823480614</v>
       </c>
       <c r="H16">
-        <v>6.536714400945416</v>
+        <v>6.507825455262484</v>
       </c>
       <c r="I16">
-        <v>3.666209923604124</v>
+        <v>3.585640777562168</v>
       </c>
       <c r="J16">
-        <v>10.66187303593696</v>
+        <v>10.35139514114234</v>
       </c>
       <c r="K16">
-        <v>19.29652584202429</v>
+        <v>17.82598934951469</v>
       </c>
       <c r="L16">
-        <v>6.446319755534649</v>
+        <v>14.48085661958657</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.38815818626685</v>
       </c>
       <c r="N16">
-        <v>5.873820731375021</v>
+        <v>6.475146010014801</v>
       </c>
       <c r="O16">
-        <v>30.887176745725</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>23.69225044072075</v>
+        <v>5.733693450529791</v>
       </c>
       <c r="Q16">
-        <v>19.32270835917684</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>30.10604570269356</v>
+      </c>
+      <c r="R16">
+        <v>23.87093704170771</v>
+      </c>
+      <c r="S16">
+        <v>18.1898891529306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.661474425539662</v>
+        <v>7.078533487310615</v>
       </c>
       <c r="D17">
-        <v>4.688415890704486</v>
+        <v>4.68383954613533</v>
       </c>
       <c r="E17">
-        <v>8.0774942154125</v>
+        <v>8.034851424071666</v>
       </c>
       <c r="F17">
-        <v>25.53802689342443</v>
+        <v>24.20114151927229</v>
       </c>
       <c r="G17">
-        <v>34.27683983933228</v>
+        <v>31.95258769213313</v>
       </c>
       <c r="H17">
-        <v>5.788022840821491</v>
+        <v>5.759957283628546</v>
       </c>
       <c r="I17">
-        <v>3.600725120292933</v>
+        <v>3.531480952248672</v>
       </c>
       <c r="J17">
-        <v>10.69053083749349</v>
+        <v>10.59438154787149</v>
       </c>
       <c r="K17">
-        <v>19.36493931013887</v>
+        <v>17.94645614316091</v>
       </c>
       <c r="L17">
-        <v>6.37641191138138</v>
+        <v>14.65065500421358</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.37129581105836</v>
       </c>
       <c r="N17">
-        <v>5.783911570027524</v>
+        <v>6.395050674239065</v>
       </c>
       <c r="O17">
-        <v>30.6006036455794</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>23.25693429675336</v>
+        <v>5.676233494037996</v>
       </c>
       <c r="Q17">
-        <v>19.34844524829249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>29.85339025595843</v>
+      </c>
+      <c r="R17">
+        <v>23.42653459817372</v>
+      </c>
+      <c r="S17">
+        <v>18.27997887699885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.774792569684366</v>
+        <v>7.097701837942489</v>
       </c>
       <c r="D18">
-        <v>4.76744575007869</v>
+        <v>4.769739850182853</v>
       </c>
       <c r="E18">
-        <v>7.993280241850758</v>
+        <v>7.930200260288943</v>
       </c>
       <c r="F18">
-        <v>26.12793992857674</v>
+        <v>24.78314381669582</v>
       </c>
       <c r="G18">
-        <v>34.98747692476212</v>
+        <v>32.44806648615249</v>
       </c>
       <c r="H18">
-        <v>4.588928545263265</v>
+        <v>4.554740732005017</v>
       </c>
       <c r="I18">
-        <v>3.579313530504143</v>
+        <v>3.512094883292315</v>
       </c>
       <c r="J18">
-        <v>10.85148017161853</v>
+        <v>10.82834214529165</v>
       </c>
       <c r="K18">
-        <v>19.76809421532774</v>
+        <v>18.32778230674129</v>
       </c>
       <c r="L18">
-        <v>6.287668195185062</v>
+        <v>14.97246754368645</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.61252586945031</v>
       </c>
       <c r="N18">
-        <v>5.654498845024843</v>
+        <v>6.288795120585092</v>
       </c>
       <c r="O18">
-        <v>30.83660555270897</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>22.9134110776174</v>
+        <v>5.589922206918708</v>
       </c>
       <c r="Q18">
-        <v>19.70085659207374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>30.08607597063999</v>
+      </c>
+      <c r="R18">
+        <v>23.08271789652944</v>
+      </c>
+      <c r="S18">
+        <v>18.62906446523769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.944047242747067</v>
+        <v>7.154304050645267</v>
       </c>
       <c r="D19">
-        <v>4.876678381786575</v>
+        <v>4.888927613306763</v>
       </c>
       <c r="E19">
-        <v>7.980207305942254</v>
+        <v>7.887369250603705</v>
       </c>
       <c r="F19">
-        <v>27.016530570656</v>
+        <v>25.61235974401888</v>
       </c>
       <c r="G19">
-        <v>36.14740506302248</v>
+        <v>33.46863232591115</v>
       </c>
       <c r="H19">
-        <v>3.273586264592669</v>
+        <v>3.221993233120259</v>
       </c>
       <c r="I19">
-        <v>3.602187226462634</v>
+        <v>3.531901688496867</v>
       </c>
       <c r="J19">
-        <v>11.08936484184815</v>
+        <v>11.06228530170583</v>
       </c>
       <c r="K19">
-        <v>20.3592146135703</v>
+        <v>18.85004169620572</v>
       </c>
       <c r="L19">
-        <v>6.224991791593447</v>
+        <v>15.36519719188831</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.00870846495002</v>
       </c>
       <c r="N19">
-        <v>5.540647265437312</v>
+        <v>6.202954901612569</v>
       </c>
       <c r="O19">
-        <v>31.44421443748029</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>22.67860386498514</v>
+        <v>5.53007712395187</v>
       </c>
       <c r="Q19">
-        <v>20.24802696340908</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>30.66622942102957</v>
+      </c>
+      <c r="R19">
+        <v>22.85345252763054</v>
+      </c>
+      <c r="S19">
+        <v>19.13056418557451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.292214782705082</v>
+        <v>7.318172518745444</v>
       </c>
       <c r="D20">
-        <v>5.062400463081939</v>
+        <v>5.095245047372583</v>
       </c>
       <c r="E20">
-        <v>8.149437440758204</v>
+        <v>8.006360610092775</v>
       </c>
       <c r="F20">
-        <v>28.75735468896062</v>
+        <v>27.15739470508008</v>
       </c>
       <c r="G20">
-        <v>38.60105352157737</v>
+        <v>35.96091305526227</v>
       </c>
       <c r="H20">
-        <v>2.397316286894613</v>
+        <v>2.298764296386132</v>
       </c>
       <c r="I20">
-        <v>3.738556388716301</v>
+        <v>3.646843080797905</v>
       </c>
       <c r="J20">
-        <v>11.55643405847254</v>
+        <v>11.32178380763588</v>
       </c>
       <c r="K20">
-        <v>21.52042975339771</v>
+        <v>19.81496526254688</v>
       </c>
       <c r="L20">
-        <v>6.228675803542896</v>
+        <v>15.98054089141397</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.88240298400638</v>
       </c>
       <c r="N20">
-        <v>5.47591507274487</v>
+        <v>6.16842517038332</v>
       </c>
       <c r="O20">
-        <v>33.07520173679713</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>22.75474858457983</v>
+        <v>5.545076663870504</v>
       </c>
       <c r="Q20">
-        <v>21.36532688879765</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>32.20679355294101</v>
+      </c>
+      <c r="R20">
+        <v>22.95057244123236</v>
+      </c>
+      <c r="S20">
+        <v>20.08990982673142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.498577206647342</v>
+        <v>7.480037727706466</v>
       </c>
       <c r="D21">
-        <v>5.094582045213544</v>
+        <v>5.172727607588057</v>
       </c>
       <c r="E21">
-        <v>8.196186847661725</v>
+        <v>8.041518089733266</v>
       </c>
       <c r="F21">
-        <v>30.0100381704325</v>
+        <v>27.95935293901542</v>
       </c>
       <c r="G21">
-        <v>40.67307192924752</v>
+        <v>39.7038017946881</v>
       </c>
       <c r="H21">
-        <v>2.69212506643229</v>
+        <v>2.552760520422576</v>
       </c>
       <c r="I21">
-        <v>3.985472505419247</v>
+        <v>3.848407415460584</v>
       </c>
       <c r="J21">
-        <v>11.89741640224043</v>
+        <v>10.53378659927936</v>
       </c>
       <c r="K21">
-        <v>22.35066575981571</v>
+        <v>20.27855721288594</v>
       </c>
       <c r="L21">
-        <v>6.253654891547993</v>
+        <v>16.03768142357125</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.60088406613187</v>
       </c>
       <c r="N21">
-        <v>5.446048970469982</v>
+        <v>6.185292596682652</v>
       </c>
       <c r="O21">
-        <v>35.00509608494873</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>23.76032546574621</v>
+        <v>5.509848700798362</v>
       </c>
       <c r="Q21">
-        <v>22.25091175931627</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>33.93683401814115</v>
+      </c>
+      <c r="R21">
+        <v>24.00507730920513</v>
+      </c>
+      <c r="S21">
+        <v>20.59107489359856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.632442588154927</v>
+        <v>7.588933267795789</v>
       </c>
       <c r="D22">
-        <v>5.106556771768158</v>
+        <v>5.218219324276984</v>
       </c>
       <c r="E22">
-        <v>8.215273468103183</v>
+        <v>8.057064505896765</v>
       </c>
       <c r="F22">
-        <v>30.77483329916408</v>
+        <v>28.42312445957107</v>
       </c>
       <c r="G22">
-        <v>41.94722725298031</v>
+        <v>42.1498220864695</v>
       </c>
       <c r="H22">
-        <v>2.877168543605813</v>
+        <v>2.711866925721535</v>
       </c>
       <c r="I22">
-        <v>4.139018981359447</v>
+        <v>3.971932065907149</v>
       </c>
       <c r="J22">
-        <v>12.11056042006809</v>
+        <v>9.978483033299947</v>
       </c>
       <c r="K22">
-        <v>22.86801549677969</v>
+        <v>20.55300873289572</v>
       </c>
       <c r="L22">
-        <v>6.267712762415761</v>
+        <v>16.05558975746956</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.0459611066245</v>
       </c>
       <c r="N22">
-        <v>5.425984301744381</v>
+        <v>6.195957461002344</v>
       </c>
       <c r="O22">
-        <v>36.17464576062702</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>24.40409923746762</v>
+        <v>5.481811797798367</v>
       </c>
       <c r="Q22">
-        <v>22.79998031583968</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>34.97611350648243</v>
+      </c>
+      <c r="R22">
+        <v>24.68074566343372</v>
+      </c>
+      <c r="S22">
+        <v>20.88188142034616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.577778590044106</v>
+        <v>7.53693028338421</v>
       </c>
       <c r="D23">
-        <v>5.09905703094616</v>
+        <v>5.187402893210434</v>
       </c>
       <c r="E23">
-        <v>8.206612372608364</v>
+        <v>8.048879550482239</v>
       </c>
       <c r="F23">
-        <v>30.39362169700139</v>
+        <v>28.23341452375058</v>
       </c>
       <c r="G23">
-        <v>41.31379871761454</v>
+        <v>40.68270744919681</v>
       </c>
       <c r="H23">
-        <v>2.780324037123536</v>
+        <v>2.629814707932399</v>
       </c>
       <c r="I23">
-        <v>4.055775551234111</v>
+        <v>3.904293787419105</v>
       </c>
       <c r="J23">
-        <v>12.00593141419274</v>
+        <v>10.39451422574794</v>
       </c>
       <c r="K23">
-        <v>22.62024751865315</v>
+        <v>20.45521459559819</v>
       </c>
       <c r="L23">
-        <v>6.260909275774713</v>
+        <v>16.08041277395344</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.84751601740264</v>
       </c>
       <c r="N23">
-        <v>5.436563509965258</v>
+        <v>6.190947610119878</v>
       </c>
       <c r="O23">
-        <v>35.56904669364346</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>24.05942454817544</v>
+        <v>5.495361043056181</v>
       </c>
       <c r="Q23">
-        <v>22.52840716781803</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>34.45311956807517</v>
+      </c>
+      <c r="R23">
+        <v>24.3160768930464</v>
+      </c>
+      <c r="S23">
+        <v>20.77549566475229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.337980470938573</v>
+        <v>7.338567530889245</v>
       </c>
       <c r="D24">
-        <v>5.075011567815271</v>
+        <v>5.10848541970481</v>
       </c>
       <c r="E24">
-        <v>8.171404140274873</v>
+        <v>8.024861538221051</v>
       </c>
       <c r="F24">
-        <v>28.88136688545565</v>
+        <v>27.27741624776843</v>
       </c>
       <c r="G24">
-        <v>38.7746048579021</v>
+        <v>36.10923127454112</v>
       </c>
       <c r="H24">
-        <v>2.403556960163409</v>
+        <v>2.304390766017702</v>
       </c>
       <c r="I24">
-        <v>3.736402889264779</v>
+        <v>3.642345474381058</v>
       </c>
       <c r="J24">
-        <v>11.59303237160022</v>
+        <v>11.36429669122689</v>
       </c>
       <c r="K24">
-        <v>21.62012877308193</v>
+        <v>19.90845099632412</v>
       </c>
       <c r="L24">
-        <v>6.233120451930577</v>
+        <v>16.05268604489824</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.95113483162611</v>
       </c>
       <c r="N24">
-        <v>5.47732988845144</v>
+        <v>6.169679836970805</v>
       </c>
       <c r="O24">
-        <v>33.14256414694292</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>22.71549734968577</v>
+        <v>5.551787891624658</v>
       </c>
       <c r="Q24">
-        <v>21.44830439489157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>32.2724217000712</v>
+      </c>
+      <c r="R24">
+        <v>22.91159910373438</v>
+      </c>
+      <c r="S24">
+        <v>20.16992031587391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.066723982758479</v>
+        <v>7.137204053717074</v>
       </c>
       <c r="D25">
-        <v>5.054611001264756</v>
+        <v>5.084159025067697</v>
       </c>
       <c r="E25">
-        <v>8.133118899633111</v>
+        <v>8.009484806428713</v>
       </c>
       <c r="F25">
-        <v>27.19829292698921</v>
+        <v>25.85190086270571</v>
       </c>
       <c r="G25">
-        <v>35.89141052588277</v>
+        <v>33.35725116654711</v>
       </c>
       <c r="H25">
-        <v>1.980464259595527</v>
+        <v>1.923726139685796</v>
       </c>
       <c r="I25">
-        <v>3.378389373649841</v>
+        <v>3.335482600491448</v>
       </c>
       <c r="J25">
-        <v>11.14495175177785</v>
+        <v>11.09024766777714</v>
       </c>
       <c r="K25">
-        <v>20.50841354149176</v>
+        <v>19.05425912681374</v>
       </c>
       <c r="L25">
-        <v>6.200886391843386</v>
+        <v>15.83292337432603</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.77411467739728</v>
       </c>
       <c r="N25">
-        <v>5.522434275481961</v>
+        <v>6.141349359710953</v>
       </c>
       <c r="O25">
-        <v>30.28769025993858</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>21.17758695542077</v>
+        <v>5.617618266966556</v>
       </c>
       <c r="Q25">
-        <v>20.24838400085653</v>
+        <v>29.53984228977444</v>
+      </c>
+      <c r="R25">
+        <v>21.33976546490145</v>
+      </c>
+      <c r="S25">
+        <v>19.17739700340591</v>
       </c>
     </row>
   </sheetData>
